--- a/hw4/toy4.xlsx
+++ b/hw4/toy4.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="440" windowWidth="25600" windowHeight="14580" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="440" windowWidth="25600" windowHeight="14540" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -107,25 +107,3034 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
+    <c:title>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
-      <c:lineChart>
-        <c:grouping val="stacked"/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
         <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
-          <c:tx>
-            <c:v>bubble</c:v>
-          </c:tx>
           <c:spPr>
-            <a:ln w="12700"/>
+            <a:ln w="31750">
+              <a:noFill/>
+            </a:ln>
           </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:val>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$A$2:$A$1001</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1000"/>
+                <c:pt idx="0">
+                  <c:v>131.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>132.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>133.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>134.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>135.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>136.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>137.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>138.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>139.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>140.0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>141.0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>142.0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>143.0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>144.0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>145.0</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>146.0</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>147.0</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>148.0</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>149.0</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>150.0</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>151.0</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>152.0</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>153.0</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>154.0</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>155.0</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>156.0</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>157.0</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>158.0</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>159.0</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>160.0</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>161.0</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>162.0</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>163.0</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>164.0</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>165.0</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>166.0</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>167.0</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>168.0</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>169.0</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>170.0</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>171.0</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>172.0</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>173.0</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>174.0</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>175.0</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>176.0</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>177.0</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>178.0</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>179.0</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>180.0</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>181.0</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>182.0</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>183.0</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>184.0</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>185.0</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>186.0</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>187.0</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>188.0</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>189.0</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>190.0</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>191.0</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>192.0</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>193.0</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>194.0</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>195.0</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>196.0</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>197.0</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>198.0</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>199.0</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>200.0</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>201.0</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>202.0</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>203.0</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>204.0</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>205.0</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>206.0</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>207.0</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>208.0</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>209.0</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>210.0</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>211.0</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>212.0</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>213.0</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>214.0</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>215.0</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>216.0</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>217.0</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>218.0</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>219.0</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>220.0</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>221.0</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>222.0</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>223.0</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>224.0</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>225.0</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>226.0</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>227.0</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>228.0</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>229.0</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>230.0</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>231.0</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>232.0</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>233.0</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>234.0</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>235.0</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>236.0</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>237.0</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>238.0</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>239.0</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>240.0</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>241.0</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>242.0</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>243.0</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>244.0</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>245.0</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>246.0</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>247.0</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>248.0</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>249.0</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>250.0</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>251.0</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>252.0</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>253.0</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>254.0</c:v>
+                </c:pt>
+                <c:pt idx="124">
+                  <c:v>255.0</c:v>
+                </c:pt>
+                <c:pt idx="125">
+                  <c:v>256.0</c:v>
+                </c:pt>
+                <c:pt idx="126">
+                  <c:v>257.0</c:v>
+                </c:pt>
+                <c:pt idx="127">
+                  <c:v>258.0</c:v>
+                </c:pt>
+                <c:pt idx="128">
+                  <c:v>259.0</c:v>
+                </c:pt>
+                <c:pt idx="129">
+                  <c:v>260.0</c:v>
+                </c:pt>
+                <c:pt idx="130">
+                  <c:v>261.0</c:v>
+                </c:pt>
+                <c:pt idx="131">
+                  <c:v>262.0</c:v>
+                </c:pt>
+                <c:pt idx="132">
+                  <c:v>263.0</c:v>
+                </c:pt>
+                <c:pt idx="133">
+                  <c:v>264.0</c:v>
+                </c:pt>
+                <c:pt idx="134">
+                  <c:v>265.0</c:v>
+                </c:pt>
+                <c:pt idx="135">
+                  <c:v>266.0</c:v>
+                </c:pt>
+                <c:pt idx="136">
+                  <c:v>267.0</c:v>
+                </c:pt>
+                <c:pt idx="137">
+                  <c:v>268.0</c:v>
+                </c:pt>
+                <c:pt idx="138">
+                  <c:v>269.0</c:v>
+                </c:pt>
+                <c:pt idx="139">
+                  <c:v>270.0</c:v>
+                </c:pt>
+                <c:pt idx="140">
+                  <c:v>271.0</c:v>
+                </c:pt>
+                <c:pt idx="141">
+                  <c:v>272.0</c:v>
+                </c:pt>
+                <c:pt idx="142">
+                  <c:v>273.0</c:v>
+                </c:pt>
+                <c:pt idx="143">
+                  <c:v>274.0</c:v>
+                </c:pt>
+                <c:pt idx="144">
+                  <c:v>275.0</c:v>
+                </c:pt>
+                <c:pt idx="145">
+                  <c:v>276.0</c:v>
+                </c:pt>
+                <c:pt idx="146">
+                  <c:v>277.0</c:v>
+                </c:pt>
+                <c:pt idx="147">
+                  <c:v>278.0</c:v>
+                </c:pt>
+                <c:pt idx="148">
+                  <c:v>279.0</c:v>
+                </c:pt>
+                <c:pt idx="149">
+                  <c:v>280.0</c:v>
+                </c:pt>
+                <c:pt idx="150">
+                  <c:v>281.0</c:v>
+                </c:pt>
+                <c:pt idx="151">
+                  <c:v>282.0</c:v>
+                </c:pt>
+                <c:pt idx="152">
+                  <c:v>283.0</c:v>
+                </c:pt>
+                <c:pt idx="153">
+                  <c:v>284.0</c:v>
+                </c:pt>
+                <c:pt idx="154">
+                  <c:v>285.0</c:v>
+                </c:pt>
+                <c:pt idx="155">
+                  <c:v>286.0</c:v>
+                </c:pt>
+                <c:pt idx="156">
+                  <c:v>287.0</c:v>
+                </c:pt>
+                <c:pt idx="157">
+                  <c:v>288.0</c:v>
+                </c:pt>
+                <c:pt idx="158">
+                  <c:v>289.0</c:v>
+                </c:pt>
+                <c:pt idx="159">
+                  <c:v>290.0</c:v>
+                </c:pt>
+                <c:pt idx="160">
+                  <c:v>291.0</c:v>
+                </c:pt>
+                <c:pt idx="161">
+                  <c:v>292.0</c:v>
+                </c:pt>
+                <c:pt idx="162">
+                  <c:v>293.0</c:v>
+                </c:pt>
+                <c:pt idx="163">
+                  <c:v>294.0</c:v>
+                </c:pt>
+                <c:pt idx="164">
+                  <c:v>295.0</c:v>
+                </c:pt>
+                <c:pt idx="165">
+                  <c:v>296.0</c:v>
+                </c:pt>
+                <c:pt idx="166">
+                  <c:v>297.0</c:v>
+                </c:pt>
+                <c:pt idx="167">
+                  <c:v>298.0</c:v>
+                </c:pt>
+                <c:pt idx="168">
+                  <c:v>299.0</c:v>
+                </c:pt>
+                <c:pt idx="169">
+                  <c:v>300.0</c:v>
+                </c:pt>
+                <c:pt idx="170">
+                  <c:v>301.0</c:v>
+                </c:pt>
+                <c:pt idx="171">
+                  <c:v>302.0</c:v>
+                </c:pt>
+                <c:pt idx="172">
+                  <c:v>303.0</c:v>
+                </c:pt>
+                <c:pt idx="173">
+                  <c:v>304.0</c:v>
+                </c:pt>
+                <c:pt idx="174">
+                  <c:v>305.0</c:v>
+                </c:pt>
+                <c:pt idx="175">
+                  <c:v>306.0</c:v>
+                </c:pt>
+                <c:pt idx="176">
+                  <c:v>307.0</c:v>
+                </c:pt>
+                <c:pt idx="177">
+                  <c:v>308.0</c:v>
+                </c:pt>
+                <c:pt idx="178">
+                  <c:v>309.0</c:v>
+                </c:pt>
+                <c:pt idx="179">
+                  <c:v>310.0</c:v>
+                </c:pt>
+                <c:pt idx="180">
+                  <c:v>311.0</c:v>
+                </c:pt>
+                <c:pt idx="181">
+                  <c:v>312.0</c:v>
+                </c:pt>
+                <c:pt idx="182">
+                  <c:v>313.0</c:v>
+                </c:pt>
+                <c:pt idx="183">
+                  <c:v>314.0</c:v>
+                </c:pt>
+                <c:pt idx="184">
+                  <c:v>315.0</c:v>
+                </c:pt>
+                <c:pt idx="185">
+                  <c:v>316.0</c:v>
+                </c:pt>
+                <c:pt idx="186">
+                  <c:v>317.0</c:v>
+                </c:pt>
+                <c:pt idx="187">
+                  <c:v>318.0</c:v>
+                </c:pt>
+                <c:pt idx="188">
+                  <c:v>319.0</c:v>
+                </c:pt>
+                <c:pt idx="189">
+                  <c:v>320.0</c:v>
+                </c:pt>
+                <c:pt idx="190">
+                  <c:v>321.0</c:v>
+                </c:pt>
+                <c:pt idx="191">
+                  <c:v>322.0</c:v>
+                </c:pt>
+                <c:pt idx="192">
+                  <c:v>323.0</c:v>
+                </c:pt>
+                <c:pt idx="193">
+                  <c:v>324.0</c:v>
+                </c:pt>
+                <c:pt idx="194">
+                  <c:v>325.0</c:v>
+                </c:pt>
+                <c:pt idx="195">
+                  <c:v>326.0</c:v>
+                </c:pt>
+                <c:pt idx="196">
+                  <c:v>327.0</c:v>
+                </c:pt>
+                <c:pt idx="197">
+                  <c:v>328.0</c:v>
+                </c:pt>
+                <c:pt idx="198">
+                  <c:v>329.0</c:v>
+                </c:pt>
+                <c:pt idx="199">
+                  <c:v>330.0</c:v>
+                </c:pt>
+                <c:pt idx="200">
+                  <c:v>331.0</c:v>
+                </c:pt>
+                <c:pt idx="201">
+                  <c:v>332.0</c:v>
+                </c:pt>
+                <c:pt idx="202">
+                  <c:v>333.0</c:v>
+                </c:pt>
+                <c:pt idx="203">
+                  <c:v>334.0</c:v>
+                </c:pt>
+                <c:pt idx="204">
+                  <c:v>335.0</c:v>
+                </c:pt>
+                <c:pt idx="205">
+                  <c:v>336.0</c:v>
+                </c:pt>
+                <c:pt idx="206">
+                  <c:v>337.0</c:v>
+                </c:pt>
+                <c:pt idx="207">
+                  <c:v>338.0</c:v>
+                </c:pt>
+                <c:pt idx="208">
+                  <c:v>339.0</c:v>
+                </c:pt>
+                <c:pt idx="209">
+                  <c:v>340.0</c:v>
+                </c:pt>
+                <c:pt idx="210">
+                  <c:v>341.0</c:v>
+                </c:pt>
+                <c:pt idx="211">
+                  <c:v>342.0</c:v>
+                </c:pt>
+                <c:pt idx="212">
+                  <c:v>343.0</c:v>
+                </c:pt>
+                <c:pt idx="213">
+                  <c:v>344.0</c:v>
+                </c:pt>
+                <c:pt idx="214">
+                  <c:v>345.0</c:v>
+                </c:pt>
+                <c:pt idx="215">
+                  <c:v>346.0</c:v>
+                </c:pt>
+                <c:pt idx="216">
+                  <c:v>347.0</c:v>
+                </c:pt>
+                <c:pt idx="217">
+                  <c:v>348.0</c:v>
+                </c:pt>
+                <c:pt idx="218">
+                  <c:v>349.0</c:v>
+                </c:pt>
+                <c:pt idx="219">
+                  <c:v>350.0</c:v>
+                </c:pt>
+                <c:pt idx="220">
+                  <c:v>351.0</c:v>
+                </c:pt>
+                <c:pt idx="221">
+                  <c:v>352.0</c:v>
+                </c:pt>
+                <c:pt idx="222">
+                  <c:v>353.0</c:v>
+                </c:pt>
+                <c:pt idx="223">
+                  <c:v>354.0</c:v>
+                </c:pt>
+                <c:pt idx="224">
+                  <c:v>355.0</c:v>
+                </c:pt>
+                <c:pt idx="225">
+                  <c:v>356.0</c:v>
+                </c:pt>
+                <c:pt idx="226">
+                  <c:v>357.0</c:v>
+                </c:pt>
+                <c:pt idx="227">
+                  <c:v>358.0</c:v>
+                </c:pt>
+                <c:pt idx="228">
+                  <c:v>359.0</c:v>
+                </c:pt>
+                <c:pt idx="229">
+                  <c:v>360.0</c:v>
+                </c:pt>
+                <c:pt idx="230">
+                  <c:v>361.0</c:v>
+                </c:pt>
+                <c:pt idx="231">
+                  <c:v>362.0</c:v>
+                </c:pt>
+                <c:pt idx="232">
+                  <c:v>363.0</c:v>
+                </c:pt>
+                <c:pt idx="233">
+                  <c:v>364.0</c:v>
+                </c:pt>
+                <c:pt idx="234">
+                  <c:v>365.0</c:v>
+                </c:pt>
+                <c:pt idx="235">
+                  <c:v>366.0</c:v>
+                </c:pt>
+                <c:pt idx="236">
+                  <c:v>367.0</c:v>
+                </c:pt>
+                <c:pt idx="237">
+                  <c:v>368.0</c:v>
+                </c:pt>
+                <c:pt idx="238">
+                  <c:v>369.0</c:v>
+                </c:pt>
+                <c:pt idx="239">
+                  <c:v>370.0</c:v>
+                </c:pt>
+                <c:pt idx="240">
+                  <c:v>371.0</c:v>
+                </c:pt>
+                <c:pt idx="241">
+                  <c:v>372.0</c:v>
+                </c:pt>
+                <c:pt idx="242">
+                  <c:v>373.0</c:v>
+                </c:pt>
+                <c:pt idx="243">
+                  <c:v>374.0</c:v>
+                </c:pt>
+                <c:pt idx="244">
+                  <c:v>375.0</c:v>
+                </c:pt>
+                <c:pt idx="245">
+                  <c:v>376.0</c:v>
+                </c:pt>
+                <c:pt idx="246">
+                  <c:v>377.0</c:v>
+                </c:pt>
+                <c:pt idx="247">
+                  <c:v>378.0</c:v>
+                </c:pt>
+                <c:pt idx="248">
+                  <c:v>379.0</c:v>
+                </c:pt>
+                <c:pt idx="249">
+                  <c:v>380.0</c:v>
+                </c:pt>
+                <c:pt idx="250">
+                  <c:v>381.0</c:v>
+                </c:pt>
+                <c:pt idx="251">
+                  <c:v>382.0</c:v>
+                </c:pt>
+                <c:pt idx="252">
+                  <c:v>383.0</c:v>
+                </c:pt>
+                <c:pt idx="253">
+                  <c:v>384.0</c:v>
+                </c:pt>
+                <c:pt idx="254">
+                  <c:v>385.0</c:v>
+                </c:pt>
+                <c:pt idx="255">
+                  <c:v>386.0</c:v>
+                </c:pt>
+                <c:pt idx="256">
+                  <c:v>387.0</c:v>
+                </c:pt>
+                <c:pt idx="257">
+                  <c:v>388.0</c:v>
+                </c:pt>
+                <c:pt idx="258">
+                  <c:v>389.0</c:v>
+                </c:pt>
+                <c:pt idx="259">
+                  <c:v>390.0</c:v>
+                </c:pt>
+                <c:pt idx="260">
+                  <c:v>391.0</c:v>
+                </c:pt>
+                <c:pt idx="261">
+                  <c:v>392.0</c:v>
+                </c:pt>
+                <c:pt idx="262">
+                  <c:v>393.0</c:v>
+                </c:pt>
+                <c:pt idx="263">
+                  <c:v>394.0</c:v>
+                </c:pt>
+                <c:pt idx="264">
+                  <c:v>395.0</c:v>
+                </c:pt>
+                <c:pt idx="265">
+                  <c:v>396.0</c:v>
+                </c:pt>
+                <c:pt idx="266">
+                  <c:v>397.0</c:v>
+                </c:pt>
+                <c:pt idx="267">
+                  <c:v>398.0</c:v>
+                </c:pt>
+                <c:pt idx="268">
+                  <c:v>399.0</c:v>
+                </c:pt>
+                <c:pt idx="269">
+                  <c:v>400.0</c:v>
+                </c:pt>
+                <c:pt idx="270">
+                  <c:v>401.0</c:v>
+                </c:pt>
+                <c:pt idx="271">
+                  <c:v>402.0</c:v>
+                </c:pt>
+                <c:pt idx="272">
+                  <c:v>403.0</c:v>
+                </c:pt>
+                <c:pt idx="273">
+                  <c:v>404.0</c:v>
+                </c:pt>
+                <c:pt idx="274">
+                  <c:v>405.0</c:v>
+                </c:pt>
+                <c:pt idx="275">
+                  <c:v>406.0</c:v>
+                </c:pt>
+                <c:pt idx="276">
+                  <c:v>407.0</c:v>
+                </c:pt>
+                <c:pt idx="277">
+                  <c:v>408.0</c:v>
+                </c:pt>
+                <c:pt idx="278">
+                  <c:v>409.0</c:v>
+                </c:pt>
+                <c:pt idx="279">
+                  <c:v>410.0</c:v>
+                </c:pt>
+                <c:pt idx="280">
+                  <c:v>411.0</c:v>
+                </c:pt>
+                <c:pt idx="281">
+                  <c:v>412.0</c:v>
+                </c:pt>
+                <c:pt idx="282">
+                  <c:v>413.0</c:v>
+                </c:pt>
+                <c:pt idx="283">
+                  <c:v>414.0</c:v>
+                </c:pt>
+                <c:pt idx="284">
+                  <c:v>415.0</c:v>
+                </c:pt>
+                <c:pt idx="285">
+                  <c:v>416.0</c:v>
+                </c:pt>
+                <c:pt idx="286">
+                  <c:v>417.0</c:v>
+                </c:pt>
+                <c:pt idx="287">
+                  <c:v>418.0</c:v>
+                </c:pt>
+                <c:pt idx="288">
+                  <c:v>419.0</c:v>
+                </c:pt>
+                <c:pt idx="289">
+                  <c:v>420.0</c:v>
+                </c:pt>
+                <c:pt idx="290">
+                  <c:v>421.0</c:v>
+                </c:pt>
+                <c:pt idx="291">
+                  <c:v>422.0</c:v>
+                </c:pt>
+                <c:pt idx="292">
+                  <c:v>423.0</c:v>
+                </c:pt>
+                <c:pt idx="293">
+                  <c:v>424.0</c:v>
+                </c:pt>
+                <c:pt idx="294">
+                  <c:v>425.0</c:v>
+                </c:pt>
+                <c:pt idx="295">
+                  <c:v>426.0</c:v>
+                </c:pt>
+                <c:pt idx="296">
+                  <c:v>427.0</c:v>
+                </c:pt>
+                <c:pt idx="297">
+                  <c:v>428.0</c:v>
+                </c:pt>
+                <c:pt idx="298">
+                  <c:v>429.0</c:v>
+                </c:pt>
+                <c:pt idx="299">
+                  <c:v>430.0</c:v>
+                </c:pt>
+                <c:pt idx="300">
+                  <c:v>431.0</c:v>
+                </c:pt>
+                <c:pt idx="301">
+                  <c:v>432.0</c:v>
+                </c:pt>
+                <c:pt idx="302">
+                  <c:v>433.0</c:v>
+                </c:pt>
+                <c:pt idx="303">
+                  <c:v>434.0</c:v>
+                </c:pt>
+                <c:pt idx="304">
+                  <c:v>435.0</c:v>
+                </c:pt>
+                <c:pt idx="305">
+                  <c:v>436.0</c:v>
+                </c:pt>
+                <c:pt idx="306">
+                  <c:v>437.0</c:v>
+                </c:pt>
+                <c:pt idx="307">
+                  <c:v>438.0</c:v>
+                </c:pt>
+                <c:pt idx="308">
+                  <c:v>439.0</c:v>
+                </c:pt>
+                <c:pt idx="309">
+                  <c:v>440.0</c:v>
+                </c:pt>
+                <c:pt idx="310">
+                  <c:v>441.0</c:v>
+                </c:pt>
+                <c:pt idx="311">
+                  <c:v>442.0</c:v>
+                </c:pt>
+                <c:pt idx="312">
+                  <c:v>443.0</c:v>
+                </c:pt>
+                <c:pt idx="313">
+                  <c:v>444.0</c:v>
+                </c:pt>
+                <c:pt idx="314">
+                  <c:v>445.0</c:v>
+                </c:pt>
+                <c:pt idx="315">
+                  <c:v>446.0</c:v>
+                </c:pt>
+                <c:pt idx="316">
+                  <c:v>447.0</c:v>
+                </c:pt>
+                <c:pt idx="317">
+                  <c:v>448.0</c:v>
+                </c:pt>
+                <c:pt idx="318">
+                  <c:v>449.0</c:v>
+                </c:pt>
+                <c:pt idx="319">
+                  <c:v>450.0</c:v>
+                </c:pt>
+                <c:pt idx="320">
+                  <c:v>451.0</c:v>
+                </c:pt>
+                <c:pt idx="321">
+                  <c:v>452.0</c:v>
+                </c:pt>
+                <c:pt idx="322">
+                  <c:v>453.0</c:v>
+                </c:pt>
+                <c:pt idx="323">
+                  <c:v>454.0</c:v>
+                </c:pt>
+                <c:pt idx="324">
+                  <c:v>455.0</c:v>
+                </c:pt>
+                <c:pt idx="325">
+                  <c:v>456.0</c:v>
+                </c:pt>
+                <c:pt idx="326">
+                  <c:v>457.0</c:v>
+                </c:pt>
+                <c:pt idx="327">
+                  <c:v>458.0</c:v>
+                </c:pt>
+                <c:pt idx="328">
+                  <c:v>459.0</c:v>
+                </c:pt>
+                <c:pt idx="329">
+                  <c:v>460.0</c:v>
+                </c:pt>
+                <c:pt idx="330">
+                  <c:v>461.0</c:v>
+                </c:pt>
+                <c:pt idx="331">
+                  <c:v>462.0</c:v>
+                </c:pt>
+                <c:pt idx="332">
+                  <c:v>463.0</c:v>
+                </c:pt>
+                <c:pt idx="333">
+                  <c:v>464.0</c:v>
+                </c:pt>
+                <c:pt idx="334">
+                  <c:v>465.0</c:v>
+                </c:pt>
+                <c:pt idx="335">
+                  <c:v>466.0</c:v>
+                </c:pt>
+                <c:pt idx="336">
+                  <c:v>467.0</c:v>
+                </c:pt>
+                <c:pt idx="337">
+                  <c:v>468.0</c:v>
+                </c:pt>
+                <c:pt idx="338">
+                  <c:v>469.0</c:v>
+                </c:pt>
+                <c:pt idx="339">
+                  <c:v>470.0</c:v>
+                </c:pt>
+                <c:pt idx="340">
+                  <c:v>471.0</c:v>
+                </c:pt>
+                <c:pt idx="341">
+                  <c:v>472.0</c:v>
+                </c:pt>
+                <c:pt idx="342">
+                  <c:v>473.0</c:v>
+                </c:pt>
+                <c:pt idx="343">
+                  <c:v>474.0</c:v>
+                </c:pt>
+                <c:pt idx="344">
+                  <c:v>475.0</c:v>
+                </c:pt>
+                <c:pt idx="345">
+                  <c:v>476.0</c:v>
+                </c:pt>
+                <c:pt idx="346">
+                  <c:v>477.0</c:v>
+                </c:pt>
+                <c:pt idx="347">
+                  <c:v>478.0</c:v>
+                </c:pt>
+                <c:pt idx="348">
+                  <c:v>479.0</c:v>
+                </c:pt>
+                <c:pt idx="349">
+                  <c:v>480.0</c:v>
+                </c:pt>
+                <c:pt idx="350">
+                  <c:v>481.0</c:v>
+                </c:pt>
+                <c:pt idx="351">
+                  <c:v>482.0</c:v>
+                </c:pt>
+                <c:pt idx="352">
+                  <c:v>483.0</c:v>
+                </c:pt>
+                <c:pt idx="353">
+                  <c:v>484.0</c:v>
+                </c:pt>
+                <c:pt idx="354">
+                  <c:v>485.0</c:v>
+                </c:pt>
+                <c:pt idx="355">
+                  <c:v>486.0</c:v>
+                </c:pt>
+                <c:pt idx="356">
+                  <c:v>487.0</c:v>
+                </c:pt>
+                <c:pt idx="357">
+                  <c:v>488.0</c:v>
+                </c:pt>
+                <c:pt idx="358">
+                  <c:v>489.0</c:v>
+                </c:pt>
+                <c:pt idx="359">
+                  <c:v>490.0</c:v>
+                </c:pt>
+                <c:pt idx="360">
+                  <c:v>491.0</c:v>
+                </c:pt>
+                <c:pt idx="361">
+                  <c:v>492.0</c:v>
+                </c:pt>
+                <c:pt idx="362">
+                  <c:v>493.0</c:v>
+                </c:pt>
+                <c:pt idx="363">
+                  <c:v>494.0</c:v>
+                </c:pt>
+                <c:pt idx="364">
+                  <c:v>495.0</c:v>
+                </c:pt>
+                <c:pt idx="365">
+                  <c:v>496.0</c:v>
+                </c:pt>
+                <c:pt idx="366">
+                  <c:v>497.0</c:v>
+                </c:pt>
+                <c:pt idx="367">
+                  <c:v>498.0</c:v>
+                </c:pt>
+                <c:pt idx="368">
+                  <c:v>499.0</c:v>
+                </c:pt>
+                <c:pt idx="369">
+                  <c:v>500.0</c:v>
+                </c:pt>
+                <c:pt idx="370">
+                  <c:v>501.0</c:v>
+                </c:pt>
+                <c:pt idx="371">
+                  <c:v>502.0</c:v>
+                </c:pt>
+                <c:pt idx="372">
+                  <c:v>503.0</c:v>
+                </c:pt>
+                <c:pt idx="373">
+                  <c:v>504.0</c:v>
+                </c:pt>
+                <c:pt idx="374">
+                  <c:v>505.0</c:v>
+                </c:pt>
+                <c:pt idx="375">
+                  <c:v>506.0</c:v>
+                </c:pt>
+                <c:pt idx="376">
+                  <c:v>507.0</c:v>
+                </c:pt>
+                <c:pt idx="377">
+                  <c:v>508.0</c:v>
+                </c:pt>
+                <c:pt idx="378">
+                  <c:v>509.0</c:v>
+                </c:pt>
+                <c:pt idx="379">
+                  <c:v>510.0</c:v>
+                </c:pt>
+                <c:pt idx="380">
+                  <c:v>511.0</c:v>
+                </c:pt>
+                <c:pt idx="381">
+                  <c:v>512.0</c:v>
+                </c:pt>
+                <c:pt idx="382">
+                  <c:v>513.0</c:v>
+                </c:pt>
+                <c:pt idx="383">
+                  <c:v>514.0</c:v>
+                </c:pt>
+                <c:pt idx="384">
+                  <c:v>515.0</c:v>
+                </c:pt>
+                <c:pt idx="385">
+                  <c:v>516.0</c:v>
+                </c:pt>
+                <c:pt idx="386">
+                  <c:v>517.0</c:v>
+                </c:pt>
+                <c:pt idx="387">
+                  <c:v>518.0</c:v>
+                </c:pt>
+                <c:pt idx="388">
+                  <c:v>519.0</c:v>
+                </c:pt>
+                <c:pt idx="389">
+                  <c:v>520.0</c:v>
+                </c:pt>
+                <c:pt idx="390">
+                  <c:v>521.0</c:v>
+                </c:pt>
+                <c:pt idx="391">
+                  <c:v>522.0</c:v>
+                </c:pt>
+                <c:pt idx="392">
+                  <c:v>523.0</c:v>
+                </c:pt>
+                <c:pt idx="393">
+                  <c:v>524.0</c:v>
+                </c:pt>
+                <c:pt idx="394">
+                  <c:v>525.0</c:v>
+                </c:pt>
+                <c:pt idx="395">
+                  <c:v>526.0</c:v>
+                </c:pt>
+                <c:pt idx="396">
+                  <c:v>527.0</c:v>
+                </c:pt>
+                <c:pt idx="397">
+                  <c:v>528.0</c:v>
+                </c:pt>
+                <c:pt idx="398">
+                  <c:v>529.0</c:v>
+                </c:pt>
+                <c:pt idx="399">
+                  <c:v>530.0</c:v>
+                </c:pt>
+                <c:pt idx="400">
+                  <c:v>531.0</c:v>
+                </c:pt>
+                <c:pt idx="401">
+                  <c:v>532.0</c:v>
+                </c:pt>
+                <c:pt idx="402">
+                  <c:v>533.0</c:v>
+                </c:pt>
+                <c:pt idx="403">
+                  <c:v>534.0</c:v>
+                </c:pt>
+                <c:pt idx="404">
+                  <c:v>535.0</c:v>
+                </c:pt>
+                <c:pt idx="405">
+                  <c:v>536.0</c:v>
+                </c:pt>
+                <c:pt idx="406">
+                  <c:v>537.0</c:v>
+                </c:pt>
+                <c:pt idx="407">
+                  <c:v>538.0</c:v>
+                </c:pt>
+                <c:pt idx="408">
+                  <c:v>539.0</c:v>
+                </c:pt>
+                <c:pt idx="409">
+                  <c:v>540.0</c:v>
+                </c:pt>
+                <c:pt idx="410">
+                  <c:v>541.0</c:v>
+                </c:pt>
+                <c:pt idx="411">
+                  <c:v>542.0</c:v>
+                </c:pt>
+                <c:pt idx="412">
+                  <c:v>543.0</c:v>
+                </c:pt>
+                <c:pt idx="413">
+                  <c:v>544.0</c:v>
+                </c:pt>
+                <c:pt idx="414">
+                  <c:v>545.0</c:v>
+                </c:pt>
+                <c:pt idx="415">
+                  <c:v>546.0</c:v>
+                </c:pt>
+                <c:pt idx="416">
+                  <c:v>547.0</c:v>
+                </c:pt>
+                <c:pt idx="417">
+                  <c:v>548.0</c:v>
+                </c:pt>
+                <c:pt idx="418">
+                  <c:v>549.0</c:v>
+                </c:pt>
+                <c:pt idx="419">
+                  <c:v>550.0</c:v>
+                </c:pt>
+                <c:pt idx="420">
+                  <c:v>551.0</c:v>
+                </c:pt>
+                <c:pt idx="421">
+                  <c:v>552.0</c:v>
+                </c:pt>
+                <c:pt idx="422">
+                  <c:v>553.0</c:v>
+                </c:pt>
+                <c:pt idx="423">
+                  <c:v>554.0</c:v>
+                </c:pt>
+                <c:pt idx="424">
+                  <c:v>555.0</c:v>
+                </c:pt>
+                <c:pt idx="425">
+                  <c:v>556.0</c:v>
+                </c:pt>
+                <c:pt idx="426">
+                  <c:v>557.0</c:v>
+                </c:pt>
+                <c:pt idx="427">
+                  <c:v>558.0</c:v>
+                </c:pt>
+                <c:pt idx="428">
+                  <c:v>559.0</c:v>
+                </c:pt>
+                <c:pt idx="429">
+                  <c:v>560.0</c:v>
+                </c:pt>
+                <c:pt idx="430">
+                  <c:v>561.0</c:v>
+                </c:pt>
+                <c:pt idx="431">
+                  <c:v>562.0</c:v>
+                </c:pt>
+                <c:pt idx="432">
+                  <c:v>563.0</c:v>
+                </c:pt>
+                <c:pt idx="433">
+                  <c:v>564.0</c:v>
+                </c:pt>
+                <c:pt idx="434">
+                  <c:v>565.0</c:v>
+                </c:pt>
+                <c:pt idx="435">
+                  <c:v>566.0</c:v>
+                </c:pt>
+                <c:pt idx="436">
+                  <c:v>567.0</c:v>
+                </c:pt>
+                <c:pt idx="437">
+                  <c:v>568.0</c:v>
+                </c:pt>
+                <c:pt idx="438">
+                  <c:v>569.0</c:v>
+                </c:pt>
+                <c:pt idx="439">
+                  <c:v>570.0</c:v>
+                </c:pt>
+                <c:pt idx="440">
+                  <c:v>571.0</c:v>
+                </c:pt>
+                <c:pt idx="441">
+                  <c:v>572.0</c:v>
+                </c:pt>
+                <c:pt idx="442">
+                  <c:v>573.0</c:v>
+                </c:pt>
+                <c:pt idx="443">
+                  <c:v>574.0</c:v>
+                </c:pt>
+                <c:pt idx="444">
+                  <c:v>575.0</c:v>
+                </c:pt>
+                <c:pt idx="445">
+                  <c:v>576.0</c:v>
+                </c:pt>
+                <c:pt idx="446">
+                  <c:v>577.0</c:v>
+                </c:pt>
+                <c:pt idx="447">
+                  <c:v>578.0</c:v>
+                </c:pt>
+                <c:pt idx="448">
+                  <c:v>579.0</c:v>
+                </c:pt>
+                <c:pt idx="449">
+                  <c:v>580.0</c:v>
+                </c:pt>
+                <c:pt idx="450">
+                  <c:v>581.0</c:v>
+                </c:pt>
+                <c:pt idx="451">
+                  <c:v>582.0</c:v>
+                </c:pt>
+                <c:pt idx="452">
+                  <c:v>583.0</c:v>
+                </c:pt>
+                <c:pt idx="453">
+                  <c:v>584.0</c:v>
+                </c:pt>
+                <c:pt idx="454">
+                  <c:v>585.0</c:v>
+                </c:pt>
+                <c:pt idx="455">
+                  <c:v>586.0</c:v>
+                </c:pt>
+                <c:pt idx="456">
+                  <c:v>587.0</c:v>
+                </c:pt>
+                <c:pt idx="457">
+                  <c:v>588.0</c:v>
+                </c:pt>
+                <c:pt idx="458">
+                  <c:v>589.0</c:v>
+                </c:pt>
+                <c:pt idx="459">
+                  <c:v>590.0</c:v>
+                </c:pt>
+                <c:pt idx="460">
+                  <c:v>591.0</c:v>
+                </c:pt>
+                <c:pt idx="461">
+                  <c:v>592.0</c:v>
+                </c:pt>
+                <c:pt idx="462">
+                  <c:v>593.0</c:v>
+                </c:pt>
+                <c:pt idx="463">
+                  <c:v>594.0</c:v>
+                </c:pt>
+                <c:pt idx="464">
+                  <c:v>595.0</c:v>
+                </c:pt>
+                <c:pt idx="465">
+                  <c:v>596.0</c:v>
+                </c:pt>
+                <c:pt idx="466">
+                  <c:v>597.0</c:v>
+                </c:pt>
+                <c:pt idx="467">
+                  <c:v>598.0</c:v>
+                </c:pt>
+                <c:pt idx="468">
+                  <c:v>599.0</c:v>
+                </c:pt>
+                <c:pt idx="469">
+                  <c:v>600.0</c:v>
+                </c:pt>
+                <c:pt idx="470">
+                  <c:v>601.0</c:v>
+                </c:pt>
+                <c:pt idx="471">
+                  <c:v>602.0</c:v>
+                </c:pt>
+                <c:pt idx="472">
+                  <c:v>603.0</c:v>
+                </c:pt>
+                <c:pt idx="473">
+                  <c:v>604.0</c:v>
+                </c:pt>
+                <c:pt idx="474">
+                  <c:v>605.0</c:v>
+                </c:pt>
+                <c:pt idx="475">
+                  <c:v>606.0</c:v>
+                </c:pt>
+                <c:pt idx="476">
+                  <c:v>607.0</c:v>
+                </c:pt>
+                <c:pt idx="477">
+                  <c:v>608.0</c:v>
+                </c:pt>
+                <c:pt idx="478">
+                  <c:v>609.0</c:v>
+                </c:pt>
+                <c:pt idx="479">
+                  <c:v>610.0</c:v>
+                </c:pt>
+                <c:pt idx="480">
+                  <c:v>611.0</c:v>
+                </c:pt>
+                <c:pt idx="481">
+                  <c:v>612.0</c:v>
+                </c:pt>
+                <c:pt idx="482">
+                  <c:v>613.0</c:v>
+                </c:pt>
+                <c:pt idx="483">
+                  <c:v>614.0</c:v>
+                </c:pt>
+                <c:pt idx="484">
+                  <c:v>615.0</c:v>
+                </c:pt>
+                <c:pt idx="485">
+                  <c:v>616.0</c:v>
+                </c:pt>
+                <c:pt idx="486">
+                  <c:v>617.0</c:v>
+                </c:pt>
+                <c:pt idx="487">
+                  <c:v>618.0</c:v>
+                </c:pt>
+                <c:pt idx="488">
+                  <c:v>619.0</c:v>
+                </c:pt>
+                <c:pt idx="489">
+                  <c:v>620.0</c:v>
+                </c:pt>
+                <c:pt idx="490">
+                  <c:v>621.0</c:v>
+                </c:pt>
+                <c:pt idx="491">
+                  <c:v>622.0</c:v>
+                </c:pt>
+                <c:pt idx="492">
+                  <c:v>623.0</c:v>
+                </c:pt>
+                <c:pt idx="493">
+                  <c:v>624.0</c:v>
+                </c:pt>
+                <c:pt idx="494">
+                  <c:v>625.0</c:v>
+                </c:pt>
+                <c:pt idx="495">
+                  <c:v>626.0</c:v>
+                </c:pt>
+                <c:pt idx="496">
+                  <c:v>627.0</c:v>
+                </c:pt>
+                <c:pt idx="497">
+                  <c:v>628.0</c:v>
+                </c:pt>
+                <c:pt idx="498">
+                  <c:v>629.0</c:v>
+                </c:pt>
+                <c:pt idx="499">
+                  <c:v>630.0</c:v>
+                </c:pt>
+                <c:pt idx="500">
+                  <c:v>631.0</c:v>
+                </c:pt>
+                <c:pt idx="501">
+                  <c:v>632.0</c:v>
+                </c:pt>
+                <c:pt idx="502">
+                  <c:v>633.0</c:v>
+                </c:pt>
+                <c:pt idx="503">
+                  <c:v>634.0</c:v>
+                </c:pt>
+                <c:pt idx="504">
+                  <c:v>635.0</c:v>
+                </c:pt>
+                <c:pt idx="505">
+                  <c:v>636.0</c:v>
+                </c:pt>
+                <c:pt idx="506">
+                  <c:v>637.0</c:v>
+                </c:pt>
+                <c:pt idx="507">
+                  <c:v>638.0</c:v>
+                </c:pt>
+                <c:pt idx="508">
+                  <c:v>639.0</c:v>
+                </c:pt>
+                <c:pt idx="509">
+                  <c:v>640.0</c:v>
+                </c:pt>
+                <c:pt idx="510">
+                  <c:v>641.0</c:v>
+                </c:pt>
+                <c:pt idx="511">
+                  <c:v>642.0</c:v>
+                </c:pt>
+                <c:pt idx="512">
+                  <c:v>643.0</c:v>
+                </c:pt>
+                <c:pt idx="513">
+                  <c:v>644.0</c:v>
+                </c:pt>
+                <c:pt idx="514">
+                  <c:v>645.0</c:v>
+                </c:pt>
+                <c:pt idx="515">
+                  <c:v>646.0</c:v>
+                </c:pt>
+                <c:pt idx="516">
+                  <c:v>647.0</c:v>
+                </c:pt>
+                <c:pt idx="517">
+                  <c:v>648.0</c:v>
+                </c:pt>
+                <c:pt idx="518">
+                  <c:v>649.0</c:v>
+                </c:pt>
+                <c:pt idx="519">
+                  <c:v>650.0</c:v>
+                </c:pt>
+                <c:pt idx="520">
+                  <c:v>651.0</c:v>
+                </c:pt>
+                <c:pt idx="521">
+                  <c:v>652.0</c:v>
+                </c:pt>
+                <c:pt idx="522">
+                  <c:v>653.0</c:v>
+                </c:pt>
+                <c:pt idx="523">
+                  <c:v>654.0</c:v>
+                </c:pt>
+                <c:pt idx="524">
+                  <c:v>655.0</c:v>
+                </c:pt>
+                <c:pt idx="525">
+                  <c:v>656.0</c:v>
+                </c:pt>
+                <c:pt idx="526">
+                  <c:v>657.0</c:v>
+                </c:pt>
+                <c:pt idx="527">
+                  <c:v>658.0</c:v>
+                </c:pt>
+                <c:pt idx="528">
+                  <c:v>659.0</c:v>
+                </c:pt>
+                <c:pt idx="529">
+                  <c:v>660.0</c:v>
+                </c:pt>
+                <c:pt idx="530">
+                  <c:v>661.0</c:v>
+                </c:pt>
+                <c:pt idx="531">
+                  <c:v>662.0</c:v>
+                </c:pt>
+                <c:pt idx="532">
+                  <c:v>663.0</c:v>
+                </c:pt>
+                <c:pt idx="533">
+                  <c:v>664.0</c:v>
+                </c:pt>
+                <c:pt idx="534">
+                  <c:v>665.0</c:v>
+                </c:pt>
+                <c:pt idx="535">
+                  <c:v>666.0</c:v>
+                </c:pt>
+                <c:pt idx="536">
+                  <c:v>667.0</c:v>
+                </c:pt>
+                <c:pt idx="537">
+                  <c:v>668.0</c:v>
+                </c:pt>
+                <c:pt idx="538">
+                  <c:v>669.0</c:v>
+                </c:pt>
+                <c:pt idx="539">
+                  <c:v>670.0</c:v>
+                </c:pt>
+                <c:pt idx="540">
+                  <c:v>671.0</c:v>
+                </c:pt>
+                <c:pt idx="541">
+                  <c:v>672.0</c:v>
+                </c:pt>
+                <c:pt idx="542">
+                  <c:v>673.0</c:v>
+                </c:pt>
+                <c:pt idx="543">
+                  <c:v>674.0</c:v>
+                </c:pt>
+                <c:pt idx="544">
+                  <c:v>675.0</c:v>
+                </c:pt>
+                <c:pt idx="545">
+                  <c:v>676.0</c:v>
+                </c:pt>
+                <c:pt idx="546">
+                  <c:v>677.0</c:v>
+                </c:pt>
+                <c:pt idx="547">
+                  <c:v>678.0</c:v>
+                </c:pt>
+                <c:pt idx="548">
+                  <c:v>679.0</c:v>
+                </c:pt>
+                <c:pt idx="549">
+                  <c:v>680.0</c:v>
+                </c:pt>
+                <c:pt idx="550">
+                  <c:v>681.0</c:v>
+                </c:pt>
+                <c:pt idx="551">
+                  <c:v>682.0</c:v>
+                </c:pt>
+                <c:pt idx="552">
+                  <c:v>683.0</c:v>
+                </c:pt>
+                <c:pt idx="553">
+                  <c:v>684.0</c:v>
+                </c:pt>
+                <c:pt idx="554">
+                  <c:v>685.0</c:v>
+                </c:pt>
+                <c:pt idx="555">
+                  <c:v>686.0</c:v>
+                </c:pt>
+                <c:pt idx="556">
+                  <c:v>687.0</c:v>
+                </c:pt>
+                <c:pt idx="557">
+                  <c:v>688.0</c:v>
+                </c:pt>
+                <c:pt idx="558">
+                  <c:v>689.0</c:v>
+                </c:pt>
+                <c:pt idx="559">
+                  <c:v>690.0</c:v>
+                </c:pt>
+                <c:pt idx="560">
+                  <c:v>691.0</c:v>
+                </c:pt>
+                <c:pt idx="561">
+                  <c:v>692.0</c:v>
+                </c:pt>
+                <c:pt idx="562">
+                  <c:v>693.0</c:v>
+                </c:pt>
+                <c:pt idx="563">
+                  <c:v>694.0</c:v>
+                </c:pt>
+                <c:pt idx="564">
+                  <c:v>695.0</c:v>
+                </c:pt>
+                <c:pt idx="565">
+                  <c:v>696.0</c:v>
+                </c:pt>
+                <c:pt idx="566">
+                  <c:v>697.0</c:v>
+                </c:pt>
+                <c:pt idx="567">
+                  <c:v>698.0</c:v>
+                </c:pt>
+                <c:pt idx="568">
+                  <c:v>699.0</c:v>
+                </c:pt>
+                <c:pt idx="569">
+                  <c:v>700.0</c:v>
+                </c:pt>
+                <c:pt idx="570">
+                  <c:v>701.0</c:v>
+                </c:pt>
+                <c:pt idx="571">
+                  <c:v>702.0</c:v>
+                </c:pt>
+                <c:pt idx="572">
+                  <c:v>703.0</c:v>
+                </c:pt>
+                <c:pt idx="573">
+                  <c:v>704.0</c:v>
+                </c:pt>
+                <c:pt idx="574">
+                  <c:v>705.0</c:v>
+                </c:pt>
+                <c:pt idx="575">
+                  <c:v>706.0</c:v>
+                </c:pt>
+                <c:pt idx="576">
+                  <c:v>707.0</c:v>
+                </c:pt>
+                <c:pt idx="577">
+                  <c:v>708.0</c:v>
+                </c:pt>
+                <c:pt idx="578">
+                  <c:v>709.0</c:v>
+                </c:pt>
+                <c:pt idx="579">
+                  <c:v>710.0</c:v>
+                </c:pt>
+                <c:pt idx="580">
+                  <c:v>711.0</c:v>
+                </c:pt>
+                <c:pt idx="581">
+                  <c:v>712.0</c:v>
+                </c:pt>
+                <c:pt idx="582">
+                  <c:v>713.0</c:v>
+                </c:pt>
+                <c:pt idx="583">
+                  <c:v>714.0</c:v>
+                </c:pt>
+                <c:pt idx="584">
+                  <c:v>715.0</c:v>
+                </c:pt>
+                <c:pt idx="585">
+                  <c:v>716.0</c:v>
+                </c:pt>
+                <c:pt idx="586">
+                  <c:v>717.0</c:v>
+                </c:pt>
+                <c:pt idx="587">
+                  <c:v>718.0</c:v>
+                </c:pt>
+                <c:pt idx="588">
+                  <c:v>719.0</c:v>
+                </c:pt>
+                <c:pt idx="589">
+                  <c:v>720.0</c:v>
+                </c:pt>
+                <c:pt idx="590">
+                  <c:v>721.0</c:v>
+                </c:pt>
+                <c:pt idx="591">
+                  <c:v>722.0</c:v>
+                </c:pt>
+                <c:pt idx="592">
+                  <c:v>723.0</c:v>
+                </c:pt>
+                <c:pt idx="593">
+                  <c:v>724.0</c:v>
+                </c:pt>
+                <c:pt idx="594">
+                  <c:v>725.0</c:v>
+                </c:pt>
+                <c:pt idx="595">
+                  <c:v>726.0</c:v>
+                </c:pt>
+                <c:pt idx="596">
+                  <c:v>727.0</c:v>
+                </c:pt>
+                <c:pt idx="597">
+                  <c:v>728.0</c:v>
+                </c:pt>
+                <c:pt idx="598">
+                  <c:v>729.0</c:v>
+                </c:pt>
+                <c:pt idx="599">
+                  <c:v>730.0</c:v>
+                </c:pt>
+                <c:pt idx="600">
+                  <c:v>731.0</c:v>
+                </c:pt>
+                <c:pt idx="601">
+                  <c:v>732.0</c:v>
+                </c:pt>
+                <c:pt idx="602">
+                  <c:v>733.0</c:v>
+                </c:pt>
+                <c:pt idx="603">
+                  <c:v>734.0</c:v>
+                </c:pt>
+                <c:pt idx="604">
+                  <c:v>735.0</c:v>
+                </c:pt>
+                <c:pt idx="605">
+                  <c:v>736.0</c:v>
+                </c:pt>
+                <c:pt idx="606">
+                  <c:v>737.0</c:v>
+                </c:pt>
+                <c:pt idx="607">
+                  <c:v>738.0</c:v>
+                </c:pt>
+                <c:pt idx="608">
+                  <c:v>739.0</c:v>
+                </c:pt>
+                <c:pt idx="609">
+                  <c:v>740.0</c:v>
+                </c:pt>
+                <c:pt idx="610">
+                  <c:v>741.0</c:v>
+                </c:pt>
+                <c:pt idx="611">
+                  <c:v>742.0</c:v>
+                </c:pt>
+                <c:pt idx="612">
+                  <c:v>743.0</c:v>
+                </c:pt>
+                <c:pt idx="613">
+                  <c:v>744.0</c:v>
+                </c:pt>
+                <c:pt idx="614">
+                  <c:v>745.0</c:v>
+                </c:pt>
+                <c:pt idx="615">
+                  <c:v>746.0</c:v>
+                </c:pt>
+                <c:pt idx="616">
+                  <c:v>747.0</c:v>
+                </c:pt>
+                <c:pt idx="617">
+                  <c:v>748.0</c:v>
+                </c:pt>
+                <c:pt idx="618">
+                  <c:v>749.0</c:v>
+                </c:pt>
+                <c:pt idx="619">
+                  <c:v>750.0</c:v>
+                </c:pt>
+                <c:pt idx="620">
+                  <c:v>751.0</c:v>
+                </c:pt>
+                <c:pt idx="621">
+                  <c:v>752.0</c:v>
+                </c:pt>
+                <c:pt idx="622">
+                  <c:v>753.0</c:v>
+                </c:pt>
+                <c:pt idx="623">
+                  <c:v>754.0</c:v>
+                </c:pt>
+                <c:pt idx="624">
+                  <c:v>755.0</c:v>
+                </c:pt>
+                <c:pt idx="625">
+                  <c:v>756.0</c:v>
+                </c:pt>
+                <c:pt idx="626">
+                  <c:v>757.0</c:v>
+                </c:pt>
+                <c:pt idx="627">
+                  <c:v>758.0</c:v>
+                </c:pt>
+                <c:pt idx="628">
+                  <c:v>759.0</c:v>
+                </c:pt>
+                <c:pt idx="629">
+                  <c:v>760.0</c:v>
+                </c:pt>
+                <c:pt idx="630">
+                  <c:v>761.0</c:v>
+                </c:pt>
+                <c:pt idx="631">
+                  <c:v>762.0</c:v>
+                </c:pt>
+                <c:pt idx="632">
+                  <c:v>763.0</c:v>
+                </c:pt>
+                <c:pt idx="633">
+                  <c:v>764.0</c:v>
+                </c:pt>
+                <c:pt idx="634">
+                  <c:v>765.0</c:v>
+                </c:pt>
+                <c:pt idx="635">
+                  <c:v>766.0</c:v>
+                </c:pt>
+                <c:pt idx="636">
+                  <c:v>767.0</c:v>
+                </c:pt>
+                <c:pt idx="637">
+                  <c:v>768.0</c:v>
+                </c:pt>
+                <c:pt idx="638">
+                  <c:v>769.0</c:v>
+                </c:pt>
+                <c:pt idx="639">
+                  <c:v>770.0</c:v>
+                </c:pt>
+                <c:pt idx="640">
+                  <c:v>771.0</c:v>
+                </c:pt>
+                <c:pt idx="641">
+                  <c:v>772.0</c:v>
+                </c:pt>
+                <c:pt idx="642">
+                  <c:v>773.0</c:v>
+                </c:pt>
+                <c:pt idx="643">
+                  <c:v>774.0</c:v>
+                </c:pt>
+                <c:pt idx="644">
+                  <c:v>775.0</c:v>
+                </c:pt>
+                <c:pt idx="645">
+                  <c:v>776.0</c:v>
+                </c:pt>
+                <c:pt idx="646">
+                  <c:v>777.0</c:v>
+                </c:pt>
+                <c:pt idx="647">
+                  <c:v>778.0</c:v>
+                </c:pt>
+                <c:pt idx="648">
+                  <c:v>779.0</c:v>
+                </c:pt>
+                <c:pt idx="649">
+                  <c:v>780.0</c:v>
+                </c:pt>
+                <c:pt idx="650">
+                  <c:v>781.0</c:v>
+                </c:pt>
+                <c:pt idx="651">
+                  <c:v>782.0</c:v>
+                </c:pt>
+                <c:pt idx="652">
+                  <c:v>783.0</c:v>
+                </c:pt>
+                <c:pt idx="653">
+                  <c:v>784.0</c:v>
+                </c:pt>
+                <c:pt idx="654">
+                  <c:v>785.0</c:v>
+                </c:pt>
+                <c:pt idx="655">
+                  <c:v>786.0</c:v>
+                </c:pt>
+                <c:pt idx="656">
+                  <c:v>787.0</c:v>
+                </c:pt>
+                <c:pt idx="657">
+                  <c:v>788.0</c:v>
+                </c:pt>
+                <c:pt idx="658">
+                  <c:v>789.0</c:v>
+                </c:pt>
+                <c:pt idx="659">
+                  <c:v>790.0</c:v>
+                </c:pt>
+                <c:pt idx="660">
+                  <c:v>791.0</c:v>
+                </c:pt>
+                <c:pt idx="661">
+                  <c:v>792.0</c:v>
+                </c:pt>
+                <c:pt idx="662">
+                  <c:v>793.0</c:v>
+                </c:pt>
+                <c:pt idx="663">
+                  <c:v>794.0</c:v>
+                </c:pt>
+                <c:pt idx="664">
+                  <c:v>795.0</c:v>
+                </c:pt>
+                <c:pt idx="665">
+                  <c:v>796.0</c:v>
+                </c:pt>
+                <c:pt idx="666">
+                  <c:v>797.0</c:v>
+                </c:pt>
+                <c:pt idx="667">
+                  <c:v>798.0</c:v>
+                </c:pt>
+                <c:pt idx="668">
+                  <c:v>799.0</c:v>
+                </c:pt>
+                <c:pt idx="669">
+                  <c:v>800.0</c:v>
+                </c:pt>
+                <c:pt idx="670">
+                  <c:v>801.0</c:v>
+                </c:pt>
+                <c:pt idx="671">
+                  <c:v>802.0</c:v>
+                </c:pt>
+                <c:pt idx="672">
+                  <c:v>803.0</c:v>
+                </c:pt>
+                <c:pt idx="673">
+                  <c:v>804.0</c:v>
+                </c:pt>
+                <c:pt idx="674">
+                  <c:v>805.0</c:v>
+                </c:pt>
+                <c:pt idx="675">
+                  <c:v>806.0</c:v>
+                </c:pt>
+                <c:pt idx="676">
+                  <c:v>807.0</c:v>
+                </c:pt>
+                <c:pt idx="677">
+                  <c:v>808.0</c:v>
+                </c:pt>
+                <c:pt idx="678">
+                  <c:v>809.0</c:v>
+                </c:pt>
+                <c:pt idx="679">
+                  <c:v>810.0</c:v>
+                </c:pt>
+                <c:pt idx="680">
+                  <c:v>811.0</c:v>
+                </c:pt>
+                <c:pt idx="681">
+                  <c:v>812.0</c:v>
+                </c:pt>
+                <c:pt idx="682">
+                  <c:v>813.0</c:v>
+                </c:pt>
+                <c:pt idx="683">
+                  <c:v>814.0</c:v>
+                </c:pt>
+                <c:pt idx="684">
+                  <c:v>815.0</c:v>
+                </c:pt>
+                <c:pt idx="685">
+                  <c:v>816.0</c:v>
+                </c:pt>
+                <c:pt idx="686">
+                  <c:v>817.0</c:v>
+                </c:pt>
+                <c:pt idx="687">
+                  <c:v>818.0</c:v>
+                </c:pt>
+                <c:pt idx="688">
+                  <c:v>819.0</c:v>
+                </c:pt>
+                <c:pt idx="689">
+                  <c:v>820.0</c:v>
+                </c:pt>
+                <c:pt idx="690">
+                  <c:v>821.0</c:v>
+                </c:pt>
+                <c:pt idx="691">
+                  <c:v>822.0</c:v>
+                </c:pt>
+                <c:pt idx="692">
+                  <c:v>823.0</c:v>
+                </c:pt>
+                <c:pt idx="693">
+                  <c:v>824.0</c:v>
+                </c:pt>
+                <c:pt idx="694">
+                  <c:v>825.0</c:v>
+                </c:pt>
+                <c:pt idx="695">
+                  <c:v>826.0</c:v>
+                </c:pt>
+                <c:pt idx="696">
+                  <c:v>827.0</c:v>
+                </c:pt>
+                <c:pt idx="697">
+                  <c:v>828.0</c:v>
+                </c:pt>
+                <c:pt idx="698">
+                  <c:v>829.0</c:v>
+                </c:pt>
+                <c:pt idx="699">
+                  <c:v>830.0</c:v>
+                </c:pt>
+                <c:pt idx="700">
+                  <c:v>831.0</c:v>
+                </c:pt>
+                <c:pt idx="701">
+                  <c:v>832.0</c:v>
+                </c:pt>
+                <c:pt idx="702">
+                  <c:v>833.0</c:v>
+                </c:pt>
+                <c:pt idx="703">
+                  <c:v>834.0</c:v>
+                </c:pt>
+                <c:pt idx="704">
+                  <c:v>835.0</c:v>
+                </c:pt>
+                <c:pt idx="705">
+                  <c:v>836.0</c:v>
+                </c:pt>
+                <c:pt idx="706">
+                  <c:v>837.0</c:v>
+                </c:pt>
+                <c:pt idx="707">
+                  <c:v>838.0</c:v>
+                </c:pt>
+                <c:pt idx="708">
+                  <c:v>839.0</c:v>
+                </c:pt>
+                <c:pt idx="709">
+                  <c:v>840.0</c:v>
+                </c:pt>
+                <c:pt idx="710">
+                  <c:v>841.0</c:v>
+                </c:pt>
+                <c:pt idx="711">
+                  <c:v>842.0</c:v>
+                </c:pt>
+                <c:pt idx="712">
+                  <c:v>843.0</c:v>
+                </c:pt>
+                <c:pt idx="713">
+                  <c:v>844.0</c:v>
+                </c:pt>
+                <c:pt idx="714">
+                  <c:v>845.0</c:v>
+                </c:pt>
+                <c:pt idx="715">
+                  <c:v>846.0</c:v>
+                </c:pt>
+                <c:pt idx="716">
+                  <c:v>847.0</c:v>
+                </c:pt>
+                <c:pt idx="717">
+                  <c:v>848.0</c:v>
+                </c:pt>
+                <c:pt idx="718">
+                  <c:v>849.0</c:v>
+                </c:pt>
+                <c:pt idx="719">
+                  <c:v>850.0</c:v>
+                </c:pt>
+                <c:pt idx="720">
+                  <c:v>851.0</c:v>
+                </c:pt>
+                <c:pt idx="721">
+                  <c:v>852.0</c:v>
+                </c:pt>
+                <c:pt idx="722">
+                  <c:v>853.0</c:v>
+                </c:pt>
+                <c:pt idx="723">
+                  <c:v>854.0</c:v>
+                </c:pt>
+                <c:pt idx="724">
+                  <c:v>855.0</c:v>
+                </c:pt>
+                <c:pt idx="725">
+                  <c:v>856.0</c:v>
+                </c:pt>
+                <c:pt idx="726">
+                  <c:v>857.0</c:v>
+                </c:pt>
+                <c:pt idx="727">
+                  <c:v>858.0</c:v>
+                </c:pt>
+                <c:pt idx="728">
+                  <c:v>859.0</c:v>
+                </c:pt>
+                <c:pt idx="729">
+                  <c:v>860.0</c:v>
+                </c:pt>
+                <c:pt idx="730">
+                  <c:v>861.0</c:v>
+                </c:pt>
+                <c:pt idx="731">
+                  <c:v>862.0</c:v>
+                </c:pt>
+                <c:pt idx="732">
+                  <c:v>863.0</c:v>
+                </c:pt>
+                <c:pt idx="733">
+                  <c:v>864.0</c:v>
+                </c:pt>
+                <c:pt idx="734">
+                  <c:v>865.0</c:v>
+                </c:pt>
+                <c:pt idx="735">
+                  <c:v>866.0</c:v>
+                </c:pt>
+                <c:pt idx="736">
+                  <c:v>867.0</c:v>
+                </c:pt>
+                <c:pt idx="737">
+                  <c:v>868.0</c:v>
+                </c:pt>
+                <c:pt idx="738">
+                  <c:v>869.0</c:v>
+                </c:pt>
+                <c:pt idx="739">
+                  <c:v>870.0</c:v>
+                </c:pt>
+                <c:pt idx="740">
+                  <c:v>871.0</c:v>
+                </c:pt>
+                <c:pt idx="741">
+                  <c:v>872.0</c:v>
+                </c:pt>
+                <c:pt idx="742">
+                  <c:v>873.0</c:v>
+                </c:pt>
+                <c:pt idx="743">
+                  <c:v>874.0</c:v>
+                </c:pt>
+                <c:pt idx="744">
+                  <c:v>875.0</c:v>
+                </c:pt>
+                <c:pt idx="745">
+                  <c:v>876.0</c:v>
+                </c:pt>
+                <c:pt idx="746">
+                  <c:v>877.0</c:v>
+                </c:pt>
+                <c:pt idx="747">
+                  <c:v>878.0</c:v>
+                </c:pt>
+                <c:pt idx="748">
+                  <c:v>879.0</c:v>
+                </c:pt>
+                <c:pt idx="749">
+                  <c:v>880.0</c:v>
+                </c:pt>
+                <c:pt idx="750">
+                  <c:v>881.0</c:v>
+                </c:pt>
+                <c:pt idx="751">
+                  <c:v>882.0</c:v>
+                </c:pt>
+                <c:pt idx="752">
+                  <c:v>883.0</c:v>
+                </c:pt>
+                <c:pt idx="753">
+                  <c:v>884.0</c:v>
+                </c:pt>
+                <c:pt idx="754">
+                  <c:v>885.0</c:v>
+                </c:pt>
+                <c:pt idx="755">
+                  <c:v>886.0</c:v>
+                </c:pt>
+                <c:pt idx="756">
+                  <c:v>887.0</c:v>
+                </c:pt>
+                <c:pt idx="757">
+                  <c:v>888.0</c:v>
+                </c:pt>
+                <c:pt idx="758">
+                  <c:v>889.0</c:v>
+                </c:pt>
+                <c:pt idx="759">
+                  <c:v>890.0</c:v>
+                </c:pt>
+                <c:pt idx="760">
+                  <c:v>891.0</c:v>
+                </c:pt>
+                <c:pt idx="761">
+                  <c:v>892.0</c:v>
+                </c:pt>
+                <c:pt idx="762">
+                  <c:v>893.0</c:v>
+                </c:pt>
+                <c:pt idx="763">
+                  <c:v>894.0</c:v>
+                </c:pt>
+                <c:pt idx="764">
+                  <c:v>895.0</c:v>
+                </c:pt>
+                <c:pt idx="765">
+                  <c:v>896.0</c:v>
+                </c:pt>
+                <c:pt idx="766">
+                  <c:v>897.0</c:v>
+                </c:pt>
+                <c:pt idx="767">
+                  <c:v>898.0</c:v>
+                </c:pt>
+                <c:pt idx="768">
+                  <c:v>899.0</c:v>
+                </c:pt>
+                <c:pt idx="769">
+                  <c:v>900.0</c:v>
+                </c:pt>
+                <c:pt idx="770">
+                  <c:v>901.0</c:v>
+                </c:pt>
+                <c:pt idx="771">
+                  <c:v>902.0</c:v>
+                </c:pt>
+                <c:pt idx="772">
+                  <c:v>903.0</c:v>
+                </c:pt>
+                <c:pt idx="773">
+                  <c:v>904.0</c:v>
+                </c:pt>
+                <c:pt idx="774">
+                  <c:v>905.0</c:v>
+                </c:pt>
+                <c:pt idx="775">
+                  <c:v>906.0</c:v>
+                </c:pt>
+                <c:pt idx="776">
+                  <c:v>907.0</c:v>
+                </c:pt>
+                <c:pt idx="777">
+                  <c:v>908.0</c:v>
+                </c:pt>
+                <c:pt idx="778">
+                  <c:v>909.0</c:v>
+                </c:pt>
+                <c:pt idx="779">
+                  <c:v>910.0</c:v>
+                </c:pt>
+                <c:pt idx="780">
+                  <c:v>911.0</c:v>
+                </c:pt>
+                <c:pt idx="781">
+                  <c:v>912.0</c:v>
+                </c:pt>
+                <c:pt idx="782">
+                  <c:v>913.0</c:v>
+                </c:pt>
+                <c:pt idx="783">
+                  <c:v>914.0</c:v>
+                </c:pt>
+                <c:pt idx="784">
+                  <c:v>915.0</c:v>
+                </c:pt>
+                <c:pt idx="785">
+                  <c:v>916.0</c:v>
+                </c:pt>
+                <c:pt idx="786">
+                  <c:v>917.0</c:v>
+                </c:pt>
+                <c:pt idx="787">
+                  <c:v>918.0</c:v>
+                </c:pt>
+                <c:pt idx="788">
+                  <c:v>919.0</c:v>
+                </c:pt>
+                <c:pt idx="789">
+                  <c:v>920.0</c:v>
+                </c:pt>
+                <c:pt idx="790">
+                  <c:v>921.0</c:v>
+                </c:pt>
+                <c:pt idx="791">
+                  <c:v>922.0</c:v>
+                </c:pt>
+                <c:pt idx="792">
+                  <c:v>923.0</c:v>
+                </c:pt>
+                <c:pt idx="793">
+                  <c:v>924.0</c:v>
+                </c:pt>
+                <c:pt idx="794">
+                  <c:v>925.0</c:v>
+                </c:pt>
+                <c:pt idx="795">
+                  <c:v>926.0</c:v>
+                </c:pt>
+                <c:pt idx="796">
+                  <c:v>927.0</c:v>
+                </c:pt>
+                <c:pt idx="797">
+                  <c:v>928.0</c:v>
+                </c:pt>
+                <c:pt idx="798">
+                  <c:v>929.0</c:v>
+                </c:pt>
+                <c:pt idx="799">
+                  <c:v>930.0</c:v>
+                </c:pt>
+                <c:pt idx="800">
+                  <c:v>931.0</c:v>
+                </c:pt>
+                <c:pt idx="801">
+                  <c:v>932.0</c:v>
+                </c:pt>
+                <c:pt idx="802">
+                  <c:v>933.0</c:v>
+                </c:pt>
+                <c:pt idx="803">
+                  <c:v>934.0</c:v>
+                </c:pt>
+                <c:pt idx="804">
+                  <c:v>935.0</c:v>
+                </c:pt>
+                <c:pt idx="805">
+                  <c:v>936.0</c:v>
+                </c:pt>
+                <c:pt idx="806">
+                  <c:v>937.0</c:v>
+                </c:pt>
+                <c:pt idx="807">
+                  <c:v>938.0</c:v>
+                </c:pt>
+                <c:pt idx="808">
+                  <c:v>939.0</c:v>
+                </c:pt>
+                <c:pt idx="809">
+                  <c:v>940.0</c:v>
+                </c:pt>
+                <c:pt idx="810">
+                  <c:v>941.0</c:v>
+                </c:pt>
+                <c:pt idx="811">
+                  <c:v>942.0</c:v>
+                </c:pt>
+                <c:pt idx="812">
+                  <c:v>943.0</c:v>
+                </c:pt>
+                <c:pt idx="813">
+                  <c:v>944.0</c:v>
+                </c:pt>
+                <c:pt idx="814">
+                  <c:v>945.0</c:v>
+                </c:pt>
+                <c:pt idx="815">
+                  <c:v>946.0</c:v>
+                </c:pt>
+                <c:pt idx="816">
+                  <c:v>947.0</c:v>
+                </c:pt>
+                <c:pt idx="817">
+                  <c:v>948.0</c:v>
+                </c:pt>
+                <c:pt idx="818">
+                  <c:v>949.0</c:v>
+                </c:pt>
+                <c:pt idx="819">
+                  <c:v>950.0</c:v>
+                </c:pt>
+                <c:pt idx="820">
+                  <c:v>951.0</c:v>
+                </c:pt>
+                <c:pt idx="821">
+                  <c:v>952.0</c:v>
+                </c:pt>
+                <c:pt idx="822">
+                  <c:v>953.0</c:v>
+                </c:pt>
+                <c:pt idx="823">
+                  <c:v>954.0</c:v>
+                </c:pt>
+                <c:pt idx="824">
+                  <c:v>955.0</c:v>
+                </c:pt>
+                <c:pt idx="825">
+                  <c:v>956.0</c:v>
+                </c:pt>
+                <c:pt idx="826">
+                  <c:v>957.0</c:v>
+                </c:pt>
+                <c:pt idx="827">
+                  <c:v>958.0</c:v>
+                </c:pt>
+                <c:pt idx="828">
+                  <c:v>959.0</c:v>
+                </c:pt>
+                <c:pt idx="829">
+                  <c:v>960.0</c:v>
+                </c:pt>
+                <c:pt idx="830">
+                  <c:v>961.0</c:v>
+                </c:pt>
+                <c:pt idx="831">
+                  <c:v>962.0</c:v>
+                </c:pt>
+                <c:pt idx="832">
+                  <c:v>963.0</c:v>
+                </c:pt>
+                <c:pt idx="833">
+                  <c:v>964.0</c:v>
+                </c:pt>
+                <c:pt idx="834">
+                  <c:v>965.0</c:v>
+                </c:pt>
+                <c:pt idx="835">
+                  <c:v>966.0</c:v>
+                </c:pt>
+                <c:pt idx="836">
+                  <c:v>967.0</c:v>
+                </c:pt>
+                <c:pt idx="837">
+                  <c:v>968.0</c:v>
+                </c:pt>
+                <c:pt idx="838">
+                  <c:v>969.0</c:v>
+                </c:pt>
+                <c:pt idx="839">
+                  <c:v>970.0</c:v>
+                </c:pt>
+                <c:pt idx="840">
+                  <c:v>971.0</c:v>
+                </c:pt>
+                <c:pt idx="841">
+                  <c:v>972.0</c:v>
+                </c:pt>
+                <c:pt idx="842">
+                  <c:v>973.0</c:v>
+                </c:pt>
+                <c:pt idx="843">
+                  <c:v>974.0</c:v>
+                </c:pt>
+                <c:pt idx="844">
+                  <c:v>975.0</c:v>
+                </c:pt>
+                <c:pt idx="845">
+                  <c:v>976.0</c:v>
+                </c:pt>
+                <c:pt idx="846">
+                  <c:v>977.0</c:v>
+                </c:pt>
+                <c:pt idx="847">
+                  <c:v>978.0</c:v>
+                </c:pt>
+                <c:pt idx="848">
+                  <c:v>979.0</c:v>
+                </c:pt>
+                <c:pt idx="849">
+                  <c:v>980.0</c:v>
+                </c:pt>
+                <c:pt idx="850">
+                  <c:v>981.0</c:v>
+                </c:pt>
+                <c:pt idx="851">
+                  <c:v>982.0</c:v>
+                </c:pt>
+                <c:pt idx="852">
+                  <c:v>983.0</c:v>
+                </c:pt>
+                <c:pt idx="853">
+                  <c:v>984.0</c:v>
+                </c:pt>
+                <c:pt idx="854">
+                  <c:v>985.0</c:v>
+                </c:pt>
+                <c:pt idx="855">
+                  <c:v>986.0</c:v>
+                </c:pt>
+                <c:pt idx="856">
+                  <c:v>987.0</c:v>
+                </c:pt>
+                <c:pt idx="857">
+                  <c:v>988.0</c:v>
+                </c:pt>
+                <c:pt idx="858">
+                  <c:v>989.0</c:v>
+                </c:pt>
+                <c:pt idx="859">
+                  <c:v>990.0</c:v>
+                </c:pt>
+                <c:pt idx="860">
+                  <c:v>991.0</c:v>
+                </c:pt>
+                <c:pt idx="861">
+                  <c:v>992.0</c:v>
+                </c:pt>
+                <c:pt idx="862">
+                  <c:v>993.0</c:v>
+                </c:pt>
+                <c:pt idx="863">
+                  <c:v>994.0</c:v>
+                </c:pt>
+                <c:pt idx="864">
+                  <c:v>995.0</c:v>
+                </c:pt>
+                <c:pt idx="865">
+                  <c:v>996.0</c:v>
+                </c:pt>
+                <c:pt idx="866">
+                  <c:v>997.0</c:v>
+                </c:pt>
+                <c:pt idx="867">
+                  <c:v>998.0</c:v>
+                </c:pt>
+                <c:pt idx="868">
+                  <c:v>999.0</c:v>
+                </c:pt>
+                <c:pt idx="869">
+                  <c:v>1000.0</c:v>
+                </c:pt>
+                <c:pt idx="870">
+                  <c:v>1001.0</c:v>
+                </c:pt>
+                <c:pt idx="871">
+                  <c:v>1002.0</c:v>
+                </c:pt>
+                <c:pt idx="872">
+                  <c:v>1003.0</c:v>
+                </c:pt>
+                <c:pt idx="873">
+                  <c:v>1004.0</c:v>
+                </c:pt>
+                <c:pt idx="874">
+                  <c:v>1005.0</c:v>
+                </c:pt>
+                <c:pt idx="875">
+                  <c:v>1006.0</c:v>
+                </c:pt>
+                <c:pt idx="876">
+                  <c:v>1007.0</c:v>
+                </c:pt>
+                <c:pt idx="877">
+                  <c:v>1008.0</c:v>
+                </c:pt>
+                <c:pt idx="878">
+                  <c:v>1009.0</c:v>
+                </c:pt>
+                <c:pt idx="879">
+                  <c:v>1010.0</c:v>
+                </c:pt>
+                <c:pt idx="880">
+                  <c:v>1011.0</c:v>
+                </c:pt>
+                <c:pt idx="881">
+                  <c:v>1012.0</c:v>
+                </c:pt>
+                <c:pt idx="882">
+                  <c:v>1013.0</c:v>
+                </c:pt>
+                <c:pt idx="883">
+                  <c:v>1014.0</c:v>
+                </c:pt>
+                <c:pt idx="884">
+                  <c:v>1015.0</c:v>
+                </c:pt>
+                <c:pt idx="885">
+                  <c:v>1016.0</c:v>
+                </c:pt>
+                <c:pt idx="886">
+                  <c:v>1017.0</c:v>
+                </c:pt>
+                <c:pt idx="887">
+                  <c:v>1018.0</c:v>
+                </c:pt>
+                <c:pt idx="888">
+                  <c:v>1019.0</c:v>
+                </c:pt>
+                <c:pt idx="889">
+                  <c:v>1020.0</c:v>
+                </c:pt>
+                <c:pt idx="890">
+                  <c:v>1021.0</c:v>
+                </c:pt>
+                <c:pt idx="891">
+                  <c:v>1022.0</c:v>
+                </c:pt>
+                <c:pt idx="892">
+                  <c:v>1023.0</c:v>
+                </c:pt>
+                <c:pt idx="893">
+                  <c:v>1024.0</c:v>
+                </c:pt>
+                <c:pt idx="894">
+                  <c:v>1025.0</c:v>
+                </c:pt>
+                <c:pt idx="895">
+                  <c:v>1026.0</c:v>
+                </c:pt>
+                <c:pt idx="896">
+                  <c:v>1027.0</c:v>
+                </c:pt>
+                <c:pt idx="897">
+                  <c:v>1028.0</c:v>
+                </c:pt>
+                <c:pt idx="898">
+                  <c:v>1029.0</c:v>
+                </c:pt>
+                <c:pt idx="899">
+                  <c:v>1030.0</c:v>
+                </c:pt>
+                <c:pt idx="900">
+                  <c:v>1031.0</c:v>
+                </c:pt>
+                <c:pt idx="901">
+                  <c:v>1032.0</c:v>
+                </c:pt>
+                <c:pt idx="902">
+                  <c:v>1033.0</c:v>
+                </c:pt>
+                <c:pt idx="903">
+                  <c:v>1034.0</c:v>
+                </c:pt>
+                <c:pt idx="904">
+                  <c:v>1035.0</c:v>
+                </c:pt>
+                <c:pt idx="905">
+                  <c:v>1036.0</c:v>
+                </c:pt>
+                <c:pt idx="906">
+                  <c:v>1037.0</c:v>
+                </c:pt>
+                <c:pt idx="907">
+                  <c:v>1038.0</c:v>
+                </c:pt>
+                <c:pt idx="908">
+                  <c:v>1039.0</c:v>
+                </c:pt>
+                <c:pt idx="909">
+                  <c:v>1040.0</c:v>
+                </c:pt>
+                <c:pt idx="910">
+                  <c:v>1041.0</c:v>
+                </c:pt>
+                <c:pt idx="911">
+                  <c:v>1042.0</c:v>
+                </c:pt>
+                <c:pt idx="912">
+                  <c:v>1043.0</c:v>
+                </c:pt>
+                <c:pt idx="913">
+                  <c:v>1044.0</c:v>
+                </c:pt>
+                <c:pt idx="914">
+                  <c:v>1045.0</c:v>
+                </c:pt>
+                <c:pt idx="915">
+                  <c:v>1046.0</c:v>
+                </c:pt>
+                <c:pt idx="916">
+                  <c:v>1047.0</c:v>
+                </c:pt>
+                <c:pt idx="917">
+                  <c:v>1048.0</c:v>
+                </c:pt>
+                <c:pt idx="918">
+                  <c:v>1049.0</c:v>
+                </c:pt>
+                <c:pt idx="919">
+                  <c:v>1050.0</c:v>
+                </c:pt>
+                <c:pt idx="920">
+                  <c:v>1051.0</c:v>
+                </c:pt>
+                <c:pt idx="921">
+                  <c:v>1052.0</c:v>
+                </c:pt>
+                <c:pt idx="922">
+                  <c:v>1053.0</c:v>
+                </c:pt>
+                <c:pt idx="923">
+                  <c:v>1054.0</c:v>
+                </c:pt>
+                <c:pt idx="924">
+                  <c:v>1055.0</c:v>
+                </c:pt>
+                <c:pt idx="925">
+                  <c:v>1056.0</c:v>
+                </c:pt>
+                <c:pt idx="926">
+                  <c:v>1057.0</c:v>
+                </c:pt>
+                <c:pt idx="927">
+                  <c:v>1058.0</c:v>
+                </c:pt>
+                <c:pt idx="928">
+                  <c:v>1059.0</c:v>
+                </c:pt>
+                <c:pt idx="929">
+                  <c:v>1060.0</c:v>
+                </c:pt>
+                <c:pt idx="930">
+                  <c:v>1061.0</c:v>
+                </c:pt>
+                <c:pt idx="931">
+                  <c:v>1062.0</c:v>
+                </c:pt>
+                <c:pt idx="932">
+                  <c:v>1063.0</c:v>
+                </c:pt>
+                <c:pt idx="933">
+                  <c:v>1064.0</c:v>
+                </c:pt>
+                <c:pt idx="934">
+                  <c:v>1065.0</c:v>
+                </c:pt>
+                <c:pt idx="935">
+                  <c:v>1066.0</c:v>
+                </c:pt>
+                <c:pt idx="936">
+                  <c:v>1067.0</c:v>
+                </c:pt>
+                <c:pt idx="937">
+                  <c:v>1068.0</c:v>
+                </c:pt>
+                <c:pt idx="938">
+                  <c:v>1069.0</c:v>
+                </c:pt>
+                <c:pt idx="939">
+                  <c:v>1070.0</c:v>
+                </c:pt>
+                <c:pt idx="940">
+                  <c:v>1071.0</c:v>
+                </c:pt>
+                <c:pt idx="941">
+                  <c:v>1072.0</c:v>
+                </c:pt>
+                <c:pt idx="942">
+                  <c:v>1073.0</c:v>
+                </c:pt>
+                <c:pt idx="943">
+                  <c:v>1074.0</c:v>
+                </c:pt>
+                <c:pt idx="944">
+                  <c:v>1075.0</c:v>
+                </c:pt>
+                <c:pt idx="945">
+                  <c:v>1076.0</c:v>
+                </c:pt>
+                <c:pt idx="946">
+                  <c:v>1077.0</c:v>
+                </c:pt>
+                <c:pt idx="947">
+                  <c:v>1078.0</c:v>
+                </c:pt>
+                <c:pt idx="948">
+                  <c:v>1079.0</c:v>
+                </c:pt>
+                <c:pt idx="949">
+                  <c:v>1080.0</c:v>
+                </c:pt>
+                <c:pt idx="950">
+                  <c:v>1081.0</c:v>
+                </c:pt>
+                <c:pt idx="951">
+                  <c:v>1082.0</c:v>
+                </c:pt>
+                <c:pt idx="952">
+                  <c:v>1083.0</c:v>
+                </c:pt>
+                <c:pt idx="953">
+                  <c:v>1084.0</c:v>
+                </c:pt>
+                <c:pt idx="954">
+                  <c:v>1085.0</c:v>
+                </c:pt>
+                <c:pt idx="955">
+                  <c:v>1086.0</c:v>
+                </c:pt>
+                <c:pt idx="956">
+                  <c:v>1087.0</c:v>
+                </c:pt>
+                <c:pt idx="957">
+                  <c:v>1088.0</c:v>
+                </c:pt>
+                <c:pt idx="958">
+                  <c:v>1089.0</c:v>
+                </c:pt>
+                <c:pt idx="959">
+                  <c:v>1090.0</c:v>
+                </c:pt>
+                <c:pt idx="960">
+                  <c:v>1091.0</c:v>
+                </c:pt>
+                <c:pt idx="961">
+                  <c:v>1092.0</c:v>
+                </c:pt>
+                <c:pt idx="962">
+                  <c:v>1093.0</c:v>
+                </c:pt>
+                <c:pt idx="963">
+                  <c:v>1094.0</c:v>
+                </c:pt>
+                <c:pt idx="964">
+                  <c:v>1095.0</c:v>
+                </c:pt>
+                <c:pt idx="965">
+                  <c:v>1096.0</c:v>
+                </c:pt>
+                <c:pt idx="966">
+                  <c:v>1097.0</c:v>
+                </c:pt>
+                <c:pt idx="967">
+                  <c:v>1098.0</c:v>
+                </c:pt>
+                <c:pt idx="968">
+                  <c:v>1099.0</c:v>
+                </c:pt>
+                <c:pt idx="969">
+                  <c:v>1100.0</c:v>
+                </c:pt>
+                <c:pt idx="970">
+                  <c:v>1101.0</c:v>
+                </c:pt>
+                <c:pt idx="971">
+                  <c:v>1102.0</c:v>
+                </c:pt>
+                <c:pt idx="972">
+                  <c:v>1103.0</c:v>
+                </c:pt>
+                <c:pt idx="973">
+                  <c:v>1104.0</c:v>
+                </c:pt>
+                <c:pt idx="974">
+                  <c:v>1105.0</c:v>
+                </c:pt>
+                <c:pt idx="975">
+                  <c:v>1106.0</c:v>
+                </c:pt>
+                <c:pt idx="976">
+                  <c:v>1107.0</c:v>
+                </c:pt>
+                <c:pt idx="977">
+                  <c:v>1108.0</c:v>
+                </c:pt>
+                <c:pt idx="978">
+                  <c:v>1109.0</c:v>
+                </c:pt>
+                <c:pt idx="979">
+                  <c:v>1110.0</c:v>
+                </c:pt>
+                <c:pt idx="980">
+                  <c:v>1111.0</c:v>
+                </c:pt>
+                <c:pt idx="981">
+                  <c:v>1112.0</c:v>
+                </c:pt>
+                <c:pt idx="982">
+                  <c:v>1113.0</c:v>
+                </c:pt>
+                <c:pt idx="983">
+                  <c:v>1114.0</c:v>
+                </c:pt>
+                <c:pt idx="984">
+                  <c:v>1115.0</c:v>
+                </c:pt>
+                <c:pt idx="985">
+                  <c:v>1116.0</c:v>
+                </c:pt>
+                <c:pt idx="986">
+                  <c:v>1117.0</c:v>
+                </c:pt>
+                <c:pt idx="987">
+                  <c:v>1118.0</c:v>
+                </c:pt>
+                <c:pt idx="988">
+                  <c:v>1119.0</c:v>
+                </c:pt>
+                <c:pt idx="989">
+                  <c:v>1120.0</c:v>
+                </c:pt>
+                <c:pt idx="990">
+                  <c:v>1121.0</c:v>
+                </c:pt>
+                <c:pt idx="991">
+                  <c:v>1122.0</c:v>
+                </c:pt>
+                <c:pt idx="992">
+                  <c:v>1123.0</c:v>
+                </c:pt>
+                <c:pt idx="993">
+                  <c:v>1124.0</c:v>
+                </c:pt>
+                <c:pt idx="994">
+                  <c:v>1125.0</c:v>
+                </c:pt>
+                <c:pt idx="995">
+                  <c:v>1126.0</c:v>
+                </c:pt>
+                <c:pt idx="996">
+                  <c:v>1127.0</c:v>
+                </c:pt>
+                <c:pt idx="997">
+                  <c:v>1128.0</c:v>
+                </c:pt>
+                <c:pt idx="998">
+                  <c:v>1129.0</c:v>
+                </c:pt>
+                <c:pt idx="999">
+                  <c:v>1130.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
             <c:numRef>
               <c:f>Sheet1!$B$2:$B$1001</c:f>
               <c:numCache>
@@ -3133,19 +6142,3027 @@
                 </c:pt>
               </c:numCache>
             </c:numRef>
-          </c:val>
+          </c:yVal>
           <c:smooth val="0"/>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
           <c:order val="1"/>
-          <c:tx>
-            <c:v>selection</c:v>
-          </c:tx>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:val>
+          <c:spPr>
+            <a:ln w="31750">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$A$2:$A$1001</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1000"/>
+                <c:pt idx="0">
+                  <c:v>131.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>132.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>133.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>134.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>135.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>136.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>137.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>138.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>139.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>140.0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>141.0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>142.0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>143.0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>144.0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>145.0</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>146.0</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>147.0</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>148.0</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>149.0</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>150.0</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>151.0</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>152.0</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>153.0</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>154.0</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>155.0</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>156.0</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>157.0</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>158.0</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>159.0</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>160.0</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>161.0</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>162.0</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>163.0</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>164.0</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>165.0</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>166.0</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>167.0</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>168.0</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>169.0</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>170.0</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>171.0</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>172.0</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>173.0</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>174.0</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>175.0</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>176.0</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>177.0</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>178.0</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>179.0</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>180.0</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>181.0</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>182.0</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>183.0</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>184.0</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>185.0</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>186.0</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>187.0</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>188.0</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>189.0</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>190.0</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>191.0</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>192.0</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>193.0</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>194.0</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>195.0</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>196.0</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>197.0</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>198.0</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>199.0</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>200.0</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>201.0</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>202.0</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>203.0</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>204.0</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>205.0</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>206.0</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>207.0</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>208.0</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>209.0</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>210.0</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>211.0</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>212.0</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>213.0</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>214.0</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>215.0</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>216.0</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>217.0</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>218.0</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>219.0</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>220.0</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>221.0</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>222.0</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>223.0</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>224.0</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>225.0</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>226.0</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>227.0</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>228.0</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>229.0</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>230.0</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>231.0</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>232.0</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>233.0</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>234.0</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>235.0</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>236.0</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>237.0</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>238.0</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>239.0</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>240.0</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>241.0</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>242.0</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>243.0</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>244.0</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>245.0</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>246.0</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>247.0</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>248.0</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>249.0</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>250.0</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>251.0</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>252.0</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>253.0</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>254.0</c:v>
+                </c:pt>
+                <c:pt idx="124">
+                  <c:v>255.0</c:v>
+                </c:pt>
+                <c:pt idx="125">
+                  <c:v>256.0</c:v>
+                </c:pt>
+                <c:pt idx="126">
+                  <c:v>257.0</c:v>
+                </c:pt>
+                <c:pt idx="127">
+                  <c:v>258.0</c:v>
+                </c:pt>
+                <c:pt idx="128">
+                  <c:v>259.0</c:v>
+                </c:pt>
+                <c:pt idx="129">
+                  <c:v>260.0</c:v>
+                </c:pt>
+                <c:pt idx="130">
+                  <c:v>261.0</c:v>
+                </c:pt>
+                <c:pt idx="131">
+                  <c:v>262.0</c:v>
+                </c:pt>
+                <c:pt idx="132">
+                  <c:v>263.0</c:v>
+                </c:pt>
+                <c:pt idx="133">
+                  <c:v>264.0</c:v>
+                </c:pt>
+                <c:pt idx="134">
+                  <c:v>265.0</c:v>
+                </c:pt>
+                <c:pt idx="135">
+                  <c:v>266.0</c:v>
+                </c:pt>
+                <c:pt idx="136">
+                  <c:v>267.0</c:v>
+                </c:pt>
+                <c:pt idx="137">
+                  <c:v>268.0</c:v>
+                </c:pt>
+                <c:pt idx="138">
+                  <c:v>269.0</c:v>
+                </c:pt>
+                <c:pt idx="139">
+                  <c:v>270.0</c:v>
+                </c:pt>
+                <c:pt idx="140">
+                  <c:v>271.0</c:v>
+                </c:pt>
+                <c:pt idx="141">
+                  <c:v>272.0</c:v>
+                </c:pt>
+                <c:pt idx="142">
+                  <c:v>273.0</c:v>
+                </c:pt>
+                <c:pt idx="143">
+                  <c:v>274.0</c:v>
+                </c:pt>
+                <c:pt idx="144">
+                  <c:v>275.0</c:v>
+                </c:pt>
+                <c:pt idx="145">
+                  <c:v>276.0</c:v>
+                </c:pt>
+                <c:pt idx="146">
+                  <c:v>277.0</c:v>
+                </c:pt>
+                <c:pt idx="147">
+                  <c:v>278.0</c:v>
+                </c:pt>
+                <c:pt idx="148">
+                  <c:v>279.0</c:v>
+                </c:pt>
+                <c:pt idx="149">
+                  <c:v>280.0</c:v>
+                </c:pt>
+                <c:pt idx="150">
+                  <c:v>281.0</c:v>
+                </c:pt>
+                <c:pt idx="151">
+                  <c:v>282.0</c:v>
+                </c:pt>
+                <c:pt idx="152">
+                  <c:v>283.0</c:v>
+                </c:pt>
+                <c:pt idx="153">
+                  <c:v>284.0</c:v>
+                </c:pt>
+                <c:pt idx="154">
+                  <c:v>285.0</c:v>
+                </c:pt>
+                <c:pt idx="155">
+                  <c:v>286.0</c:v>
+                </c:pt>
+                <c:pt idx="156">
+                  <c:v>287.0</c:v>
+                </c:pt>
+                <c:pt idx="157">
+                  <c:v>288.0</c:v>
+                </c:pt>
+                <c:pt idx="158">
+                  <c:v>289.0</c:v>
+                </c:pt>
+                <c:pt idx="159">
+                  <c:v>290.0</c:v>
+                </c:pt>
+                <c:pt idx="160">
+                  <c:v>291.0</c:v>
+                </c:pt>
+                <c:pt idx="161">
+                  <c:v>292.0</c:v>
+                </c:pt>
+                <c:pt idx="162">
+                  <c:v>293.0</c:v>
+                </c:pt>
+                <c:pt idx="163">
+                  <c:v>294.0</c:v>
+                </c:pt>
+                <c:pt idx="164">
+                  <c:v>295.0</c:v>
+                </c:pt>
+                <c:pt idx="165">
+                  <c:v>296.0</c:v>
+                </c:pt>
+                <c:pt idx="166">
+                  <c:v>297.0</c:v>
+                </c:pt>
+                <c:pt idx="167">
+                  <c:v>298.0</c:v>
+                </c:pt>
+                <c:pt idx="168">
+                  <c:v>299.0</c:v>
+                </c:pt>
+                <c:pt idx="169">
+                  <c:v>300.0</c:v>
+                </c:pt>
+                <c:pt idx="170">
+                  <c:v>301.0</c:v>
+                </c:pt>
+                <c:pt idx="171">
+                  <c:v>302.0</c:v>
+                </c:pt>
+                <c:pt idx="172">
+                  <c:v>303.0</c:v>
+                </c:pt>
+                <c:pt idx="173">
+                  <c:v>304.0</c:v>
+                </c:pt>
+                <c:pt idx="174">
+                  <c:v>305.0</c:v>
+                </c:pt>
+                <c:pt idx="175">
+                  <c:v>306.0</c:v>
+                </c:pt>
+                <c:pt idx="176">
+                  <c:v>307.0</c:v>
+                </c:pt>
+                <c:pt idx="177">
+                  <c:v>308.0</c:v>
+                </c:pt>
+                <c:pt idx="178">
+                  <c:v>309.0</c:v>
+                </c:pt>
+                <c:pt idx="179">
+                  <c:v>310.0</c:v>
+                </c:pt>
+                <c:pt idx="180">
+                  <c:v>311.0</c:v>
+                </c:pt>
+                <c:pt idx="181">
+                  <c:v>312.0</c:v>
+                </c:pt>
+                <c:pt idx="182">
+                  <c:v>313.0</c:v>
+                </c:pt>
+                <c:pt idx="183">
+                  <c:v>314.0</c:v>
+                </c:pt>
+                <c:pt idx="184">
+                  <c:v>315.0</c:v>
+                </c:pt>
+                <c:pt idx="185">
+                  <c:v>316.0</c:v>
+                </c:pt>
+                <c:pt idx="186">
+                  <c:v>317.0</c:v>
+                </c:pt>
+                <c:pt idx="187">
+                  <c:v>318.0</c:v>
+                </c:pt>
+                <c:pt idx="188">
+                  <c:v>319.0</c:v>
+                </c:pt>
+                <c:pt idx="189">
+                  <c:v>320.0</c:v>
+                </c:pt>
+                <c:pt idx="190">
+                  <c:v>321.0</c:v>
+                </c:pt>
+                <c:pt idx="191">
+                  <c:v>322.0</c:v>
+                </c:pt>
+                <c:pt idx="192">
+                  <c:v>323.0</c:v>
+                </c:pt>
+                <c:pt idx="193">
+                  <c:v>324.0</c:v>
+                </c:pt>
+                <c:pt idx="194">
+                  <c:v>325.0</c:v>
+                </c:pt>
+                <c:pt idx="195">
+                  <c:v>326.0</c:v>
+                </c:pt>
+                <c:pt idx="196">
+                  <c:v>327.0</c:v>
+                </c:pt>
+                <c:pt idx="197">
+                  <c:v>328.0</c:v>
+                </c:pt>
+                <c:pt idx="198">
+                  <c:v>329.0</c:v>
+                </c:pt>
+                <c:pt idx="199">
+                  <c:v>330.0</c:v>
+                </c:pt>
+                <c:pt idx="200">
+                  <c:v>331.0</c:v>
+                </c:pt>
+                <c:pt idx="201">
+                  <c:v>332.0</c:v>
+                </c:pt>
+                <c:pt idx="202">
+                  <c:v>333.0</c:v>
+                </c:pt>
+                <c:pt idx="203">
+                  <c:v>334.0</c:v>
+                </c:pt>
+                <c:pt idx="204">
+                  <c:v>335.0</c:v>
+                </c:pt>
+                <c:pt idx="205">
+                  <c:v>336.0</c:v>
+                </c:pt>
+                <c:pt idx="206">
+                  <c:v>337.0</c:v>
+                </c:pt>
+                <c:pt idx="207">
+                  <c:v>338.0</c:v>
+                </c:pt>
+                <c:pt idx="208">
+                  <c:v>339.0</c:v>
+                </c:pt>
+                <c:pt idx="209">
+                  <c:v>340.0</c:v>
+                </c:pt>
+                <c:pt idx="210">
+                  <c:v>341.0</c:v>
+                </c:pt>
+                <c:pt idx="211">
+                  <c:v>342.0</c:v>
+                </c:pt>
+                <c:pt idx="212">
+                  <c:v>343.0</c:v>
+                </c:pt>
+                <c:pt idx="213">
+                  <c:v>344.0</c:v>
+                </c:pt>
+                <c:pt idx="214">
+                  <c:v>345.0</c:v>
+                </c:pt>
+                <c:pt idx="215">
+                  <c:v>346.0</c:v>
+                </c:pt>
+                <c:pt idx="216">
+                  <c:v>347.0</c:v>
+                </c:pt>
+                <c:pt idx="217">
+                  <c:v>348.0</c:v>
+                </c:pt>
+                <c:pt idx="218">
+                  <c:v>349.0</c:v>
+                </c:pt>
+                <c:pt idx="219">
+                  <c:v>350.0</c:v>
+                </c:pt>
+                <c:pt idx="220">
+                  <c:v>351.0</c:v>
+                </c:pt>
+                <c:pt idx="221">
+                  <c:v>352.0</c:v>
+                </c:pt>
+                <c:pt idx="222">
+                  <c:v>353.0</c:v>
+                </c:pt>
+                <c:pt idx="223">
+                  <c:v>354.0</c:v>
+                </c:pt>
+                <c:pt idx="224">
+                  <c:v>355.0</c:v>
+                </c:pt>
+                <c:pt idx="225">
+                  <c:v>356.0</c:v>
+                </c:pt>
+                <c:pt idx="226">
+                  <c:v>357.0</c:v>
+                </c:pt>
+                <c:pt idx="227">
+                  <c:v>358.0</c:v>
+                </c:pt>
+                <c:pt idx="228">
+                  <c:v>359.0</c:v>
+                </c:pt>
+                <c:pt idx="229">
+                  <c:v>360.0</c:v>
+                </c:pt>
+                <c:pt idx="230">
+                  <c:v>361.0</c:v>
+                </c:pt>
+                <c:pt idx="231">
+                  <c:v>362.0</c:v>
+                </c:pt>
+                <c:pt idx="232">
+                  <c:v>363.0</c:v>
+                </c:pt>
+                <c:pt idx="233">
+                  <c:v>364.0</c:v>
+                </c:pt>
+                <c:pt idx="234">
+                  <c:v>365.0</c:v>
+                </c:pt>
+                <c:pt idx="235">
+                  <c:v>366.0</c:v>
+                </c:pt>
+                <c:pt idx="236">
+                  <c:v>367.0</c:v>
+                </c:pt>
+                <c:pt idx="237">
+                  <c:v>368.0</c:v>
+                </c:pt>
+                <c:pt idx="238">
+                  <c:v>369.0</c:v>
+                </c:pt>
+                <c:pt idx="239">
+                  <c:v>370.0</c:v>
+                </c:pt>
+                <c:pt idx="240">
+                  <c:v>371.0</c:v>
+                </c:pt>
+                <c:pt idx="241">
+                  <c:v>372.0</c:v>
+                </c:pt>
+                <c:pt idx="242">
+                  <c:v>373.0</c:v>
+                </c:pt>
+                <c:pt idx="243">
+                  <c:v>374.0</c:v>
+                </c:pt>
+                <c:pt idx="244">
+                  <c:v>375.0</c:v>
+                </c:pt>
+                <c:pt idx="245">
+                  <c:v>376.0</c:v>
+                </c:pt>
+                <c:pt idx="246">
+                  <c:v>377.0</c:v>
+                </c:pt>
+                <c:pt idx="247">
+                  <c:v>378.0</c:v>
+                </c:pt>
+                <c:pt idx="248">
+                  <c:v>379.0</c:v>
+                </c:pt>
+                <c:pt idx="249">
+                  <c:v>380.0</c:v>
+                </c:pt>
+                <c:pt idx="250">
+                  <c:v>381.0</c:v>
+                </c:pt>
+                <c:pt idx="251">
+                  <c:v>382.0</c:v>
+                </c:pt>
+                <c:pt idx="252">
+                  <c:v>383.0</c:v>
+                </c:pt>
+                <c:pt idx="253">
+                  <c:v>384.0</c:v>
+                </c:pt>
+                <c:pt idx="254">
+                  <c:v>385.0</c:v>
+                </c:pt>
+                <c:pt idx="255">
+                  <c:v>386.0</c:v>
+                </c:pt>
+                <c:pt idx="256">
+                  <c:v>387.0</c:v>
+                </c:pt>
+                <c:pt idx="257">
+                  <c:v>388.0</c:v>
+                </c:pt>
+                <c:pt idx="258">
+                  <c:v>389.0</c:v>
+                </c:pt>
+                <c:pt idx="259">
+                  <c:v>390.0</c:v>
+                </c:pt>
+                <c:pt idx="260">
+                  <c:v>391.0</c:v>
+                </c:pt>
+                <c:pt idx="261">
+                  <c:v>392.0</c:v>
+                </c:pt>
+                <c:pt idx="262">
+                  <c:v>393.0</c:v>
+                </c:pt>
+                <c:pt idx="263">
+                  <c:v>394.0</c:v>
+                </c:pt>
+                <c:pt idx="264">
+                  <c:v>395.0</c:v>
+                </c:pt>
+                <c:pt idx="265">
+                  <c:v>396.0</c:v>
+                </c:pt>
+                <c:pt idx="266">
+                  <c:v>397.0</c:v>
+                </c:pt>
+                <c:pt idx="267">
+                  <c:v>398.0</c:v>
+                </c:pt>
+                <c:pt idx="268">
+                  <c:v>399.0</c:v>
+                </c:pt>
+                <c:pt idx="269">
+                  <c:v>400.0</c:v>
+                </c:pt>
+                <c:pt idx="270">
+                  <c:v>401.0</c:v>
+                </c:pt>
+                <c:pt idx="271">
+                  <c:v>402.0</c:v>
+                </c:pt>
+                <c:pt idx="272">
+                  <c:v>403.0</c:v>
+                </c:pt>
+                <c:pt idx="273">
+                  <c:v>404.0</c:v>
+                </c:pt>
+                <c:pt idx="274">
+                  <c:v>405.0</c:v>
+                </c:pt>
+                <c:pt idx="275">
+                  <c:v>406.0</c:v>
+                </c:pt>
+                <c:pt idx="276">
+                  <c:v>407.0</c:v>
+                </c:pt>
+                <c:pt idx="277">
+                  <c:v>408.0</c:v>
+                </c:pt>
+                <c:pt idx="278">
+                  <c:v>409.0</c:v>
+                </c:pt>
+                <c:pt idx="279">
+                  <c:v>410.0</c:v>
+                </c:pt>
+                <c:pt idx="280">
+                  <c:v>411.0</c:v>
+                </c:pt>
+                <c:pt idx="281">
+                  <c:v>412.0</c:v>
+                </c:pt>
+                <c:pt idx="282">
+                  <c:v>413.0</c:v>
+                </c:pt>
+                <c:pt idx="283">
+                  <c:v>414.0</c:v>
+                </c:pt>
+                <c:pt idx="284">
+                  <c:v>415.0</c:v>
+                </c:pt>
+                <c:pt idx="285">
+                  <c:v>416.0</c:v>
+                </c:pt>
+                <c:pt idx="286">
+                  <c:v>417.0</c:v>
+                </c:pt>
+                <c:pt idx="287">
+                  <c:v>418.0</c:v>
+                </c:pt>
+                <c:pt idx="288">
+                  <c:v>419.0</c:v>
+                </c:pt>
+                <c:pt idx="289">
+                  <c:v>420.0</c:v>
+                </c:pt>
+                <c:pt idx="290">
+                  <c:v>421.0</c:v>
+                </c:pt>
+                <c:pt idx="291">
+                  <c:v>422.0</c:v>
+                </c:pt>
+                <c:pt idx="292">
+                  <c:v>423.0</c:v>
+                </c:pt>
+                <c:pt idx="293">
+                  <c:v>424.0</c:v>
+                </c:pt>
+                <c:pt idx="294">
+                  <c:v>425.0</c:v>
+                </c:pt>
+                <c:pt idx="295">
+                  <c:v>426.0</c:v>
+                </c:pt>
+                <c:pt idx="296">
+                  <c:v>427.0</c:v>
+                </c:pt>
+                <c:pt idx="297">
+                  <c:v>428.0</c:v>
+                </c:pt>
+                <c:pt idx="298">
+                  <c:v>429.0</c:v>
+                </c:pt>
+                <c:pt idx="299">
+                  <c:v>430.0</c:v>
+                </c:pt>
+                <c:pt idx="300">
+                  <c:v>431.0</c:v>
+                </c:pt>
+                <c:pt idx="301">
+                  <c:v>432.0</c:v>
+                </c:pt>
+                <c:pt idx="302">
+                  <c:v>433.0</c:v>
+                </c:pt>
+                <c:pt idx="303">
+                  <c:v>434.0</c:v>
+                </c:pt>
+                <c:pt idx="304">
+                  <c:v>435.0</c:v>
+                </c:pt>
+                <c:pt idx="305">
+                  <c:v>436.0</c:v>
+                </c:pt>
+                <c:pt idx="306">
+                  <c:v>437.0</c:v>
+                </c:pt>
+                <c:pt idx="307">
+                  <c:v>438.0</c:v>
+                </c:pt>
+                <c:pt idx="308">
+                  <c:v>439.0</c:v>
+                </c:pt>
+                <c:pt idx="309">
+                  <c:v>440.0</c:v>
+                </c:pt>
+                <c:pt idx="310">
+                  <c:v>441.0</c:v>
+                </c:pt>
+                <c:pt idx="311">
+                  <c:v>442.0</c:v>
+                </c:pt>
+                <c:pt idx="312">
+                  <c:v>443.0</c:v>
+                </c:pt>
+                <c:pt idx="313">
+                  <c:v>444.0</c:v>
+                </c:pt>
+                <c:pt idx="314">
+                  <c:v>445.0</c:v>
+                </c:pt>
+                <c:pt idx="315">
+                  <c:v>446.0</c:v>
+                </c:pt>
+                <c:pt idx="316">
+                  <c:v>447.0</c:v>
+                </c:pt>
+                <c:pt idx="317">
+                  <c:v>448.0</c:v>
+                </c:pt>
+                <c:pt idx="318">
+                  <c:v>449.0</c:v>
+                </c:pt>
+                <c:pt idx="319">
+                  <c:v>450.0</c:v>
+                </c:pt>
+                <c:pt idx="320">
+                  <c:v>451.0</c:v>
+                </c:pt>
+                <c:pt idx="321">
+                  <c:v>452.0</c:v>
+                </c:pt>
+                <c:pt idx="322">
+                  <c:v>453.0</c:v>
+                </c:pt>
+                <c:pt idx="323">
+                  <c:v>454.0</c:v>
+                </c:pt>
+                <c:pt idx="324">
+                  <c:v>455.0</c:v>
+                </c:pt>
+                <c:pt idx="325">
+                  <c:v>456.0</c:v>
+                </c:pt>
+                <c:pt idx="326">
+                  <c:v>457.0</c:v>
+                </c:pt>
+                <c:pt idx="327">
+                  <c:v>458.0</c:v>
+                </c:pt>
+                <c:pt idx="328">
+                  <c:v>459.0</c:v>
+                </c:pt>
+                <c:pt idx="329">
+                  <c:v>460.0</c:v>
+                </c:pt>
+                <c:pt idx="330">
+                  <c:v>461.0</c:v>
+                </c:pt>
+                <c:pt idx="331">
+                  <c:v>462.0</c:v>
+                </c:pt>
+                <c:pt idx="332">
+                  <c:v>463.0</c:v>
+                </c:pt>
+                <c:pt idx="333">
+                  <c:v>464.0</c:v>
+                </c:pt>
+                <c:pt idx="334">
+                  <c:v>465.0</c:v>
+                </c:pt>
+                <c:pt idx="335">
+                  <c:v>466.0</c:v>
+                </c:pt>
+                <c:pt idx="336">
+                  <c:v>467.0</c:v>
+                </c:pt>
+                <c:pt idx="337">
+                  <c:v>468.0</c:v>
+                </c:pt>
+                <c:pt idx="338">
+                  <c:v>469.0</c:v>
+                </c:pt>
+                <c:pt idx="339">
+                  <c:v>470.0</c:v>
+                </c:pt>
+                <c:pt idx="340">
+                  <c:v>471.0</c:v>
+                </c:pt>
+                <c:pt idx="341">
+                  <c:v>472.0</c:v>
+                </c:pt>
+                <c:pt idx="342">
+                  <c:v>473.0</c:v>
+                </c:pt>
+                <c:pt idx="343">
+                  <c:v>474.0</c:v>
+                </c:pt>
+                <c:pt idx="344">
+                  <c:v>475.0</c:v>
+                </c:pt>
+                <c:pt idx="345">
+                  <c:v>476.0</c:v>
+                </c:pt>
+                <c:pt idx="346">
+                  <c:v>477.0</c:v>
+                </c:pt>
+                <c:pt idx="347">
+                  <c:v>478.0</c:v>
+                </c:pt>
+                <c:pt idx="348">
+                  <c:v>479.0</c:v>
+                </c:pt>
+                <c:pt idx="349">
+                  <c:v>480.0</c:v>
+                </c:pt>
+                <c:pt idx="350">
+                  <c:v>481.0</c:v>
+                </c:pt>
+                <c:pt idx="351">
+                  <c:v>482.0</c:v>
+                </c:pt>
+                <c:pt idx="352">
+                  <c:v>483.0</c:v>
+                </c:pt>
+                <c:pt idx="353">
+                  <c:v>484.0</c:v>
+                </c:pt>
+                <c:pt idx="354">
+                  <c:v>485.0</c:v>
+                </c:pt>
+                <c:pt idx="355">
+                  <c:v>486.0</c:v>
+                </c:pt>
+                <c:pt idx="356">
+                  <c:v>487.0</c:v>
+                </c:pt>
+                <c:pt idx="357">
+                  <c:v>488.0</c:v>
+                </c:pt>
+                <c:pt idx="358">
+                  <c:v>489.0</c:v>
+                </c:pt>
+                <c:pt idx="359">
+                  <c:v>490.0</c:v>
+                </c:pt>
+                <c:pt idx="360">
+                  <c:v>491.0</c:v>
+                </c:pt>
+                <c:pt idx="361">
+                  <c:v>492.0</c:v>
+                </c:pt>
+                <c:pt idx="362">
+                  <c:v>493.0</c:v>
+                </c:pt>
+                <c:pt idx="363">
+                  <c:v>494.0</c:v>
+                </c:pt>
+                <c:pt idx="364">
+                  <c:v>495.0</c:v>
+                </c:pt>
+                <c:pt idx="365">
+                  <c:v>496.0</c:v>
+                </c:pt>
+                <c:pt idx="366">
+                  <c:v>497.0</c:v>
+                </c:pt>
+                <c:pt idx="367">
+                  <c:v>498.0</c:v>
+                </c:pt>
+                <c:pt idx="368">
+                  <c:v>499.0</c:v>
+                </c:pt>
+                <c:pt idx="369">
+                  <c:v>500.0</c:v>
+                </c:pt>
+                <c:pt idx="370">
+                  <c:v>501.0</c:v>
+                </c:pt>
+                <c:pt idx="371">
+                  <c:v>502.0</c:v>
+                </c:pt>
+                <c:pt idx="372">
+                  <c:v>503.0</c:v>
+                </c:pt>
+                <c:pt idx="373">
+                  <c:v>504.0</c:v>
+                </c:pt>
+                <c:pt idx="374">
+                  <c:v>505.0</c:v>
+                </c:pt>
+                <c:pt idx="375">
+                  <c:v>506.0</c:v>
+                </c:pt>
+                <c:pt idx="376">
+                  <c:v>507.0</c:v>
+                </c:pt>
+                <c:pt idx="377">
+                  <c:v>508.0</c:v>
+                </c:pt>
+                <c:pt idx="378">
+                  <c:v>509.0</c:v>
+                </c:pt>
+                <c:pt idx="379">
+                  <c:v>510.0</c:v>
+                </c:pt>
+                <c:pt idx="380">
+                  <c:v>511.0</c:v>
+                </c:pt>
+                <c:pt idx="381">
+                  <c:v>512.0</c:v>
+                </c:pt>
+                <c:pt idx="382">
+                  <c:v>513.0</c:v>
+                </c:pt>
+                <c:pt idx="383">
+                  <c:v>514.0</c:v>
+                </c:pt>
+                <c:pt idx="384">
+                  <c:v>515.0</c:v>
+                </c:pt>
+                <c:pt idx="385">
+                  <c:v>516.0</c:v>
+                </c:pt>
+                <c:pt idx="386">
+                  <c:v>517.0</c:v>
+                </c:pt>
+                <c:pt idx="387">
+                  <c:v>518.0</c:v>
+                </c:pt>
+                <c:pt idx="388">
+                  <c:v>519.0</c:v>
+                </c:pt>
+                <c:pt idx="389">
+                  <c:v>520.0</c:v>
+                </c:pt>
+                <c:pt idx="390">
+                  <c:v>521.0</c:v>
+                </c:pt>
+                <c:pt idx="391">
+                  <c:v>522.0</c:v>
+                </c:pt>
+                <c:pt idx="392">
+                  <c:v>523.0</c:v>
+                </c:pt>
+                <c:pt idx="393">
+                  <c:v>524.0</c:v>
+                </c:pt>
+                <c:pt idx="394">
+                  <c:v>525.0</c:v>
+                </c:pt>
+                <c:pt idx="395">
+                  <c:v>526.0</c:v>
+                </c:pt>
+                <c:pt idx="396">
+                  <c:v>527.0</c:v>
+                </c:pt>
+                <c:pt idx="397">
+                  <c:v>528.0</c:v>
+                </c:pt>
+                <c:pt idx="398">
+                  <c:v>529.0</c:v>
+                </c:pt>
+                <c:pt idx="399">
+                  <c:v>530.0</c:v>
+                </c:pt>
+                <c:pt idx="400">
+                  <c:v>531.0</c:v>
+                </c:pt>
+                <c:pt idx="401">
+                  <c:v>532.0</c:v>
+                </c:pt>
+                <c:pt idx="402">
+                  <c:v>533.0</c:v>
+                </c:pt>
+                <c:pt idx="403">
+                  <c:v>534.0</c:v>
+                </c:pt>
+                <c:pt idx="404">
+                  <c:v>535.0</c:v>
+                </c:pt>
+                <c:pt idx="405">
+                  <c:v>536.0</c:v>
+                </c:pt>
+                <c:pt idx="406">
+                  <c:v>537.0</c:v>
+                </c:pt>
+                <c:pt idx="407">
+                  <c:v>538.0</c:v>
+                </c:pt>
+                <c:pt idx="408">
+                  <c:v>539.0</c:v>
+                </c:pt>
+                <c:pt idx="409">
+                  <c:v>540.0</c:v>
+                </c:pt>
+                <c:pt idx="410">
+                  <c:v>541.0</c:v>
+                </c:pt>
+                <c:pt idx="411">
+                  <c:v>542.0</c:v>
+                </c:pt>
+                <c:pt idx="412">
+                  <c:v>543.0</c:v>
+                </c:pt>
+                <c:pt idx="413">
+                  <c:v>544.0</c:v>
+                </c:pt>
+                <c:pt idx="414">
+                  <c:v>545.0</c:v>
+                </c:pt>
+                <c:pt idx="415">
+                  <c:v>546.0</c:v>
+                </c:pt>
+                <c:pt idx="416">
+                  <c:v>547.0</c:v>
+                </c:pt>
+                <c:pt idx="417">
+                  <c:v>548.0</c:v>
+                </c:pt>
+                <c:pt idx="418">
+                  <c:v>549.0</c:v>
+                </c:pt>
+                <c:pt idx="419">
+                  <c:v>550.0</c:v>
+                </c:pt>
+                <c:pt idx="420">
+                  <c:v>551.0</c:v>
+                </c:pt>
+                <c:pt idx="421">
+                  <c:v>552.0</c:v>
+                </c:pt>
+                <c:pt idx="422">
+                  <c:v>553.0</c:v>
+                </c:pt>
+                <c:pt idx="423">
+                  <c:v>554.0</c:v>
+                </c:pt>
+                <c:pt idx="424">
+                  <c:v>555.0</c:v>
+                </c:pt>
+                <c:pt idx="425">
+                  <c:v>556.0</c:v>
+                </c:pt>
+                <c:pt idx="426">
+                  <c:v>557.0</c:v>
+                </c:pt>
+                <c:pt idx="427">
+                  <c:v>558.0</c:v>
+                </c:pt>
+                <c:pt idx="428">
+                  <c:v>559.0</c:v>
+                </c:pt>
+                <c:pt idx="429">
+                  <c:v>560.0</c:v>
+                </c:pt>
+                <c:pt idx="430">
+                  <c:v>561.0</c:v>
+                </c:pt>
+                <c:pt idx="431">
+                  <c:v>562.0</c:v>
+                </c:pt>
+                <c:pt idx="432">
+                  <c:v>563.0</c:v>
+                </c:pt>
+                <c:pt idx="433">
+                  <c:v>564.0</c:v>
+                </c:pt>
+                <c:pt idx="434">
+                  <c:v>565.0</c:v>
+                </c:pt>
+                <c:pt idx="435">
+                  <c:v>566.0</c:v>
+                </c:pt>
+                <c:pt idx="436">
+                  <c:v>567.0</c:v>
+                </c:pt>
+                <c:pt idx="437">
+                  <c:v>568.0</c:v>
+                </c:pt>
+                <c:pt idx="438">
+                  <c:v>569.0</c:v>
+                </c:pt>
+                <c:pt idx="439">
+                  <c:v>570.0</c:v>
+                </c:pt>
+                <c:pt idx="440">
+                  <c:v>571.0</c:v>
+                </c:pt>
+                <c:pt idx="441">
+                  <c:v>572.0</c:v>
+                </c:pt>
+                <c:pt idx="442">
+                  <c:v>573.0</c:v>
+                </c:pt>
+                <c:pt idx="443">
+                  <c:v>574.0</c:v>
+                </c:pt>
+                <c:pt idx="444">
+                  <c:v>575.0</c:v>
+                </c:pt>
+                <c:pt idx="445">
+                  <c:v>576.0</c:v>
+                </c:pt>
+                <c:pt idx="446">
+                  <c:v>577.0</c:v>
+                </c:pt>
+                <c:pt idx="447">
+                  <c:v>578.0</c:v>
+                </c:pt>
+                <c:pt idx="448">
+                  <c:v>579.0</c:v>
+                </c:pt>
+                <c:pt idx="449">
+                  <c:v>580.0</c:v>
+                </c:pt>
+                <c:pt idx="450">
+                  <c:v>581.0</c:v>
+                </c:pt>
+                <c:pt idx="451">
+                  <c:v>582.0</c:v>
+                </c:pt>
+                <c:pt idx="452">
+                  <c:v>583.0</c:v>
+                </c:pt>
+                <c:pt idx="453">
+                  <c:v>584.0</c:v>
+                </c:pt>
+                <c:pt idx="454">
+                  <c:v>585.0</c:v>
+                </c:pt>
+                <c:pt idx="455">
+                  <c:v>586.0</c:v>
+                </c:pt>
+                <c:pt idx="456">
+                  <c:v>587.0</c:v>
+                </c:pt>
+                <c:pt idx="457">
+                  <c:v>588.0</c:v>
+                </c:pt>
+                <c:pt idx="458">
+                  <c:v>589.0</c:v>
+                </c:pt>
+                <c:pt idx="459">
+                  <c:v>590.0</c:v>
+                </c:pt>
+                <c:pt idx="460">
+                  <c:v>591.0</c:v>
+                </c:pt>
+                <c:pt idx="461">
+                  <c:v>592.0</c:v>
+                </c:pt>
+                <c:pt idx="462">
+                  <c:v>593.0</c:v>
+                </c:pt>
+                <c:pt idx="463">
+                  <c:v>594.0</c:v>
+                </c:pt>
+                <c:pt idx="464">
+                  <c:v>595.0</c:v>
+                </c:pt>
+                <c:pt idx="465">
+                  <c:v>596.0</c:v>
+                </c:pt>
+                <c:pt idx="466">
+                  <c:v>597.0</c:v>
+                </c:pt>
+                <c:pt idx="467">
+                  <c:v>598.0</c:v>
+                </c:pt>
+                <c:pt idx="468">
+                  <c:v>599.0</c:v>
+                </c:pt>
+                <c:pt idx="469">
+                  <c:v>600.0</c:v>
+                </c:pt>
+                <c:pt idx="470">
+                  <c:v>601.0</c:v>
+                </c:pt>
+                <c:pt idx="471">
+                  <c:v>602.0</c:v>
+                </c:pt>
+                <c:pt idx="472">
+                  <c:v>603.0</c:v>
+                </c:pt>
+                <c:pt idx="473">
+                  <c:v>604.0</c:v>
+                </c:pt>
+                <c:pt idx="474">
+                  <c:v>605.0</c:v>
+                </c:pt>
+                <c:pt idx="475">
+                  <c:v>606.0</c:v>
+                </c:pt>
+                <c:pt idx="476">
+                  <c:v>607.0</c:v>
+                </c:pt>
+                <c:pt idx="477">
+                  <c:v>608.0</c:v>
+                </c:pt>
+                <c:pt idx="478">
+                  <c:v>609.0</c:v>
+                </c:pt>
+                <c:pt idx="479">
+                  <c:v>610.0</c:v>
+                </c:pt>
+                <c:pt idx="480">
+                  <c:v>611.0</c:v>
+                </c:pt>
+                <c:pt idx="481">
+                  <c:v>612.0</c:v>
+                </c:pt>
+                <c:pt idx="482">
+                  <c:v>613.0</c:v>
+                </c:pt>
+                <c:pt idx="483">
+                  <c:v>614.0</c:v>
+                </c:pt>
+                <c:pt idx="484">
+                  <c:v>615.0</c:v>
+                </c:pt>
+                <c:pt idx="485">
+                  <c:v>616.0</c:v>
+                </c:pt>
+                <c:pt idx="486">
+                  <c:v>617.0</c:v>
+                </c:pt>
+                <c:pt idx="487">
+                  <c:v>618.0</c:v>
+                </c:pt>
+                <c:pt idx="488">
+                  <c:v>619.0</c:v>
+                </c:pt>
+                <c:pt idx="489">
+                  <c:v>620.0</c:v>
+                </c:pt>
+                <c:pt idx="490">
+                  <c:v>621.0</c:v>
+                </c:pt>
+                <c:pt idx="491">
+                  <c:v>622.0</c:v>
+                </c:pt>
+                <c:pt idx="492">
+                  <c:v>623.0</c:v>
+                </c:pt>
+                <c:pt idx="493">
+                  <c:v>624.0</c:v>
+                </c:pt>
+                <c:pt idx="494">
+                  <c:v>625.0</c:v>
+                </c:pt>
+                <c:pt idx="495">
+                  <c:v>626.0</c:v>
+                </c:pt>
+                <c:pt idx="496">
+                  <c:v>627.0</c:v>
+                </c:pt>
+                <c:pt idx="497">
+                  <c:v>628.0</c:v>
+                </c:pt>
+                <c:pt idx="498">
+                  <c:v>629.0</c:v>
+                </c:pt>
+                <c:pt idx="499">
+                  <c:v>630.0</c:v>
+                </c:pt>
+                <c:pt idx="500">
+                  <c:v>631.0</c:v>
+                </c:pt>
+                <c:pt idx="501">
+                  <c:v>632.0</c:v>
+                </c:pt>
+                <c:pt idx="502">
+                  <c:v>633.0</c:v>
+                </c:pt>
+                <c:pt idx="503">
+                  <c:v>634.0</c:v>
+                </c:pt>
+                <c:pt idx="504">
+                  <c:v>635.0</c:v>
+                </c:pt>
+                <c:pt idx="505">
+                  <c:v>636.0</c:v>
+                </c:pt>
+                <c:pt idx="506">
+                  <c:v>637.0</c:v>
+                </c:pt>
+                <c:pt idx="507">
+                  <c:v>638.0</c:v>
+                </c:pt>
+                <c:pt idx="508">
+                  <c:v>639.0</c:v>
+                </c:pt>
+                <c:pt idx="509">
+                  <c:v>640.0</c:v>
+                </c:pt>
+                <c:pt idx="510">
+                  <c:v>641.0</c:v>
+                </c:pt>
+                <c:pt idx="511">
+                  <c:v>642.0</c:v>
+                </c:pt>
+                <c:pt idx="512">
+                  <c:v>643.0</c:v>
+                </c:pt>
+                <c:pt idx="513">
+                  <c:v>644.0</c:v>
+                </c:pt>
+                <c:pt idx="514">
+                  <c:v>645.0</c:v>
+                </c:pt>
+                <c:pt idx="515">
+                  <c:v>646.0</c:v>
+                </c:pt>
+                <c:pt idx="516">
+                  <c:v>647.0</c:v>
+                </c:pt>
+                <c:pt idx="517">
+                  <c:v>648.0</c:v>
+                </c:pt>
+                <c:pt idx="518">
+                  <c:v>649.0</c:v>
+                </c:pt>
+                <c:pt idx="519">
+                  <c:v>650.0</c:v>
+                </c:pt>
+                <c:pt idx="520">
+                  <c:v>651.0</c:v>
+                </c:pt>
+                <c:pt idx="521">
+                  <c:v>652.0</c:v>
+                </c:pt>
+                <c:pt idx="522">
+                  <c:v>653.0</c:v>
+                </c:pt>
+                <c:pt idx="523">
+                  <c:v>654.0</c:v>
+                </c:pt>
+                <c:pt idx="524">
+                  <c:v>655.0</c:v>
+                </c:pt>
+                <c:pt idx="525">
+                  <c:v>656.0</c:v>
+                </c:pt>
+                <c:pt idx="526">
+                  <c:v>657.0</c:v>
+                </c:pt>
+                <c:pt idx="527">
+                  <c:v>658.0</c:v>
+                </c:pt>
+                <c:pt idx="528">
+                  <c:v>659.0</c:v>
+                </c:pt>
+                <c:pt idx="529">
+                  <c:v>660.0</c:v>
+                </c:pt>
+                <c:pt idx="530">
+                  <c:v>661.0</c:v>
+                </c:pt>
+                <c:pt idx="531">
+                  <c:v>662.0</c:v>
+                </c:pt>
+                <c:pt idx="532">
+                  <c:v>663.0</c:v>
+                </c:pt>
+                <c:pt idx="533">
+                  <c:v>664.0</c:v>
+                </c:pt>
+                <c:pt idx="534">
+                  <c:v>665.0</c:v>
+                </c:pt>
+                <c:pt idx="535">
+                  <c:v>666.0</c:v>
+                </c:pt>
+                <c:pt idx="536">
+                  <c:v>667.0</c:v>
+                </c:pt>
+                <c:pt idx="537">
+                  <c:v>668.0</c:v>
+                </c:pt>
+                <c:pt idx="538">
+                  <c:v>669.0</c:v>
+                </c:pt>
+                <c:pt idx="539">
+                  <c:v>670.0</c:v>
+                </c:pt>
+                <c:pt idx="540">
+                  <c:v>671.0</c:v>
+                </c:pt>
+                <c:pt idx="541">
+                  <c:v>672.0</c:v>
+                </c:pt>
+                <c:pt idx="542">
+                  <c:v>673.0</c:v>
+                </c:pt>
+                <c:pt idx="543">
+                  <c:v>674.0</c:v>
+                </c:pt>
+                <c:pt idx="544">
+                  <c:v>675.0</c:v>
+                </c:pt>
+                <c:pt idx="545">
+                  <c:v>676.0</c:v>
+                </c:pt>
+                <c:pt idx="546">
+                  <c:v>677.0</c:v>
+                </c:pt>
+                <c:pt idx="547">
+                  <c:v>678.0</c:v>
+                </c:pt>
+                <c:pt idx="548">
+                  <c:v>679.0</c:v>
+                </c:pt>
+                <c:pt idx="549">
+                  <c:v>680.0</c:v>
+                </c:pt>
+                <c:pt idx="550">
+                  <c:v>681.0</c:v>
+                </c:pt>
+                <c:pt idx="551">
+                  <c:v>682.0</c:v>
+                </c:pt>
+                <c:pt idx="552">
+                  <c:v>683.0</c:v>
+                </c:pt>
+                <c:pt idx="553">
+                  <c:v>684.0</c:v>
+                </c:pt>
+                <c:pt idx="554">
+                  <c:v>685.0</c:v>
+                </c:pt>
+                <c:pt idx="555">
+                  <c:v>686.0</c:v>
+                </c:pt>
+                <c:pt idx="556">
+                  <c:v>687.0</c:v>
+                </c:pt>
+                <c:pt idx="557">
+                  <c:v>688.0</c:v>
+                </c:pt>
+                <c:pt idx="558">
+                  <c:v>689.0</c:v>
+                </c:pt>
+                <c:pt idx="559">
+                  <c:v>690.0</c:v>
+                </c:pt>
+                <c:pt idx="560">
+                  <c:v>691.0</c:v>
+                </c:pt>
+                <c:pt idx="561">
+                  <c:v>692.0</c:v>
+                </c:pt>
+                <c:pt idx="562">
+                  <c:v>693.0</c:v>
+                </c:pt>
+                <c:pt idx="563">
+                  <c:v>694.0</c:v>
+                </c:pt>
+                <c:pt idx="564">
+                  <c:v>695.0</c:v>
+                </c:pt>
+                <c:pt idx="565">
+                  <c:v>696.0</c:v>
+                </c:pt>
+                <c:pt idx="566">
+                  <c:v>697.0</c:v>
+                </c:pt>
+                <c:pt idx="567">
+                  <c:v>698.0</c:v>
+                </c:pt>
+                <c:pt idx="568">
+                  <c:v>699.0</c:v>
+                </c:pt>
+                <c:pt idx="569">
+                  <c:v>700.0</c:v>
+                </c:pt>
+                <c:pt idx="570">
+                  <c:v>701.0</c:v>
+                </c:pt>
+                <c:pt idx="571">
+                  <c:v>702.0</c:v>
+                </c:pt>
+                <c:pt idx="572">
+                  <c:v>703.0</c:v>
+                </c:pt>
+                <c:pt idx="573">
+                  <c:v>704.0</c:v>
+                </c:pt>
+                <c:pt idx="574">
+                  <c:v>705.0</c:v>
+                </c:pt>
+                <c:pt idx="575">
+                  <c:v>706.0</c:v>
+                </c:pt>
+                <c:pt idx="576">
+                  <c:v>707.0</c:v>
+                </c:pt>
+                <c:pt idx="577">
+                  <c:v>708.0</c:v>
+                </c:pt>
+                <c:pt idx="578">
+                  <c:v>709.0</c:v>
+                </c:pt>
+                <c:pt idx="579">
+                  <c:v>710.0</c:v>
+                </c:pt>
+                <c:pt idx="580">
+                  <c:v>711.0</c:v>
+                </c:pt>
+                <c:pt idx="581">
+                  <c:v>712.0</c:v>
+                </c:pt>
+                <c:pt idx="582">
+                  <c:v>713.0</c:v>
+                </c:pt>
+                <c:pt idx="583">
+                  <c:v>714.0</c:v>
+                </c:pt>
+                <c:pt idx="584">
+                  <c:v>715.0</c:v>
+                </c:pt>
+                <c:pt idx="585">
+                  <c:v>716.0</c:v>
+                </c:pt>
+                <c:pt idx="586">
+                  <c:v>717.0</c:v>
+                </c:pt>
+                <c:pt idx="587">
+                  <c:v>718.0</c:v>
+                </c:pt>
+                <c:pt idx="588">
+                  <c:v>719.0</c:v>
+                </c:pt>
+                <c:pt idx="589">
+                  <c:v>720.0</c:v>
+                </c:pt>
+                <c:pt idx="590">
+                  <c:v>721.0</c:v>
+                </c:pt>
+                <c:pt idx="591">
+                  <c:v>722.0</c:v>
+                </c:pt>
+                <c:pt idx="592">
+                  <c:v>723.0</c:v>
+                </c:pt>
+                <c:pt idx="593">
+                  <c:v>724.0</c:v>
+                </c:pt>
+                <c:pt idx="594">
+                  <c:v>725.0</c:v>
+                </c:pt>
+                <c:pt idx="595">
+                  <c:v>726.0</c:v>
+                </c:pt>
+                <c:pt idx="596">
+                  <c:v>727.0</c:v>
+                </c:pt>
+                <c:pt idx="597">
+                  <c:v>728.0</c:v>
+                </c:pt>
+                <c:pt idx="598">
+                  <c:v>729.0</c:v>
+                </c:pt>
+                <c:pt idx="599">
+                  <c:v>730.0</c:v>
+                </c:pt>
+                <c:pt idx="600">
+                  <c:v>731.0</c:v>
+                </c:pt>
+                <c:pt idx="601">
+                  <c:v>732.0</c:v>
+                </c:pt>
+                <c:pt idx="602">
+                  <c:v>733.0</c:v>
+                </c:pt>
+                <c:pt idx="603">
+                  <c:v>734.0</c:v>
+                </c:pt>
+                <c:pt idx="604">
+                  <c:v>735.0</c:v>
+                </c:pt>
+                <c:pt idx="605">
+                  <c:v>736.0</c:v>
+                </c:pt>
+                <c:pt idx="606">
+                  <c:v>737.0</c:v>
+                </c:pt>
+                <c:pt idx="607">
+                  <c:v>738.0</c:v>
+                </c:pt>
+                <c:pt idx="608">
+                  <c:v>739.0</c:v>
+                </c:pt>
+                <c:pt idx="609">
+                  <c:v>740.0</c:v>
+                </c:pt>
+                <c:pt idx="610">
+                  <c:v>741.0</c:v>
+                </c:pt>
+                <c:pt idx="611">
+                  <c:v>742.0</c:v>
+                </c:pt>
+                <c:pt idx="612">
+                  <c:v>743.0</c:v>
+                </c:pt>
+                <c:pt idx="613">
+                  <c:v>744.0</c:v>
+                </c:pt>
+                <c:pt idx="614">
+                  <c:v>745.0</c:v>
+                </c:pt>
+                <c:pt idx="615">
+                  <c:v>746.0</c:v>
+                </c:pt>
+                <c:pt idx="616">
+                  <c:v>747.0</c:v>
+                </c:pt>
+                <c:pt idx="617">
+                  <c:v>748.0</c:v>
+                </c:pt>
+                <c:pt idx="618">
+                  <c:v>749.0</c:v>
+                </c:pt>
+                <c:pt idx="619">
+                  <c:v>750.0</c:v>
+                </c:pt>
+                <c:pt idx="620">
+                  <c:v>751.0</c:v>
+                </c:pt>
+                <c:pt idx="621">
+                  <c:v>752.0</c:v>
+                </c:pt>
+                <c:pt idx="622">
+                  <c:v>753.0</c:v>
+                </c:pt>
+                <c:pt idx="623">
+                  <c:v>754.0</c:v>
+                </c:pt>
+                <c:pt idx="624">
+                  <c:v>755.0</c:v>
+                </c:pt>
+                <c:pt idx="625">
+                  <c:v>756.0</c:v>
+                </c:pt>
+                <c:pt idx="626">
+                  <c:v>757.0</c:v>
+                </c:pt>
+                <c:pt idx="627">
+                  <c:v>758.0</c:v>
+                </c:pt>
+                <c:pt idx="628">
+                  <c:v>759.0</c:v>
+                </c:pt>
+                <c:pt idx="629">
+                  <c:v>760.0</c:v>
+                </c:pt>
+                <c:pt idx="630">
+                  <c:v>761.0</c:v>
+                </c:pt>
+                <c:pt idx="631">
+                  <c:v>762.0</c:v>
+                </c:pt>
+                <c:pt idx="632">
+                  <c:v>763.0</c:v>
+                </c:pt>
+                <c:pt idx="633">
+                  <c:v>764.0</c:v>
+                </c:pt>
+                <c:pt idx="634">
+                  <c:v>765.0</c:v>
+                </c:pt>
+                <c:pt idx="635">
+                  <c:v>766.0</c:v>
+                </c:pt>
+                <c:pt idx="636">
+                  <c:v>767.0</c:v>
+                </c:pt>
+                <c:pt idx="637">
+                  <c:v>768.0</c:v>
+                </c:pt>
+                <c:pt idx="638">
+                  <c:v>769.0</c:v>
+                </c:pt>
+                <c:pt idx="639">
+                  <c:v>770.0</c:v>
+                </c:pt>
+                <c:pt idx="640">
+                  <c:v>771.0</c:v>
+                </c:pt>
+                <c:pt idx="641">
+                  <c:v>772.0</c:v>
+                </c:pt>
+                <c:pt idx="642">
+                  <c:v>773.0</c:v>
+                </c:pt>
+                <c:pt idx="643">
+                  <c:v>774.0</c:v>
+                </c:pt>
+                <c:pt idx="644">
+                  <c:v>775.0</c:v>
+                </c:pt>
+                <c:pt idx="645">
+                  <c:v>776.0</c:v>
+                </c:pt>
+                <c:pt idx="646">
+                  <c:v>777.0</c:v>
+                </c:pt>
+                <c:pt idx="647">
+                  <c:v>778.0</c:v>
+                </c:pt>
+                <c:pt idx="648">
+                  <c:v>779.0</c:v>
+                </c:pt>
+                <c:pt idx="649">
+                  <c:v>780.0</c:v>
+                </c:pt>
+                <c:pt idx="650">
+                  <c:v>781.0</c:v>
+                </c:pt>
+                <c:pt idx="651">
+                  <c:v>782.0</c:v>
+                </c:pt>
+                <c:pt idx="652">
+                  <c:v>783.0</c:v>
+                </c:pt>
+                <c:pt idx="653">
+                  <c:v>784.0</c:v>
+                </c:pt>
+                <c:pt idx="654">
+                  <c:v>785.0</c:v>
+                </c:pt>
+                <c:pt idx="655">
+                  <c:v>786.0</c:v>
+                </c:pt>
+                <c:pt idx="656">
+                  <c:v>787.0</c:v>
+                </c:pt>
+                <c:pt idx="657">
+                  <c:v>788.0</c:v>
+                </c:pt>
+                <c:pt idx="658">
+                  <c:v>789.0</c:v>
+                </c:pt>
+                <c:pt idx="659">
+                  <c:v>790.0</c:v>
+                </c:pt>
+                <c:pt idx="660">
+                  <c:v>791.0</c:v>
+                </c:pt>
+                <c:pt idx="661">
+                  <c:v>792.0</c:v>
+                </c:pt>
+                <c:pt idx="662">
+                  <c:v>793.0</c:v>
+                </c:pt>
+                <c:pt idx="663">
+                  <c:v>794.0</c:v>
+                </c:pt>
+                <c:pt idx="664">
+                  <c:v>795.0</c:v>
+                </c:pt>
+                <c:pt idx="665">
+                  <c:v>796.0</c:v>
+                </c:pt>
+                <c:pt idx="666">
+                  <c:v>797.0</c:v>
+                </c:pt>
+                <c:pt idx="667">
+                  <c:v>798.0</c:v>
+                </c:pt>
+                <c:pt idx="668">
+                  <c:v>799.0</c:v>
+                </c:pt>
+                <c:pt idx="669">
+                  <c:v>800.0</c:v>
+                </c:pt>
+                <c:pt idx="670">
+                  <c:v>801.0</c:v>
+                </c:pt>
+                <c:pt idx="671">
+                  <c:v>802.0</c:v>
+                </c:pt>
+                <c:pt idx="672">
+                  <c:v>803.0</c:v>
+                </c:pt>
+                <c:pt idx="673">
+                  <c:v>804.0</c:v>
+                </c:pt>
+                <c:pt idx="674">
+                  <c:v>805.0</c:v>
+                </c:pt>
+                <c:pt idx="675">
+                  <c:v>806.0</c:v>
+                </c:pt>
+                <c:pt idx="676">
+                  <c:v>807.0</c:v>
+                </c:pt>
+                <c:pt idx="677">
+                  <c:v>808.0</c:v>
+                </c:pt>
+                <c:pt idx="678">
+                  <c:v>809.0</c:v>
+                </c:pt>
+                <c:pt idx="679">
+                  <c:v>810.0</c:v>
+                </c:pt>
+                <c:pt idx="680">
+                  <c:v>811.0</c:v>
+                </c:pt>
+                <c:pt idx="681">
+                  <c:v>812.0</c:v>
+                </c:pt>
+                <c:pt idx="682">
+                  <c:v>813.0</c:v>
+                </c:pt>
+                <c:pt idx="683">
+                  <c:v>814.0</c:v>
+                </c:pt>
+                <c:pt idx="684">
+                  <c:v>815.0</c:v>
+                </c:pt>
+                <c:pt idx="685">
+                  <c:v>816.0</c:v>
+                </c:pt>
+                <c:pt idx="686">
+                  <c:v>817.0</c:v>
+                </c:pt>
+                <c:pt idx="687">
+                  <c:v>818.0</c:v>
+                </c:pt>
+                <c:pt idx="688">
+                  <c:v>819.0</c:v>
+                </c:pt>
+                <c:pt idx="689">
+                  <c:v>820.0</c:v>
+                </c:pt>
+                <c:pt idx="690">
+                  <c:v>821.0</c:v>
+                </c:pt>
+                <c:pt idx="691">
+                  <c:v>822.0</c:v>
+                </c:pt>
+                <c:pt idx="692">
+                  <c:v>823.0</c:v>
+                </c:pt>
+                <c:pt idx="693">
+                  <c:v>824.0</c:v>
+                </c:pt>
+                <c:pt idx="694">
+                  <c:v>825.0</c:v>
+                </c:pt>
+                <c:pt idx="695">
+                  <c:v>826.0</c:v>
+                </c:pt>
+                <c:pt idx="696">
+                  <c:v>827.0</c:v>
+                </c:pt>
+                <c:pt idx="697">
+                  <c:v>828.0</c:v>
+                </c:pt>
+                <c:pt idx="698">
+                  <c:v>829.0</c:v>
+                </c:pt>
+                <c:pt idx="699">
+                  <c:v>830.0</c:v>
+                </c:pt>
+                <c:pt idx="700">
+                  <c:v>831.0</c:v>
+                </c:pt>
+                <c:pt idx="701">
+                  <c:v>832.0</c:v>
+                </c:pt>
+                <c:pt idx="702">
+                  <c:v>833.0</c:v>
+                </c:pt>
+                <c:pt idx="703">
+                  <c:v>834.0</c:v>
+                </c:pt>
+                <c:pt idx="704">
+                  <c:v>835.0</c:v>
+                </c:pt>
+                <c:pt idx="705">
+                  <c:v>836.0</c:v>
+                </c:pt>
+                <c:pt idx="706">
+                  <c:v>837.0</c:v>
+                </c:pt>
+                <c:pt idx="707">
+                  <c:v>838.0</c:v>
+                </c:pt>
+                <c:pt idx="708">
+                  <c:v>839.0</c:v>
+                </c:pt>
+                <c:pt idx="709">
+                  <c:v>840.0</c:v>
+                </c:pt>
+                <c:pt idx="710">
+                  <c:v>841.0</c:v>
+                </c:pt>
+                <c:pt idx="711">
+                  <c:v>842.0</c:v>
+                </c:pt>
+                <c:pt idx="712">
+                  <c:v>843.0</c:v>
+                </c:pt>
+                <c:pt idx="713">
+                  <c:v>844.0</c:v>
+                </c:pt>
+                <c:pt idx="714">
+                  <c:v>845.0</c:v>
+                </c:pt>
+                <c:pt idx="715">
+                  <c:v>846.0</c:v>
+                </c:pt>
+                <c:pt idx="716">
+                  <c:v>847.0</c:v>
+                </c:pt>
+                <c:pt idx="717">
+                  <c:v>848.0</c:v>
+                </c:pt>
+                <c:pt idx="718">
+                  <c:v>849.0</c:v>
+                </c:pt>
+                <c:pt idx="719">
+                  <c:v>850.0</c:v>
+                </c:pt>
+                <c:pt idx="720">
+                  <c:v>851.0</c:v>
+                </c:pt>
+                <c:pt idx="721">
+                  <c:v>852.0</c:v>
+                </c:pt>
+                <c:pt idx="722">
+                  <c:v>853.0</c:v>
+                </c:pt>
+                <c:pt idx="723">
+                  <c:v>854.0</c:v>
+                </c:pt>
+                <c:pt idx="724">
+                  <c:v>855.0</c:v>
+                </c:pt>
+                <c:pt idx="725">
+                  <c:v>856.0</c:v>
+                </c:pt>
+                <c:pt idx="726">
+                  <c:v>857.0</c:v>
+                </c:pt>
+                <c:pt idx="727">
+                  <c:v>858.0</c:v>
+                </c:pt>
+                <c:pt idx="728">
+                  <c:v>859.0</c:v>
+                </c:pt>
+                <c:pt idx="729">
+                  <c:v>860.0</c:v>
+                </c:pt>
+                <c:pt idx="730">
+                  <c:v>861.0</c:v>
+                </c:pt>
+                <c:pt idx="731">
+                  <c:v>862.0</c:v>
+                </c:pt>
+                <c:pt idx="732">
+                  <c:v>863.0</c:v>
+                </c:pt>
+                <c:pt idx="733">
+                  <c:v>864.0</c:v>
+                </c:pt>
+                <c:pt idx="734">
+                  <c:v>865.0</c:v>
+                </c:pt>
+                <c:pt idx="735">
+                  <c:v>866.0</c:v>
+                </c:pt>
+                <c:pt idx="736">
+                  <c:v>867.0</c:v>
+                </c:pt>
+                <c:pt idx="737">
+                  <c:v>868.0</c:v>
+                </c:pt>
+                <c:pt idx="738">
+                  <c:v>869.0</c:v>
+                </c:pt>
+                <c:pt idx="739">
+                  <c:v>870.0</c:v>
+                </c:pt>
+                <c:pt idx="740">
+                  <c:v>871.0</c:v>
+                </c:pt>
+                <c:pt idx="741">
+                  <c:v>872.0</c:v>
+                </c:pt>
+                <c:pt idx="742">
+                  <c:v>873.0</c:v>
+                </c:pt>
+                <c:pt idx="743">
+                  <c:v>874.0</c:v>
+                </c:pt>
+                <c:pt idx="744">
+                  <c:v>875.0</c:v>
+                </c:pt>
+                <c:pt idx="745">
+                  <c:v>876.0</c:v>
+                </c:pt>
+                <c:pt idx="746">
+                  <c:v>877.0</c:v>
+                </c:pt>
+                <c:pt idx="747">
+                  <c:v>878.0</c:v>
+                </c:pt>
+                <c:pt idx="748">
+                  <c:v>879.0</c:v>
+                </c:pt>
+                <c:pt idx="749">
+                  <c:v>880.0</c:v>
+                </c:pt>
+                <c:pt idx="750">
+                  <c:v>881.0</c:v>
+                </c:pt>
+                <c:pt idx="751">
+                  <c:v>882.0</c:v>
+                </c:pt>
+                <c:pt idx="752">
+                  <c:v>883.0</c:v>
+                </c:pt>
+                <c:pt idx="753">
+                  <c:v>884.0</c:v>
+                </c:pt>
+                <c:pt idx="754">
+                  <c:v>885.0</c:v>
+                </c:pt>
+                <c:pt idx="755">
+                  <c:v>886.0</c:v>
+                </c:pt>
+                <c:pt idx="756">
+                  <c:v>887.0</c:v>
+                </c:pt>
+                <c:pt idx="757">
+                  <c:v>888.0</c:v>
+                </c:pt>
+                <c:pt idx="758">
+                  <c:v>889.0</c:v>
+                </c:pt>
+                <c:pt idx="759">
+                  <c:v>890.0</c:v>
+                </c:pt>
+                <c:pt idx="760">
+                  <c:v>891.0</c:v>
+                </c:pt>
+                <c:pt idx="761">
+                  <c:v>892.0</c:v>
+                </c:pt>
+                <c:pt idx="762">
+                  <c:v>893.0</c:v>
+                </c:pt>
+                <c:pt idx="763">
+                  <c:v>894.0</c:v>
+                </c:pt>
+                <c:pt idx="764">
+                  <c:v>895.0</c:v>
+                </c:pt>
+                <c:pt idx="765">
+                  <c:v>896.0</c:v>
+                </c:pt>
+                <c:pt idx="766">
+                  <c:v>897.0</c:v>
+                </c:pt>
+                <c:pt idx="767">
+                  <c:v>898.0</c:v>
+                </c:pt>
+                <c:pt idx="768">
+                  <c:v>899.0</c:v>
+                </c:pt>
+                <c:pt idx="769">
+                  <c:v>900.0</c:v>
+                </c:pt>
+                <c:pt idx="770">
+                  <c:v>901.0</c:v>
+                </c:pt>
+                <c:pt idx="771">
+                  <c:v>902.0</c:v>
+                </c:pt>
+                <c:pt idx="772">
+                  <c:v>903.0</c:v>
+                </c:pt>
+                <c:pt idx="773">
+                  <c:v>904.0</c:v>
+                </c:pt>
+                <c:pt idx="774">
+                  <c:v>905.0</c:v>
+                </c:pt>
+                <c:pt idx="775">
+                  <c:v>906.0</c:v>
+                </c:pt>
+                <c:pt idx="776">
+                  <c:v>907.0</c:v>
+                </c:pt>
+                <c:pt idx="777">
+                  <c:v>908.0</c:v>
+                </c:pt>
+                <c:pt idx="778">
+                  <c:v>909.0</c:v>
+                </c:pt>
+                <c:pt idx="779">
+                  <c:v>910.0</c:v>
+                </c:pt>
+                <c:pt idx="780">
+                  <c:v>911.0</c:v>
+                </c:pt>
+                <c:pt idx="781">
+                  <c:v>912.0</c:v>
+                </c:pt>
+                <c:pt idx="782">
+                  <c:v>913.0</c:v>
+                </c:pt>
+                <c:pt idx="783">
+                  <c:v>914.0</c:v>
+                </c:pt>
+                <c:pt idx="784">
+                  <c:v>915.0</c:v>
+                </c:pt>
+                <c:pt idx="785">
+                  <c:v>916.0</c:v>
+                </c:pt>
+                <c:pt idx="786">
+                  <c:v>917.0</c:v>
+                </c:pt>
+                <c:pt idx="787">
+                  <c:v>918.0</c:v>
+                </c:pt>
+                <c:pt idx="788">
+                  <c:v>919.0</c:v>
+                </c:pt>
+                <c:pt idx="789">
+                  <c:v>920.0</c:v>
+                </c:pt>
+                <c:pt idx="790">
+                  <c:v>921.0</c:v>
+                </c:pt>
+                <c:pt idx="791">
+                  <c:v>922.0</c:v>
+                </c:pt>
+                <c:pt idx="792">
+                  <c:v>923.0</c:v>
+                </c:pt>
+                <c:pt idx="793">
+                  <c:v>924.0</c:v>
+                </c:pt>
+                <c:pt idx="794">
+                  <c:v>925.0</c:v>
+                </c:pt>
+                <c:pt idx="795">
+                  <c:v>926.0</c:v>
+                </c:pt>
+                <c:pt idx="796">
+                  <c:v>927.0</c:v>
+                </c:pt>
+                <c:pt idx="797">
+                  <c:v>928.0</c:v>
+                </c:pt>
+                <c:pt idx="798">
+                  <c:v>929.0</c:v>
+                </c:pt>
+                <c:pt idx="799">
+                  <c:v>930.0</c:v>
+                </c:pt>
+                <c:pt idx="800">
+                  <c:v>931.0</c:v>
+                </c:pt>
+                <c:pt idx="801">
+                  <c:v>932.0</c:v>
+                </c:pt>
+                <c:pt idx="802">
+                  <c:v>933.0</c:v>
+                </c:pt>
+                <c:pt idx="803">
+                  <c:v>934.0</c:v>
+                </c:pt>
+                <c:pt idx="804">
+                  <c:v>935.0</c:v>
+                </c:pt>
+                <c:pt idx="805">
+                  <c:v>936.0</c:v>
+                </c:pt>
+                <c:pt idx="806">
+                  <c:v>937.0</c:v>
+                </c:pt>
+                <c:pt idx="807">
+                  <c:v>938.0</c:v>
+                </c:pt>
+                <c:pt idx="808">
+                  <c:v>939.0</c:v>
+                </c:pt>
+                <c:pt idx="809">
+                  <c:v>940.0</c:v>
+                </c:pt>
+                <c:pt idx="810">
+                  <c:v>941.0</c:v>
+                </c:pt>
+                <c:pt idx="811">
+                  <c:v>942.0</c:v>
+                </c:pt>
+                <c:pt idx="812">
+                  <c:v>943.0</c:v>
+                </c:pt>
+                <c:pt idx="813">
+                  <c:v>944.0</c:v>
+                </c:pt>
+                <c:pt idx="814">
+                  <c:v>945.0</c:v>
+                </c:pt>
+                <c:pt idx="815">
+                  <c:v>946.0</c:v>
+                </c:pt>
+                <c:pt idx="816">
+                  <c:v>947.0</c:v>
+                </c:pt>
+                <c:pt idx="817">
+                  <c:v>948.0</c:v>
+                </c:pt>
+                <c:pt idx="818">
+                  <c:v>949.0</c:v>
+                </c:pt>
+                <c:pt idx="819">
+                  <c:v>950.0</c:v>
+                </c:pt>
+                <c:pt idx="820">
+                  <c:v>951.0</c:v>
+                </c:pt>
+                <c:pt idx="821">
+                  <c:v>952.0</c:v>
+                </c:pt>
+                <c:pt idx="822">
+                  <c:v>953.0</c:v>
+                </c:pt>
+                <c:pt idx="823">
+                  <c:v>954.0</c:v>
+                </c:pt>
+                <c:pt idx="824">
+                  <c:v>955.0</c:v>
+                </c:pt>
+                <c:pt idx="825">
+                  <c:v>956.0</c:v>
+                </c:pt>
+                <c:pt idx="826">
+                  <c:v>957.0</c:v>
+                </c:pt>
+                <c:pt idx="827">
+                  <c:v>958.0</c:v>
+                </c:pt>
+                <c:pt idx="828">
+                  <c:v>959.0</c:v>
+                </c:pt>
+                <c:pt idx="829">
+                  <c:v>960.0</c:v>
+                </c:pt>
+                <c:pt idx="830">
+                  <c:v>961.0</c:v>
+                </c:pt>
+                <c:pt idx="831">
+                  <c:v>962.0</c:v>
+                </c:pt>
+                <c:pt idx="832">
+                  <c:v>963.0</c:v>
+                </c:pt>
+                <c:pt idx="833">
+                  <c:v>964.0</c:v>
+                </c:pt>
+                <c:pt idx="834">
+                  <c:v>965.0</c:v>
+                </c:pt>
+                <c:pt idx="835">
+                  <c:v>966.0</c:v>
+                </c:pt>
+                <c:pt idx="836">
+                  <c:v>967.0</c:v>
+                </c:pt>
+                <c:pt idx="837">
+                  <c:v>968.0</c:v>
+                </c:pt>
+                <c:pt idx="838">
+                  <c:v>969.0</c:v>
+                </c:pt>
+                <c:pt idx="839">
+                  <c:v>970.0</c:v>
+                </c:pt>
+                <c:pt idx="840">
+                  <c:v>971.0</c:v>
+                </c:pt>
+                <c:pt idx="841">
+                  <c:v>972.0</c:v>
+                </c:pt>
+                <c:pt idx="842">
+                  <c:v>973.0</c:v>
+                </c:pt>
+                <c:pt idx="843">
+                  <c:v>974.0</c:v>
+                </c:pt>
+                <c:pt idx="844">
+                  <c:v>975.0</c:v>
+                </c:pt>
+                <c:pt idx="845">
+                  <c:v>976.0</c:v>
+                </c:pt>
+                <c:pt idx="846">
+                  <c:v>977.0</c:v>
+                </c:pt>
+                <c:pt idx="847">
+                  <c:v>978.0</c:v>
+                </c:pt>
+                <c:pt idx="848">
+                  <c:v>979.0</c:v>
+                </c:pt>
+                <c:pt idx="849">
+                  <c:v>980.0</c:v>
+                </c:pt>
+                <c:pt idx="850">
+                  <c:v>981.0</c:v>
+                </c:pt>
+                <c:pt idx="851">
+                  <c:v>982.0</c:v>
+                </c:pt>
+                <c:pt idx="852">
+                  <c:v>983.0</c:v>
+                </c:pt>
+                <c:pt idx="853">
+                  <c:v>984.0</c:v>
+                </c:pt>
+                <c:pt idx="854">
+                  <c:v>985.0</c:v>
+                </c:pt>
+                <c:pt idx="855">
+                  <c:v>986.0</c:v>
+                </c:pt>
+                <c:pt idx="856">
+                  <c:v>987.0</c:v>
+                </c:pt>
+                <c:pt idx="857">
+                  <c:v>988.0</c:v>
+                </c:pt>
+                <c:pt idx="858">
+                  <c:v>989.0</c:v>
+                </c:pt>
+                <c:pt idx="859">
+                  <c:v>990.0</c:v>
+                </c:pt>
+                <c:pt idx="860">
+                  <c:v>991.0</c:v>
+                </c:pt>
+                <c:pt idx="861">
+                  <c:v>992.0</c:v>
+                </c:pt>
+                <c:pt idx="862">
+                  <c:v>993.0</c:v>
+                </c:pt>
+                <c:pt idx="863">
+                  <c:v>994.0</c:v>
+                </c:pt>
+                <c:pt idx="864">
+                  <c:v>995.0</c:v>
+                </c:pt>
+                <c:pt idx="865">
+                  <c:v>996.0</c:v>
+                </c:pt>
+                <c:pt idx="866">
+                  <c:v>997.0</c:v>
+                </c:pt>
+                <c:pt idx="867">
+                  <c:v>998.0</c:v>
+                </c:pt>
+                <c:pt idx="868">
+                  <c:v>999.0</c:v>
+                </c:pt>
+                <c:pt idx="869">
+                  <c:v>1000.0</c:v>
+                </c:pt>
+                <c:pt idx="870">
+                  <c:v>1001.0</c:v>
+                </c:pt>
+                <c:pt idx="871">
+                  <c:v>1002.0</c:v>
+                </c:pt>
+                <c:pt idx="872">
+                  <c:v>1003.0</c:v>
+                </c:pt>
+                <c:pt idx="873">
+                  <c:v>1004.0</c:v>
+                </c:pt>
+                <c:pt idx="874">
+                  <c:v>1005.0</c:v>
+                </c:pt>
+                <c:pt idx="875">
+                  <c:v>1006.0</c:v>
+                </c:pt>
+                <c:pt idx="876">
+                  <c:v>1007.0</c:v>
+                </c:pt>
+                <c:pt idx="877">
+                  <c:v>1008.0</c:v>
+                </c:pt>
+                <c:pt idx="878">
+                  <c:v>1009.0</c:v>
+                </c:pt>
+                <c:pt idx="879">
+                  <c:v>1010.0</c:v>
+                </c:pt>
+                <c:pt idx="880">
+                  <c:v>1011.0</c:v>
+                </c:pt>
+                <c:pt idx="881">
+                  <c:v>1012.0</c:v>
+                </c:pt>
+                <c:pt idx="882">
+                  <c:v>1013.0</c:v>
+                </c:pt>
+                <c:pt idx="883">
+                  <c:v>1014.0</c:v>
+                </c:pt>
+                <c:pt idx="884">
+                  <c:v>1015.0</c:v>
+                </c:pt>
+                <c:pt idx="885">
+                  <c:v>1016.0</c:v>
+                </c:pt>
+                <c:pt idx="886">
+                  <c:v>1017.0</c:v>
+                </c:pt>
+                <c:pt idx="887">
+                  <c:v>1018.0</c:v>
+                </c:pt>
+                <c:pt idx="888">
+                  <c:v>1019.0</c:v>
+                </c:pt>
+                <c:pt idx="889">
+                  <c:v>1020.0</c:v>
+                </c:pt>
+                <c:pt idx="890">
+                  <c:v>1021.0</c:v>
+                </c:pt>
+                <c:pt idx="891">
+                  <c:v>1022.0</c:v>
+                </c:pt>
+                <c:pt idx="892">
+                  <c:v>1023.0</c:v>
+                </c:pt>
+                <c:pt idx="893">
+                  <c:v>1024.0</c:v>
+                </c:pt>
+                <c:pt idx="894">
+                  <c:v>1025.0</c:v>
+                </c:pt>
+                <c:pt idx="895">
+                  <c:v>1026.0</c:v>
+                </c:pt>
+                <c:pt idx="896">
+                  <c:v>1027.0</c:v>
+                </c:pt>
+                <c:pt idx="897">
+                  <c:v>1028.0</c:v>
+                </c:pt>
+                <c:pt idx="898">
+                  <c:v>1029.0</c:v>
+                </c:pt>
+                <c:pt idx="899">
+                  <c:v>1030.0</c:v>
+                </c:pt>
+                <c:pt idx="900">
+                  <c:v>1031.0</c:v>
+                </c:pt>
+                <c:pt idx="901">
+                  <c:v>1032.0</c:v>
+                </c:pt>
+                <c:pt idx="902">
+                  <c:v>1033.0</c:v>
+                </c:pt>
+                <c:pt idx="903">
+                  <c:v>1034.0</c:v>
+                </c:pt>
+                <c:pt idx="904">
+                  <c:v>1035.0</c:v>
+                </c:pt>
+                <c:pt idx="905">
+                  <c:v>1036.0</c:v>
+                </c:pt>
+                <c:pt idx="906">
+                  <c:v>1037.0</c:v>
+                </c:pt>
+                <c:pt idx="907">
+                  <c:v>1038.0</c:v>
+                </c:pt>
+                <c:pt idx="908">
+                  <c:v>1039.0</c:v>
+                </c:pt>
+                <c:pt idx="909">
+                  <c:v>1040.0</c:v>
+                </c:pt>
+                <c:pt idx="910">
+                  <c:v>1041.0</c:v>
+                </c:pt>
+                <c:pt idx="911">
+                  <c:v>1042.0</c:v>
+                </c:pt>
+                <c:pt idx="912">
+                  <c:v>1043.0</c:v>
+                </c:pt>
+                <c:pt idx="913">
+                  <c:v>1044.0</c:v>
+                </c:pt>
+                <c:pt idx="914">
+                  <c:v>1045.0</c:v>
+                </c:pt>
+                <c:pt idx="915">
+                  <c:v>1046.0</c:v>
+                </c:pt>
+                <c:pt idx="916">
+                  <c:v>1047.0</c:v>
+                </c:pt>
+                <c:pt idx="917">
+                  <c:v>1048.0</c:v>
+                </c:pt>
+                <c:pt idx="918">
+                  <c:v>1049.0</c:v>
+                </c:pt>
+                <c:pt idx="919">
+                  <c:v>1050.0</c:v>
+                </c:pt>
+                <c:pt idx="920">
+                  <c:v>1051.0</c:v>
+                </c:pt>
+                <c:pt idx="921">
+                  <c:v>1052.0</c:v>
+                </c:pt>
+                <c:pt idx="922">
+                  <c:v>1053.0</c:v>
+                </c:pt>
+                <c:pt idx="923">
+                  <c:v>1054.0</c:v>
+                </c:pt>
+                <c:pt idx="924">
+                  <c:v>1055.0</c:v>
+                </c:pt>
+                <c:pt idx="925">
+                  <c:v>1056.0</c:v>
+                </c:pt>
+                <c:pt idx="926">
+                  <c:v>1057.0</c:v>
+                </c:pt>
+                <c:pt idx="927">
+                  <c:v>1058.0</c:v>
+                </c:pt>
+                <c:pt idx="928">
+                  <c:v>1059.0</c:v>
+                </c:pt>
+                <c:pt idx="929">
+                  <c:v>1060.0</c:v>
+                </c:pt>
+                <c:pt idx="930">
+                  <c:v>1061.0</c:v>
+                </c:pt>
+                <c:pt idx="931">
+                  <c:v>1062.0</c:v>
+                </c:pt>
+                <c:pt idx="932">
+                  <c:v>1063.0</c:v>
+                </c:pt>
+                <c:pt idx="933">
+                  <c:v>1064.0</c:v>
+                </c:pt>
+                <c:pt idx="934">
+                  <c:v>1065.0</c:v>
+                </c:pt>
+                <c:pt idx="935">
+                  <c:v>1066.0</c:v>
+                </c:pt>
+                <c:pt idx="936">
+                  <c:v>1067.0</c:v>
+                </c:pt>
+                <c:pt idx="937">
+                  <c:v>1068.0</c:v>
+                </c:pt>
+                <c:pt idx="938">
+                  <c:v>1069.0</c:v>
+                </c:pt>
+                <c:pt idx="939">
+                  <c:v>1070.0</c:v>
+                </c:pt>
+                <c:pt idx="940">
+                  <c:v>1071.0</c:v>
+                </c:pt>
+                <c:pt idx="941">
+                  <c:v>1072.0</c:v>
+                </c:pt>
+                <c:pt idx="942">
+                  <c:v>1073.0</c:v>
+                </c:pt>
+                <c:pt idx="943">
+                  <c:v>1074.0</c:v>
+                </c:pt>
+                <c:pt idx="944">
+                  <c:v>1075.0</c:v>
+                </c:pt>
+                <c:pt idx="945">
+                  <c:v>1076.0</c:v>
+                </c:pt>
+                <c:pt idx="946">
+                  <c:v>1077.0</c:v>
+                </c:pt>
+                <c:pt idx="947">
+                  <c:v>1078.0</c:v>
+                </c:pt>
+                <c:pt idx="948">
+                  <c:v>1079.0</c:v>
+                </c:pt>
+                <c:pt idx="949">
+                  <c:v>1080.0</c:v>
+                </c:pt>
+                <c:pt idx="950">
+                  <c:v>1081.0</c:v>
+                </c:pt>
+                <c:pt idx="951">
+                  <c:v>1082.0</c:v>
+                </c:pt>
+                <c:pt idx="952">
+                  <c:v>1083.0</c:v>
+                </c:pt>
+                <c:pt idx="953">
+                  <c:v>1084.0</c:v>
+                </c:pt>
+                <c:pt idx="954">
+                  <c:v>1085.0</c:v>
+                </c:pt>
+                <c:pt idx="955">
+                  <c:v>1086.0</c:v>
+                </c:pt>
+                <c:pt idx="956">
+                  <c:v>1087.0</c:v>
+                </c:pt>
+                <c:pt idx="957">
+                  <c:v>1088.0</c:v>
+                </c:pt>
+                <c:pt idx="958">
+                  <c:v>1089.0</c:v>
+                </c:pt>
+                <c:pt idx="959">
+                  <c:v>1090.0</c:v>
+                </c:pt>
+                <c:pt idx="960">
+                  <c:v>1091.0</c:v>
+                </c:pt>
+                <c:pt idx="961">
+                  <c:v>1092.0</c:v>
+                </c:pt>
+                <c:pt idx="962">
+                  <c:v>1093.0</c:v>
+                </c:pt>
+                <c:pt idx="963">
+                  <c:v>1094.0</c:v>
+                </c:pt>
+                <c:pt idx="964">
+                  <c:v>1095.0</c:v>
+                </c:pt>
+                <c:pt idx="965">
+                  <c:v>1096.0</c:v>
+                </c:pt>
+                <c:pt idx="966">
+                  <c:v>1097.0</c:v>
+                </c:pt>
+                <c:pt idx="967">
+                  <c:v>1098.0</c:v>
+                </c:pt>
+                <c:pt idx="968">
+                  <c:v>1099.0</c:v>
+                </c:pt>
+                <c:pt idx="969">
+                  <c:v>1100.0</c:v>
+                </c:pt>
+                <c:pt idx="970">
+                  <c:v>1101.0</c:v>
+                </c:pt>
+                <c:pt idx="971">
+                  <c:v>1102.0</c:v>
+                </c:pt>
+                <c:pt idx="972">
+                  <c:v>1103.0</c:v>
+                </c:pt>
+                <c:pt idx="973">
+                  <c:v>1104.0</c:v>
+                </c:pt>
+                <c:pt idx="974">
+                  <c:v>1105.0</c:v>
+                </c:pt>
+                <c:pt idx="975">
+                  <c:v>1106.0</c:v>
+                </c:pt>
+                <c:pt idx="976">
+                  <c:v>1107.0</c:v>
+                </c:pt>
+                <c:pt idx="977">
+                  <c:v>1108.0</c:v>
+                </c:pt>
+                <c:pt idx="978">
+                  <c:v>1109.0</c:v>
+                </c:pt>
+                <c:pt idx="979">
+                  <c:v>1110.0</c:v>
+                </c:pt>
+                <c:pt idx="980">
+                  <c:v>1111.0</c:v>
+                </c:pt>
+                <c:pt idx="981">
+                  <c:v>1112.0</c:v>
+                </c:pt>
+                <c:pt idx="982">
+                  <c:v>1113.0</c:v>
+                </c:pt>
+                <c:pt idx="983">
+                  <c:v>1114.0</c:v>
+                </c:pt>
+                <c:pt idx="984">
+                  <c:v>1115.0</c:v>
+                </c:pt>
+                <c:pt idx="985">
+                  <c:v>1116.0</c:v>
+                </c:pt>
+                <c:pt idx="986">
+                  <c:v>1117.0</c:v>
+                </c:pt>
+                <c:pt idx="987">
+                  <c:v>1118.0</c:v>
+                </c:pt>
+                <c:pt idx="988">
+                  <c:v>1119.0</c:v>
+                </c:pt>
+                <c:pt idx="989">
+                  <c:v>1120.0</c:v>
+                </c:pt>
+                <c:pt idx="990">
+                  <c:v>1121.0</c:v>
+                </c:pt>
+                <c:pt idx="991">
+                  <c:v>1122.0</c:v>
+                </c:pt>
+                <c:pt idx="992">
+                  <c:v>1123.0</c:v>
+                </c:pt>
+                <c:pt idx="993">
+                  <c:v>1124.0</c:v>
+                </c:pt>
+                <c:pt idx="994">
+                  <c:v>1125.0</c:v>
+                </c:pt>
+                <c:pt idx="995">
+                  <c:v>1126.0</c:v>
+                </c:pt>
+                <c:pt idx="996">
+                  <c:v>1127.0</c:v>
+                </c:pt>
+                <c:pt idx="997">
+                  <c:v>1128.0</c:v>
+                </c:pt>
+                <c:pt idx="998">
+                  <c:v>1129.0</c:v>
+                </c:pt>
+                <c:pt idx="999">
+                  <c:v>1130.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
             <c:numRef>
               <c:f>Sheet1!$C$2:$C$1001</c:f>
               <c:numCache>
@@ -6153,19 +12170,3027 @@
                 </c:pt>
               </c:numCache>
             </c:numRef>
-          </c:val>
+          </c:yVal>
           <c:smooth val="0"/>
         </c:ser>
         <c:ser>
           <c:idx val="2"/>
           <c:order val="2"/>
-          <c:tx>
-            <c:v>quick</c:v>
-          </c:tx>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:val>
+          <c:spPr>
+            <a:ln w="31750">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$A$2:$A$1001</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1000"/>
+                <c:pt idx="0">
+                  <c:v>131.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>132.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>133.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>134.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>135.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>136.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>137.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>138.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>139.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>140.0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>141.0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>142.0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>143.0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>144.0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>145.0</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>146.0</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>147.0</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>148.0</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>149.0</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>150.0</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>151.0</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>152.0</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>153.0</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>154.0</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>155.0</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>156.0</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>157.0</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>158.0</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>159.0</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>160.0</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>161.0</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>162.0</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>163.0</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>164.0</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>165.0</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>166.0</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>167.0</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>168.0</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>169.0</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>170.0</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>171.0</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>172.0</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>173.0</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>174.0</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>175.0</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>176.0</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>177.0</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>178.0</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>179.0</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>180.0</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>181.0</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>182.0</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>183.0</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>184.0</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>185.0</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>186.0</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>187.0</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>188.0</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>189.0</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>190.0</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>191.0</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>192.0</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>193.0</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>194.0</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>195.0</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>196.0</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>197.0</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>198.0</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>199.0</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>200.0</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>201.0</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>202.0</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>203.0</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>204.0</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>205.0</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>206.0</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>207.0</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>208.0</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>209.0</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>210.0</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>211.0</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>212.0</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>213.0</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>214.0</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>215.0</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>216.0</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>217.0</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>218.0</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>219.0</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>220.0</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>221.0</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>222.0</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>223.0</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>224.0</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>225.0</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>226.0</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>227.0</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>228.0</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>229.0</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>230.0</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>231.0</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>232.0</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>233.0</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>234.0</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>235.0</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>236.0</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>237.0</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>238.0</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>239.0</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>240.0</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>241.0</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>242.0</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>243.0</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>244.0</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>245.0</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>246.0</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>247.0</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>248.0</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>249.0</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>250.0</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>251.0</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>252.0</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>253.0</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>254.0</c:v>
+                </c:pt>
+                <c:pt idx="124">
+                  <c:v>255.0</c:v>
+                </c:pt>
+                <c:pt idx="125">
+                  <c:v>256.0</c:v>
+                </c:pt>
+                <c:pt idx="126">
+                  <c:v>257.0</c:v>
+                </c:pt>
+                <c:pt idx="127">
+                  <c:v>258.0</c:v>
+                </c:pt>
+                <c:pt idx="128">
+                  <c:v>259.0</c:v>
+                </c:pt>
+                <c:pt idx="129">
+                  <c:v>260.0</c:v>
+                </c:pt>
+                <c:pt idx="130">
+                  <c:v>261.0</c:v>
+                </c:pt>
+                <c:pt idx="131">
+                  <c:v>262.0</c:v>
+                </c:pt>
+                <c:pt idx="132">
+                  <c:v>263.0</c:v>
+                </c:pt>
+                <c:pt idx="133">
+                  <c:v>264.0</c:v>
+                </c:pt>
+                <c:pt idx="134">
+                  <c:v>265.0</c:v>
+                </c:pt>
+                <c:pt idx="135">
+                  <c:v>266.0</c:v>
+                </c:pt>
+                <c:pt idx="136">
+                  <c:v>267.0</c:v>
+                </c:pt>
+                <c:pt idx="137">
+                  <c:v>268.0</c:v>
+                </c:pt>
+                <c:pt idx="138">
+                  <c:v>269.0</c:v>
+                </c:pt>
+                <c:pt idx="139">
+                  <c:v>270.0</c:v>
+                </c:pt>
+                <c:pt idx="140">
+                  <c:v>271.0</c:v>
+                </c:pt>
+                <c:pt idx="141">
+                  <c:v>272.0</c:v>
+                </c:pt>
+                <c:pt idx="142">
+                  <c:v>273.0</c:v>
+                </c:pt>
+                <c:pt idx="143">
+                  <c:v>274.0</c:v>
+                </c:pt>
+                <c:pt idx="144">
+                  <c:v>275.0</c:v>
+                </c:pt>
+                <c:pt idx="145">
+                  <c:v>276.0</c:v>
+                </c:pt>
+                <c:pt idx="146">
+                  <c:v>277.0</c:v>
+                </c:pt>
+                <c:pt idx="147">
+                  <c:v>278.0</c:v>
+                </c:pt>
+                <c:pt idx="148">
+                  <c:v>279.0</c:v>
+                </c:pt>
+                <c:pt idx="149">
+                  <c:v>280.0</c:v>
+                </c:pt>
+                <c:pt idx="150">
+                  <c:v>281.0</c:v>
+                </c:pt>
+                <c:pt idx="151">
+                  <c:v>282.0</c:v>
+                </c:pt>
+                <c:pt idx="152">
+                  <c:v>283.0</c:v>
+                </c:pt>
+                <c:pt idx="153">
+                  <c:v>284.0</c:v>
+                </c:pt>
+                <c:pt idx="154">
+                  <c:v>285.0</c:v>
+                </c:pt>
+                <c:pt idx="155">
+                  <c:v>286.0</c:v>
+                </c:pt>
+                <c:pt idx="156">
+                  <c:v>287.0</c:v>
+                </c:pt>
+                <c:pt idx="157">
+                  <c:v>288.0</c:v>
+                </c:pt>
+                <c:pt idx="158">
+                  <c:v>289.0</c:v>
+                </c:pt>
+                <c:pt idx="159">
+                  <c:v>290.0</c:v>
+                </c:pt>
+                <c:pt idx="160">
+                  <c:v>291.0</c:v>
+                </c:pt>
+                <c:pt idx="161">
+                  <c:v>292.0</c:v>
+                </c:pt>
+                <c:pt idx="162">
+                  <c:v>293.0</c:v>
+                </c:pt>
+                <c:pt idx="163">
+                  <c:v>294.0</c:v>
+                </c:pt>
+                <c:pt idx="164">
+                  <c:v>295.0</c:v>
+                </c:pt>
+                <c:pt idx="165">
+                  <c:v>296.0</c:v>
+                </c:pt>
+                <c:pt idx="166">
+                  <c:v>297.0</c:v>
+                </c:pt>
+                <c:pt idx="167">
+                  <c:v>298.0</c:v>
+                </c:pt>
+                <c:pt idx="168">
+                  <c:v>299.0</c:v>
+                </c:pt>
+                <c:pt idx="169">
+                  <c:v>300.0</c:v>
+                </c:pt>
+                <c:pt idx="170">
+                  <c:v>301.0</c:v>
+                </c:pt>
+                <c:pt idx="171">
+                  <c:v>302.0</c:v>
+                </c:pt>
+                <c:pt idx="172">
+                  <c:v>303.0</c:v>
+                </c:pt>
+                <c:pt idx="173">
+                  <c:v>304.0</c:v>
+                </c:pt>
+                <c:pt idx="174">
+                  <c:v>305.0</c:v>
+                </c:pt>
+                <c:pt idx="175">
+                  <c:v>306.0</c:v>
+                </c:pt>
+                <c:pt idx="176">
+                  <c:v>307.0</c:v>
+                </c:pt>
+                <c:pt idx="177">
+                  <c:v>308.0</c:v>
+                </c:pt>
+                <c:pt idx="178">
+                  <c:v>309.0</c:v>
+                </c:pt>
+                <c:pt idx="179">
+                  <c:v>310.0</c:v>
+                </c:pt>
+                <c:pt idx="180">
+                  <c:v>311.0</c:v>
+                </c:pt>
+                <c:pt idx="181">
+                  <c:v>312.0</c:v>
+                </c:pt>
+                <c:pt idx="182">
+                  <c:v>313.0</c:v>
+                </c:pt>
+                <c:pt idx="183">
+                  <c:v>314.0</c:v>
+                </c:pt>
+                <c:pt idx="184">
+                  <c:v>315.0</c:v>
+                </c:pt>
+                <c:pt idx="185">
+                  <c:v>316.0</c:v>
+                </c:pt>
+                <c:pt idx="186">
+                  <c:v>317.0</c:v>
+                </c:pt>
+                <c:pt idx="187">
+                  <c:v>318.0</c:v>
+                </c:pt>
+                <c:pt idx="188">
+                  <c:v>319.0</c:v>
+                </c:pt>
+                <c:pt idx="189">
+                  <c:v>320.0</c:v>
+                </c:pt>
+                <c:pt idx="190">
+                  <c:v>321.0</c:v>
+                </c:pt>
+                <c:pt idx="191">
+                  <c:v>322.0</c:v>
+                </c:pt>
+                <c:pt idx="192">
+                  <c:v>323.0</c:v>
+                </c:pt>
+                <c:pt idx="193">
+                  <c:v>324.0</c:v>
+                </c:pt>
+                <c:pt idx="194">
+                  <c:v>325.0</c:v>
+                </c:pt>
+                <c:pt idx="195">
+                  <c:v>326.0</c:v>
+                </c:pt>
+                <c:pt idx="196">
+                  <c:v>327.0</c:v>
+                </c:pt>
+                <c:pt idx="197">
+                  <c:v>328.0</c:v>
+                </c:pt>
+                <c:pt idx="198">
+                  <c:v>329.0</c:v>
+                </c:pt>
+                <c:pt idx="199">
+                  <c:v>330.0</c:v>
+                </c:pt>
+                <c:pt idx="200">
+                  <c:v>331.0</c:v>
+                </c:pt>
+                <c:pt idx="201">
+                  <c:v>332.0</c:v>
+                </c:pt>
+                <c:pt idx="202">
+                  <c:v>333.0</c:v>
+                </c:pt>
+                <c:pt idx="203">
+                  <c:v>334.0</c:v>
+                </c:pt>
+                <c:pt idx="204">
+                  <c:v>335.0</c:v>
+                </c:pt>
+                <c:pt idx="205">
+                  <c:v>336.0</c:v>
+                </c:pt>
+                <c:pt idx="206">
+                  <c:v>337.0</c:v>
+                </c:pt>
+                <c:pt idx="207">
+                  <c:v>338.0</c:v>
+                </c:pt>
+                <c:pt idx="208">
+                  <c:v>339.0</c:v>
+                </c:pt>
+                <c:pt idx="209">
+                  <c:v>340.0</c:v>
+                </c:pt>
+                <c:pt idx="210">
+                  <c:v>341.0</c:v>
+                </c:pt>
+                <c:pt idx="211">
+                  <c:v>342.0</c:v>
+                </c:pt>
+                <c:pt idx="212">
+                  <c:v>343.0</c:v>
+                </c:pt>
+                <c:pt idx="213">
+                  <c:v>344.0</c:v>
+                </c:pt>
+                <c:pt idx="214">
+                  <c:v>345.0</c:v>
+                </c:pt>
+                <c:pt idx="215">
+                  <c:v>346.0</c:v>
+                </c:pt>
+                <c:pt idx="216">
+                  <c:v>347.0</c:v>
+                </c:pt>
+                <c:pt idx="217">
+                  <c:v>348.0</c:v>
+                </c:pt>
+                <c:pt idx="218">
+                  <c:v>349.0</c:v>
+                </c:pt>
+                <c:pt idx="219">
+                  <c:v>350.0</c:v>
+                </c:pt>
+                <c:pt idx="220">
+                  <c:v>351.0</c:v>
+                </c:pt>
+                <c:pt idx="221">
+                  <c:v>352.0</c:v>
+                </c:pt>
+                <c:pt idx="222">
+                  <c:v>353.0</c:v>
+                </c:pt>
+                <c:pt idx="223">
+                  <c:v>354.0</c:v>
+                </c:pt>
+                <c:pt idx="224">
+                  <c:v>355.0</c:v>
+                </c:pt>
+                <c:pt idx="225">
+                  <c:v>356.0</c:v>
+                </c:pt>
+                <c:pt idx="226">
+                  <c:v>357.0</c:v>
+                </c:pt>
+                <c:pt idx="227">
+                  <c:v>358.0</c:v>
+                </c:pt>
+                <c:pt idx="228">
+                  <c:v>359.0</c:v>
+                </c:pt>
+                <c:pt idx="229">
+                  <c:v>360.0</c:v>
+                </c:pt>
+                <c:pt idx="230">
+                  <c:v>361.0</c:v>
+                </c:pt>
+                <c:pt idx="231">
+                  <c:v>362.0</c:v>
+                </c:pt>
+                <c:pt idx="232">
+                  <c:v>363.0</c:v>
+                </c:pt>
+                <c:pt idx="233">
+                  <c:v>364.0</c:v>
+                </c:pt>
+                <c:pt idx="234">
+                  <c:v>365.0</c:v>
+                </c:pt>
+                <c:pt idx="235">
+                  <c:v>366.0</c:v>
+                </c:pt>
+                <c:pt idx="236">
+                  <c:v>367.0</c:v>
+                </c:pt>
+                <c:pt idx="237">
+                  <c:v>368.0</c:v>
+                </c:pt>
+                <c:pt idx="238">
+                  <c:v>369.0</c:v>
+                </c:pt>
+                <c:pt idx="239">
+                  <c:v>370.0</c:v>
+                </c:pt>
+                <c:pt idx="240">
+                  <c:v>371.0</c:v>
+                </c:pt>
+                <c:pt idx="241">
+                  <c:v>372.0</c:v>
+                </c:pt>
+                <c:pt idx="242">
+                  <c:v>373.0</c:v>
+                </c:pt>
+                <c:pt idx="243">
+                  <c:v>374.0</c:v>
+                </c:pt>
+                <c:pt idx="244">
+                  <c:v>375.0</c:v>
+                </c:pt>
+                <c:pt idx="245">
+                  <c:v>376.0</c:v>
+                </c:pt>
+                <c:pt idx="246">
+                  <c:v>377.0</c:v>
+                </c:pt>
+                <c:pt idx="247">
+                  <c:v>378.0</c:v>
+                </c:pt>
+                <c:pt idx="248">
+                  <c:v>379.0</c:v>
+                </c:pt>
+                <c:pt idx="249">
+                  <c:v>380.0</c:v>
+                </c:pt>
+                <c:pt idx="250">
+                  <c:v>381.0</c:v>
+                </c:pt>
+                <c:pt idx="251">
+                  <c:v>382.0</c:v>
+                </c:pt>
+                <c:pt idx="252">
+                  <c:v>383.0</c:v>
+                </c:pt>
+                <c:pt idx="253">
+                  <c:v>384.0</c:v>
+                </c:pt>
+                <c:pt idx="254">
+                  <c:v>385.0</c:v>
+                </c:pt>
+                <c:pt idx="255">
+                  <c:v>386.0</c:v>
+                </c:pt>
+                <c:pt idx="256">
+                  <c:v>387.0</c:v>
+                </c:pt>
+                <c:pt idx="257">
+                  <c:v>388.0</c:v>
+                </c:pt>
+                <c:pt idx="258">
+                  <c:v>389.0</c:v>
+                </c:pt>
+                <c:pt idx="259">
+                  <c:v>390.0</c:v>
+                </c:pt>
+                <c:pt idx="260">
+                  <c:v>391.0</c:v>
+                </c:pt>
+                <c:pt idx="261">
+                  <c:v>392.0</c:v>
+                </c:pt>
+                <c:pt idx="262">
+                  <c:v>393.0</c:v>
+                </c:pt>
+                <c:pt idx="263">
+                  <c:v>394.0</c:v>
+                </c:pt>
+                <c:pt idx="264">
+                  <c:v>395.0</c:v>
+                </c:pt>
+                <c:pt idx="265">
+                  <c:v>396.0</c:v>
+                </c:pt>
+                <c:pt idx="266">
+                  <c:v>397.0</c:v>
+                </c:pt>
+                <c:pt idx="267">
+                  <c:v>398.0</c:v>
+                </c:pt>
+                <c:pt idx="268">
+                  <c:v>399.0</c:v>
+                </c:pt>
+                <c:pt idx="269">
+                  <c:v>400.0</c:v>
+                </c:pt>
+                <c:pt idx="270">
+                  <c:v>401.0</c:v>
+                </c:pt>
+                <c:pt idx="271">
+                  <c:v>402.0</c:v>
+                </c:pt>
+                <c:pt idx="272">
+                  <c:v>403.0</c:v>
+                </c:pt>
+                <c:pt idx="273">
+                  <c:v>404.0</c:v>
+                </c:pt>
+                <c:pt idx="274">
+                  <c:v>405.0</c:v>
+                </c:pt>
+                <c:pt idx="275">
+                  <c:v>406.0</c:v>
+                </c:pt>
+                <c:pt idx="276">
+                  <c:v>407.0</c:v>
+                </c:pt>
+                <c:pt idx="277">
+                  <c:v>408.0</c:v>
+                </c:pt>
+                <c:pt idx="278">
+                  <c:v>409.0</c:v>
+                </c:pt>
+                <c:pt idx="279">
+                  <c:v>410.0</c:v>
+                </c:pt>
+                <c:pt idx="280">
+                  <c:v>411.0</c:v>
+                </c:pt>
+                <c:pt idx="281">
+                  <c:v>412.0</c:v>
+                </c:pt>
+                <c:pt idx="282">
+                  <c:v>413.0</c:v>
+                </c:pt>
+                <c:pt idx="283">
+                  <c:v>414.0</c:v>
+                </c:pt>
+                <c:pt idx="284">
+                  <c:v>415.0</c:v>
+                </c:pt>
+                <c:pt idx="285">
+                  <c:v>416.0</c:v>
+                </c:pt>
+                <c:pt idx="286">
+                  <c:v>417.0</c:v>
+                </c:pt>
+                <c:pt idx="287">
+                  <c:v>418.0</c:v>
+                </c:pt>
+                <c:pt idx="288">
+                  <c:v>419.0</c:v>
+                </c:pt>
+                <c:pt idx="289">
+                  <c:v>420.0</c:v>
+                </c:pt>
+                <c:pt idx="290">
+                  <c:v>421.0</c:v>
+                </c:pt>
+                <c:pt idx="291">
+                  <c:v>422.0</c:v>
+                </c:pt>
+                <c:pt idx="292">
+                  <c:v>423.0</c:v>
+                </c:pt>
+                <c:pt idx="293">
+                  <c:v>424.0</c:v>
+                </c:pt>
+                <c:pt idx="294">
+                  <c:v>425.0</c:v>
+                </c:pt>
+                <c:pt idx="295">
+                  <c:v>426.0</c:v>
+                </c:pt>
+                <c:pt idx="296">
+                  <c:v>427.0</c:v>
+                </c:pt>
+                <c:pt idx="297">
+                  <c:v>428.0</c:v>
+                </c:pt>
+                <c:pt idx="298">
+                  <c:v>429.0</c:v>
+                </c:pt>
+                <c:pt idx="299">
+                  <c:v>430.0</c:v>
+                </c:pt>
+                <c:pt idx="300">
+                  <c:v>431.0</c:v>
+                </c:pt>
+                <c:pt idx="301">
+                  <c:v>432.0</c:v>
+                </c:pt>
+                <c:pt idx="302">
+                  <c:v>433.0</c:v>
+                </c:pt>
+                <c:pt idx="303">
+                  <c:v>434.0</c:v>
+                </c:pt>
+                <c:pt idx="304">
+                  <c:v>435.0</c:v>
+                </c:pt>
+                <c:pt idx="305">
+                  <c:v>436.0</c:v>
+                </c:pt>
+                <c:pt idx="306">
+                  <c:v>437.0</c:v>
+                </c:pt>
+                <c:pt idx="307">
+                  <c:v>438.0</c:v>
+                </c:pt>
+                <c:pt idx="308">
+                  <c:v>439.0</c:v>
+                </c:pt>
+                <c:pt idx="309">
+                  <c:v>440.0</c:v>
+                </c:pt>
+                <c:pt idx="310">
+                  <c:v>441.0</c:v>
+                </c:pt>
+                <c:pt idx="311">
+                  <c:v>442.0</c:v>
+                </c:pt>
+                <c:pt idx="312">
+                  <c:v>443.0</c:v>
+                </c:pt>
+                <c:pt idx="313">
+                  <c:v>444.0</c:v>
+                </c:pt>
+                <c:pt idx="314">
+                  <c:v>445.0</c:v>
+                </c:pt>
+                <c:pt idx="315">
+                  <c:v>446.0</c:v>
+                </c:pt>
+                <c:pt idx="316">
+                  <c:v>447.0</c:v>
+                </c:pt>
+                <c:pt idx="317">
+                  <c:v>448.0</c:v>
+                </c:pt>
+                <c:pt idx="318">
+                  <c:v>449.0</c:v>
+                </c:pt>
+                <c:pt idx="319">
+                  <c:v>450.0</c:v>
+                </c:pt>
+                <c:pt idx="320">
+                  <c:v>451.0</c:v>
+                </c:pt>
+                <c:pt idx="321">
+                  <c:v>452.0</c:v>
+                </c:pt>
+                <c:pt idx="322">
+                  <c:v>453.0</c:v>
+                </c:pt>
+                <c:pt idx="323">
+                  <c:v>454.0</c:v>
+                </c:pt>
+                <c:pt idx="324">
+                  <c:v>455.0</c:v>
+                </c:pt>
+                <c:pt idx="325">
+                  <c:v>456.0</c:v>
+                </c:pt>
+                <c:pt idx="326">
+                  <c:v>457.0</c:v>
+                </c:pt>
+                <c:pt idx="327">
+                  <c:v>458.0</c:v>
+                </c:pt>
+                <c:pt idx="328">
+                  <c:v>459.0</c:v>
+                </c:pt>
+                <c:pt idx="329">
+                  <c:v>460.0</c:v>
+                </c:pt>
+                <c:pt idx="330">
+                  <c:v>461.0</c:v>
+                </c:pt>
+                <c:pt idx="331">
+                  <c:v>462.0</c:v>
+                </c:pt>
+                <c:pt idx="332">
+                  <c:v>463.0</c:v>
+                </c:pt>
+                <c:pt idx="333">
+                  <c:v>464.0</c:v>
+                </c:pt>
+                <c:pt idx="334">
+                  <c:v>465.0</c:v>
+                </c:pt>
+                <c:pt idx="335">
+                  <c:v>466.0</c:v>
+                </c:pt>
+                <c:pt idx="336">
+                  <c:v>467.0</c:v>
+                </c:pt>
+                <c:pt idx="337">
+                  <c:v>468.0</c:v>
+                </c:pt>
+                <c:pt idx="338">
+                  <c:v>469.0</c:v>
+                </c:pt>
+                <c:pt idx="339">
+                  <c:v>470.0</c:v>
+                </c:pt>
+                <c:pt idx="340">
+                  <c:v>471.0</c:v>
+                </c:pt>
+                <c:pt idx="341">
+                  <c:v>472.0</c:v>
+                </c:pt>
+                <c:pt idx="342">
+                  <c:v>473.0</c:v>
+                </c:pt>
+                <c:pt idx="343">
+                  <c:v>474.0</c:v>
+                </c:pt>
+                <c:pt idx="344">
+                  <c:v>475.0</c:v>
+                </c:pt>
+                <c:pt idx="345">
+                  <c:v>476.0</c:v>
+                </c:pt>
+                <c:pt idx="346">
+                  <c:v>477.0</c:v>
+                </c:pt>
+                <c:pt idx="347">
+                  <c:v>478.0</c:v>
+                </c:pt>
+                <c:pt idx="348">
+                  <c:v>479.0</c:v>
+                </c:pt>
+                <c:pt idx="349">
+                  <c:v>480.0</c:v>
+                </c:pt>
+                <c:pt idx="350">
+                  <c:v>481.0</c:v>
+                </c:pt>
+                <c:pt idx="351">
+                  <c:v>482.0</c:v>
+                </c:pt>
+                <c:pt idx="352">
+                  <c:v>483.0</c:v>
+                </c:pt>
+                <c:pt idx="353">
+                  <c:v>484.0</c:v>
+                </c:pt>
+                <c:pt idx="354">
+                  <c:v>485.0</c:v>
+                </c:pt>
+                <c:pt idx="355">
+                  <c:v>486.0</c:v>
+                </c:pt>
+                <c:pt idx="356">
+                  <c:v>487.0</c:v>
+                </c:pt>
+                <c:pt idx="357">
+                  <c:v>488.0</c:v>
+                </c:pt>
+                <c:pt idx="358">
+                  <c:v>489.0</c:v>
+                </c:pt>
+                <c:pt idx="359">
+                  <c:v>490.0</c:v>
+                </c:pt>
+                <c:pt idx="360">
+                  <c:v>491.0</c:v>
+                </c:pt>
+                <c:pt idx="361">
+                  <c:v>492.0</c:v>
+                </c:pt>
+                <c:pt idx="362">
+                  <c:v>493.0</c:v>
+                </c:pt>
+                <c:pt idx="363">
+                  <c:v>494.0</c:v>
+                </c:pt>
+                <c:pt idx="364">
+                  <c:v>495.0</c:v>
+                </c:pt>
+                <c:pt idx="365">
+                  <c:v>496.0</c:v>
+                </c:pt>
+                <c:pt idx="366">
+                  <c:v>497.0</c:v>
+                </c:pt>
+                <c:pt idx="367">
+                  <c:v>498.0</c:v>
+                </c:pt>
+                <c:pt idx="368">
+                  <c:v>499.0</c:v>
+                </c:pt>
+                <c:pt idx="369">
+                  <c:v>500.0</c:v>
+                </c:pt>
+                <c:pt idx="370">
+                  <c:v>501.0</c:v>
+                </c:pt>
+                <c:pt idx="371">
+                  <c:v>502.0</c:v>
+                </c:pt>
+                <c:pt idx="372">
+                  <c:v>503.0</c:v>
+                </c:pt>
+                <c:pt idx="373">
+                  <c:v>504.0</c:v>
+                </c:pt>
+                <c:pt idx="374">
+                  <c:v>505.0</c:v>
+                </c:pt>
+                <c:pt idx="375">
+                  <c:v>506.0</c:v>
+                </c:pt>
+                <c:pt idx="376">
+                  <c:v>507.0</c:v>
+                </c:pt>
+                <c:pt idx="377">
+                  <c:v>508.0</c:v>
+                </c:pt>
+                <c:pt idx="378">
+                  <c:v>509.0</c:v>
+                </c:pt>
+                <c:pt idx="379">
+                  <c:v>510.0</c:v>
+                </c:pt>
+                <c:pt idx="380">
+                  <c:v>511.0</c:v>
+                </c:pt>
+                <c:pt idx="381">
+                  <c:v>512.0</c:v>
+                </c:pt>
+                <c:pt idx="382">
+                  <c:v>513.0</c:v>
+                </c:pt>
+                <c:pt idx="383">
+                  <c:v>514.0</c:v>
+                </c:pt>
+                <c:pt idx="384">
+                  <c:v>515.0</c:v>
+                </c:pt>
+                <c:pt idx="385">
+                  <c:v>516.0</c:v>
+                </c:pt>
+                <c:pt idx="386">
+                  <c:v>517.0</c:v>
+                </c:pt>
+                <c:pt idx="387">
+                  <c:v>518.0</c:v>
+                </c:pt>
+                <c:pt idx="388">
+                  <c:v>519.0</c:v>
+                </c:pt>
+                <c:pt idx="389">
+                  <c:v>520.0</c:v>
+                </c:pt>
+                <c:pt idx="390">
+                  <c:v>521.0</c:v>
+                </c:pt>
+                <c:pt idx="391">
+                  <c:v>522.0</c:v>
+                </c:pt>
+                <c:pt idx="392">
+                  <c:v>523.0</c:v>
+                </c:pt>
+                <c:pt idx="393">
+                  <c:v>524.0</c:v>
+                </c:pt>
+                <c:pt idx="394">
+                  <c:v>525.0</c:v>
+                </c:pt>
+                <c:pt idx="395">
+                  <c:v>526.0</c:v>
+                </c:pt>
+                <c:pt idx="396">
+                  <c:v>527.0</c:v>
+                </c:pt>
+                <c:pt idx="397">
+                  <c:v>528.0</c:v>
+                </c:pt>
+                <c:pt idx="398">
+                  <c:v>529.0</c:v>
+                </c:pt>
+                <c:pt idx="399">
+                  <c:v>530.0</c:v>
+                </c:pt>
+                <c:pt idx="400">
+                  <c:v>531.0</c:v>
+                </c:pt>
+                <c:pt idx="401">
+                  <c:v>532.0</c:v>
+                </c:pt>
+                <c:pt idx="402">
+                  <c:v>533.0</c:v>
+                </c:pt>
+                <c:pt idx="403">
+                  <c:v>534.0</c:v>
+                </c:pt>
+                <c:pt idx="404">
+                  <c:v>535.0</c:v>
+                </c:pt>
+                <c:pt idx="405">
+                  <c:v>536.0</c:v>
+                </c:pt>
+                <c:pt idx="406">
+                  <c:v>537.0</c:v>
+                </c:pt>
+                <c:pt idx="407">
+                  <c:v>538.0</c:v>
+                </c:pt>
+                <c:pt idx="408">
+                  <c:v>539.0</c:v>
+                </c:pt>
+                <c:pt idx="409">
+                  <c:v>540.0</c:v>
+                </c:pt>
+                <c:pt idx="410">
+                  <c:v>541.0</c:v>
+                </c:pt>
+                <c:pt idx="411">
+                  <c:v>542.0</c:v>
+                </c:pt>
+                <c:pt idx="412">
+                  <c:v>543.0</c:v>
+                </c:pt>
+                <c:pt idx="413">
+                  <c:v>544.0</c:v>
+                </c:pt>
+                <c:pt idx="414">
+                  <c:v>545.0</c:v>
+                </c:pt>
+                <c:pt idx="415">
+                  <c:v>546.0</c:v>
+                </c:pt>
+                <c:pt idx="416">
+                  <c:v>547.0</c:v>
+                </c:pt>
+                <c:pt idx="417">
+                  <c:v>548.0</c:v>
+                </c:pt>
+                <c:pt idx="418">
+                  <c:v>549.0</c:v>
+                </c:pt>
+                <c:pt idx="419">
+                  <c:v>550.0</c:v>
+                </c:pt>
+                <c:pt idx="420">
+                  <c:v>551.0</c:v>
+                </c:pt>
+                <c:pt idx="421">
+                  <c:v>552.0</c:v>
+                </c:pt>
+                <c:pt idx="422">
+                  <c:v>553.0</c:v>
+                </c:pt>
+                <c:pt idx="423">
+                  <c:v>554.0</c:v>
+                </c:pt>
+                <c:pt idx="424">
+                  <c:v>555.0</c:v>
+                </c:pt>
+                <c:pt idx="425">
+                  <c:v>556.0</c:v>
+                </c:pt>
+                <c:pt idx="426">
+                  <c:v>557.0</c:v>
+                </c:pt>
+                <c:pt idx="427">
+                  <c:v>558.0</c:v>
+                </c:pt>
+                <c:pt idx="428">
+                  <c:v>559.0</c:v>
+                </c:pt>
+                <c:pt idx="429">
+                  <c:v>560.0</c:v>
+                </c:pt>
+                <c:pt idx="430">
+                  <c:v>561.0</c:v>
+                </c:pt>
+                <c:pt idx="431">
+                  <c:v>562.0</c:v>
+                </c:pt>
+                <c:pt idx="432">
+                  <c:v>563.0</c:v>
+                </c:pt>
+                <c:pt idx="433">
+                  <c:v>564.0</c:v>
+                </c:pt>
+                <c:pt idx="434">
+                  <c:v>565.0</c:v>
+                </c:pt>
+                <c:pt idx="435">
+                  <c:v>566.0</c:v>
+                </c:pt>
+                <c:pt idx="436">
+                  <c:v>567.0</c:v>
+                </c:pt>
+                <c:pt idx="437">
+                  <c:v>568.0</c:v>
+                </c:pt>
+                <c:pt idx="438">
+                  <c:v>569.0</c:v>
+                </c:pt>
+                <c:pt idx="439">
+                  <c:v>570.0</c:v>
+                </c:pt>
+                <c:pt idx="440">
+                  <c:v>571.0</c:v>
+                </c:pt>
+                <c:pt idx="441">
+                  <c:v>572.0</c:v>
+                </c:pt>
+                <c:pt idx="442">
+                  <c:v>573.0</c:v>
+                </c:pt>
+                <c:pt idx="443">
+                  <c:v>574.0</c:v>
+                </c:pt>
+                <c:pt idx="444">
+                  <c:v>575.0</c:v>
+                </c:pt>
+                <c:pt idx="445">
+                  <c:v>576.0</c:v>
+                </c:pt>
+                <c:pt idx="446">
+                  <c:v>577.0</c:v>
+                </c:pt>
+                <c:pt idx="447">
+                  <c:v>578.0</c:v>
+                </c:pt>
+                <c:pt idx="448">
+                  <c:v>579.0</c:v>
+                </c:pt>
+                <c:pt idx="449">
+                  <c:v>580.0</c:v>
+                </c:pt>
+                <c:pt idx="450">
+                  <c:v>581.0</c:v>
+                </c:pt>
+                <c:pt idx="451">
+                  <c:v>582.0</c:v>
+                </c:pt>
+                <c:pt idx="452">
+                  <c:v>583.0</c:v>
+                </c:pt>
+                <c:pt idx="453">
+                  <c:v>584.0</c:v>
+                </c:pt>
+                <c:pt idx="454">
+                  <c:v>585.0</c:v>
+                </c:pt>
+                <c:pt idx="455">
+                  <c:v>586.0</c:v>
+                </c:pt>
+                <c:pt idx="456">
+                  <c:v>587.0</c:v>
+                </c:pt>
+                <c:pt idx="457">
+                  <c:v>588.0</c:v>
+                </c:pt>
+                <c:pt idx="458">
+                  <c:v>589.0</c:v>
+                </c:pt>
+                <c:pt idx="459">
+                  <c:v>590.0</c:v>
+                </c:pt>
+                <c:pt idx="460">
+                  <c:v>591.0</c:v>
+                </c:pt>
+                <c:pt idx="461">
+                  <c:v>592.0</c:v>
+                </c:pt>
+                <c:pt idx="462">
+                  <c:v>593.0</c:v>
+                </c:pt>
+                <c:pt idx="463">
+                  <c:v>594.0</c:v>
+                </c:pt>
+                <c:pt idx="464">
+                  <c:v>595.0</c:v>
+                </c:pt>
+                <c:pt idx="465">
+                  <c:v>596.0</c:v>
+                </c:pt>
+                <c:pt idx="466">
+                  <c:v>597.0</c:v>
+                </c:pt>
+                <c:pt idx="467">
+                  <c:v>598.0</c:v>
+                </c:pt>
+                <c:pt idx="468">
+                  <c:v>599.0</c:v>
+                </c:pt>
+                <c:pt idx="469">
+                  <c:v>600.0</c:v>
+                </c:pt>
+                <c:pt idx="470">
+                  <c:v>601.0</c:v>
+                </c:pt>
+                <c:pt idx="471">
+                  <c:v>602.0</c:v>
+                </c:pt>
+                <c:pt idx="472">
+                  <c:v>603.0</c:v>
+                </c:pt>
+                <c:pt idx="473">
+                  <c:v>604.0</c:v>
+                </c:pt>
+                <c:pt idx="474">
+                  <c:v>605.0</c:v>
+                </c:pt>
+                <c:pt idx="475">
+                  <c:v>606.0</c:v>
+                </c:pt>
+                <c:pt idx="476">
+                  <c:v>607.0</c:v>
+                </c:pt>
+                <c:pt idx="477">
+                  <c:v>608.0</c:v>
+                </c:pt>
+                <c:pt idx="478">
+                  <c:v>609.0</c:v>
+                </c:pt>
+                <c:pt idx="479">
+                  <c:v>610.0</c:v>
+                </c:pt>
+                <c:pt idx="480">
+                  <c:v>611.0</c:v>
+                </c:pt>
+                <c:pt idx="481">
+                  <c:v>612.0</c:v>
+                </c:pt>
+                <c:pt idx="482">
+                  <c:v>613.0</c:v>
+                </c:pt>
+                <c:pt idx="483">
+                  <c:v>614.0</c:v>
+                </c:pt>
+                <c:pt idx="484">
+                  <c:v>615.0</c:v>
+                </c:pt>
+                <c:pt idx="485">
+                  <c:v>616.0</c:v>
+                </c:pt>
+                <c:pt idx="486">
+                  <c:v>617.0</c:v>
+                </c:pt>
+                <c:pt idx="487">
+                  <c:v>618.0</c:v>
+                </c:pt>
+                <c:pt idx="488">
+                  <c:v>619.0</c:v>
+                </c:pt>
+                <c:pt idx="489">
+                  <c:v>620.0</c:v>
+                </c:pt>
+                <c:pt idx="490">
+                  <c:v>621.0</c:v>
+                </c:pt>
+                <c:pt idx="491">
+                  <c:v>622.0</c:v>
+                </c:pt>
+                <c:pt idx="492">
+                  <c:v>623.0</c:v>
+                </c:pt>
+                <c:pt idx="493">
+                  <c:v>624.0</c:v>
+                </c:pt>
+                <c:pt idx="494">
+                  <c:v>625.0</c:v>
+                </c:pt>
+                <c:pt idx="495">
+                  <c:v>626.0</c:v>
+                </c:pt>
+                <c:pt idx="496">
+                  <c:v>627.0</c:v>
+                </c:pt>
+                <c:pt idx="497">
+                  <c:v>628.0</c:v>
+                </c:pt>
+                <c:pt idx="498">
+                  <c:v>629.0</c:v>
+                </c:pt>
+                <c:pt idx="499">
+                  <c:v>630.0</c:v>
+                </c:pt>
+                <c:pt idx="500">
+                  <c:v>631.0</c:v>
+                </c:pt>
+                <c:pt idx="501">
+                  <c:v>632.0</c:v>
+                </c:pt>
+                <c:pt idx="502">
+                  <c:v>633.0</c:v>
+                </c:pt>
+                <c:pt idx="503">
+                  <c:v>634.0</c:v>
+                </c:pt>
+                <c:pt idx="504">
+                  <c:v>635.0</c:v>
+                </c:pt>
+                <c:pt idx="505">
+                  <c:v>636.0</c:v>
+                </c:pt>
+                <c:pt idx="506">
+                  <c:v>637.0</c:v>
+                </c:pt>
+                <c:pt idx="507">
+                  <c:v>638.0</c:v>
+                </c:pt>
+                <c:pt idx="508">
+                  <c:v>639.0</c:v>
+                </c:pt>
+                <c:pt idx="509">
+                  <c:v>640.0</c:v>
+                </c:pt>
+                <c:pt idx="510">
+                  <c:v>641.0</c:v>
+                </c:pt>
+                <c:pt idx="511">
+                  <c:v>642.0</c:v>
+                </c:pt>
+                <c:pt idx="512">
+                  <c:v>643.0</c:v>
+                </c:pt>
+                <c:pt idx="513">
+                  <c:v>644.0</c:v>
+                </c:pt>
+                <c:pt idx="514">
+                  <c:v>645.0</c:v>
+                </c:pt>
+                <c:pt idx="515">
+                  <c:v>646.0</c:v>
+                </c:pt>
+                <c:pt idx="516">
+                  <c:v>647.0</c:v>
+                </c:pt>
+                <c:pt idx="517">
+                  <c:v>648.0</c:v>
+                </c:pt>
+                <c:pt idx="518">
+                  <c:v>649.0</c:v>
+                </c:pt>
+                <c:pt idx="519">
+                  <c:v>650.0</c:v>
+                </c:pt>
+                <c:pt idx="520">
+                  <c:v>651.0</c:v>
+                </c:pt>
+                <c:pt idx="521">
+                  <c:v>652.0</c:v>
+                </c:pt>
+                <c:pt idx="522">
+                  <c:v>653.0</c:v>
+                </c:pt>
+                <c:pt idx="523">
+                  <c:v>654.0</c:v>
+                </c:pt>
+                <c:pt idx="524">
+                  <c:v>655.0</c:v>
+                </c:pt>
+                <c:pt idx="525">
+                  <c:v>656.0</c:v>
+                </c:pt>
+                <c:pt idx="526">
+                  <c:v>657.0</c:v>
+                </c:pt>
+                <c:pt idx="527">
+                  <c:v>658.0</c:v>
+                </c:pt>
+                <c:pt idx="528">
+                  <c:v>659.0</c:v>
+                </c:pt>
+                <c:pt idx="529">
+                  <c:v>660.0</c:v>
+                </c:pt>
+                <c:pt idx="530">
+                  <c:v>661.0</c:v>
+                </c:pt>
+                <c:pt idx="531">
+                  <c:v>662.0</c:v>
+                </c:pt>
+                <c:pt idx="532">
+                  <c:v>663.0</c:v>
+                </c:pt>
+                <c:pt idx="533">
+                  <c:v>664.0</c:v>
+                </c:pt>
+                <c:pt idx="534">
+                  <c:v>665.0</c:v>
+                </c:pt>
+                <c:pt idx="535">
+                  <c:v>666.0</c:v>
+                </c:pt>
+                <c:pt idx="536">
+                  <c:v>667.0</c:v>
+                </c:pt>
+                <c:pt idx="537">
+                  <c:v>668.0</c:v>
+                </c:pt>
+                <c:pt idx="538">
+                  <c:v>669.0</c:v>
+                </c:pt>
+                <c:pt idx="539">
+                  <c:v>670.0</c:v>
+                </c:pt>
+                <c:pt idx="540">
+                  <c:v>671.0</c:v>
+                </c:pt>
+                <c:pt idx="541">
+                  <c:v>672.0</c:v>
+                </c:pt>
+                <c:pt idx="542">
+                  <c:v>673.0</c:v>
+                </c:pt>
+                <c:pt idx="543">
+                  <c:v>674.0</c:v>
+                </c:pt>
+                <c:pt idx="544">
+                  <c:v>675.0</c:v>
+                </c:pt>
+                <c:pt idx="545">
+                  <c:v>676.0</c:v>
+                </c:pt>
+                <c:pt idx="546">
+                  <c:v>677.0</c:v>
+                </c:pt>
+                <c:pt idx="547">
+                  <c:v>678.0</c:v>
+                </c:pt>
+                <c:pt idx="548">
+                  <c:v>679.0</c:v>
+                </c:pt>
+                <c:pt idx="549">
+                  <c:v>680.0</c:v>
+                </c:pt>
+                <c:pt idx="550">
+                  <c:v>681.0</c:v>
+                </c:pt>
+                <c:pt idx="551">
+                  <c:v>682.0</c:v>
+                </c:pt>
+                <c:pt idx="552">
+                  <c:v>683.0</c:v>
+                </c:pt>
+                <c:pt idx="553">
+                  <c:v>684.0</c:v>
+                </c:pt>
+                <c:pt idx="554">
+                  <c:v>685.0</c:v>
+                </c:pt>
+                <c:pt idx="555">
+                  <c:v>686.0</c:v>
+                </c:pt>
+                <c:pt idx="556">
+                  <c:v>687.0</c:v>
+                </c:pt>
+                <c:pt idx="557">
+                  <c:v>688.0</c:v>
+                </c:pt>
+                <c:pt idx="558">
+                  <c:v>689.0</c:v>
+                </c:pt>
+                <c:pt idx="559">
+                  <c:v>690.0</c:v>
+                </c:pt>
+                <c:pt idx="560">
+                  <c:v>691.0</c:v>
+                </c:pt>
+                <c:pt idx="561">
+                  <c:v>692.0</c:v>
+                </c:pt>
+                <c:pt idx="562">
+                  <c:v>693.0</c:v>
+                </c:pt>
+                <c:pt idx="563">
+                  <c:v>694.0</c:v>
+                </c:pt>
+                <c:pt idx="564">
+                  <c:v>695.0</c:v>
+                </c:pt>
+                <c:pt idx="565">
+                  <c:v>696.0</c:v>
+                </c:pt>
+                <c:pt idx="566">
+                  <c:v>697.0</c:v>
+                </c:pt>
+                <c:pt idx="567">
+                  <c:v>698.0</c:v>
+                </c:pt>
+                <c:pt idx="568">
+                  <c:v>699.0</c:v>
+                </c:pt>
+                <c:pt idx="569">
+                  <c:v>700.0</c:v>
+                </c:pt>
+                <c:pt idx="570">
+                  <c:v>701.0</c:v>
+                </c:pt>
+                <c:pt idx="571">
+                  <c:v>702.0</c:v>
+                </c:pt>
+                <c:pt idx="572">
+                  <c:v>703.0</c:v>
+                </c:pt>
+                <c:pt idx="573">
+                  <c:v>704.0</c:v>
+                </c:pt>
+                <c:pt idx="574">
+                  <c:v>705.0</c:v>
+                </c:pt>
+                <c:pt idx="575">
+                  <c:v>706.0</c:v>
+                </c:pt>
+                <c:pt idx="576">
+                  <c:v>707.0</c:v>
+                </c:pt>
+                <c:pt idx="577">
+                  <c:v>708.0</c:v>
+                </c:pt>
+                <c:pt idx="578">
+                  <c:v>709.0</c:v>
+                </c:pt>
+                <c:pt idx="579">
+                  <c:v>710.0</c:v>
+                </c:pt>
+                <c:pt idx="580">
+                  <c:v>711.0</c:v>
+                </c:pt>
+                <c:pt idx="581">
+                  <c:v>712.0</c:v>
+                </c:pt>
+                <c:pt idx="582">
+                  <c:v>713.0</c:v>
+                </c:pt>
+                <c:pt idx="583">
+                  <c:v>714.0</c:v>
+                </c:pt>
+                <c:pt idx="584">
+                  <c:v>715.0</c:v>
+                </c:pt>
+                <c:pt idx="585">
+                  <c:v>716.0</c:v>
+                </c:pt>
+                <c:pt idx="586">
+                  <c:v>717.0</c:v>
+                </c:pt>
+                <c:pt idx="587">
+                  <c:v>718.0</c:v>
+                </c:pt>
+                <c:pt idx="588">
+                  <c:v>719.0</c:v>
+                </c:pt>
+                <c:pt idx="589">
+                  <c:v>720.0</c:v>
+                </c:pt>
+                <c:pt idx="590">
+                  <c:v>721.0</c:v>
+                </c:pt>
+                <c:pt idx="591">
+                  <c:v>722.0</c:v>
+                </c:pt>
+                <c:pt idx="592">
+                  <c:v>723.0</c:v>
+                </c:pt>
+                <c:pt idx="593">
+                  <c:v>724.0</c:v>
+                </c:pt>
+                <c:pt idx="594">
+                  <c:v>725.0</c:v>
+                </c:pt>
+                <c:pt idx="595">
+                  <c:v>726.0</c:v>
+                </c:pt>
+                <c:pt idx="596">
+                  <c:v>727.0</c:v>
+                </c:pt>
+                <c:pt idx="597">
+                  <c:v>728.0</c:v>
+                </c:pt>
+                <c:pt idx="598">
+                  <c:v>729.0</c:v>
+                </c:pt>
+                <c:pt idx="599">
+                  <c:v>730.0</c:v>
+                </c:pt>
+                <c:pt idx="600">
+                  <c:v>731.0</c:v>
+                </c:pt>
+                <c:pt idx="601">
+                  <c:v>732.0</c:v>
+                </c:pt>
+                <c:pt idx="602">
+                  <c:v>733.0</c:v>
+                </c:pt>
+                <c:pt idx="603">
+                  <c:v>734.0</c:v>
+                </c:pt>
+                <c:pt idx="604">
+                  <c:v>735.0</c:v>
+                </c:pt>
+                <c:pt idx="605">
+                  <c:v>736.0</c:v>
+                </c:pt>
+                <c:pt idx="606">
+                  <c:v>737.0</c:v>
+                </c:pt>
+                <c:pt idx="607">
+                  <c:v>738.0</c:v>
+                </c:pt>
+                <c:pt idx="608">
+                  <c:v>739.0</c:v>
+                </c:pt>
+                <c:pt idx="609">
+                  <c:v>740.0</c:v>
+                </c:pt>
+                <c:pt idx="610">
+                  <c:v>741.0</c:v>
+                </c:pt>
+                <c:pt idx="611">
+                  <c:v>742.0</c:v>
+                </c:pt>
+                <c:pt idx="612">
+                  <c:v>743.0</c:v>
+                </c:pt>
+                <c:pt idx="613">
+                  <c:v>744.0</c:v>
+                </c:pt>
+                <c:pt idx="614">
+                  <c:v>745.0</c:v>
+                </c:pt>
+                <c:pt idx="615">
+                  <c:v>746.0</c:v>
+                </c:pt>
+                <c:pt idx="616">
+                  <c:v>747.0</c:v>
+                </c:pt>
+                <c:pt idx="617">
+                  <c:v>748.0</c:v>
+                </c:pt>
+                <c:pt idx="618">
+                  <c:v>749.0</c:v>
+                </c:pt>
+                <c:pt idx="619">
+                  <c:v>750.0</c:v>
+                </c:pt>
+                <c:pt idx="620">
+                  <c:v>751.0</c:v>
+                </c:pt>
+                <c:pt idx="621">
+                  <c:v>752.0</c:v>
+                </c:pt>
+                <c:pt idx="622">
+                  <c:v>753.0</c:v>
+                </c:pt>
+                <c:pt idx="623">
+                  <c:v>754.0</c:v>
+                </c:pt>
+                <c:pt idx="624">
+                  <c:v>755.0</c:v>
+                </c:pt>
+                <c:pt idx="625">
+                  <c:v>756.0</c:v>
+                </c:pt>
+                <c:pt idx="626">
+                  <c:v>757.0</c:v>
+                </c:pt>
+                <c:pt idx="627">
+                  <c:v>758.0</c:v>
+                </c:pt>
+                <c:pt idx="628">
+                  <c:v>759.0</c:v>
+                </c:pt>
+                <c:pt idx="629">
+                  <c:v>760.0</c:v>
+                </c:pt>
+                <c:pt idx="630">
+                  <c:v>761.0</c:v>
+                </c:pt>
+                <c:pt idx="631">
+                  <c:v>762.0</c:v>
+                </c:pt>
+                <c:pt idx="632">
+                  <c:v>763.0</c:v>
+                </c:pt>
+                <c:pt idx="633">
+                  <c:v>764.0</c:v>
+                </c:pt>
+                <c:pt idx="634">
+                  <c:v>765.0</c:v>
+                </c:pt>
+                <c:pt idx="635">
+                  <c:v>766.0</c:v>
+                </c:pt>
+                <c:pt idx="636">
+                  <c:v>767.0</c:v>
+                </c:pt>
+                <c:pt idx="637">
+                  <c:v>768.0</c:v>
+                </c:pt>
+                <c:pt idx="638">
+                  <c:v>769.0</c:v>
+                </c:pt>
+                <c:pt idx="639">
+                  <c:v>770.0</c:v>
+                </c:pt>
+                <c:pt idx="640">
+                  <c:v>771.0</c:v>
+                </c:pt>
+                <c:pt idx="641">
+                  <c:v>772.0</c:v>
+                </c:pt>
+                <c:pt idx="642">
+                  <c:v>773.0</c:v>
+                </c:pt>
+                <c:pt idx="643">
+                  <c:v>774.0</c:v>
+                </c:pt>
+                <c:pt idx="644">
+                  <c:v>775.0</c:v>
+                </c:pt>
+                <c:pt idx="645">
+                  <c:v>776.0</c:v>
+                </c:pt>
+                <c:pt idx="646">
+                  <c:v>777.0</c:v>
+                </c:pt>
+                <c:pt idx="647">
+                  <c:v>778.0</c:v>
+                </c:pt>
+                <c:pt idx="648">
+                  <c:v>779.0</c:v>
+                </c:pt>
+                <c:pt idx="649">
+                  <c:v>780.0</c:v>
+                </c:pt>
+                <c:pt idx="650">
+                  <c:v>781.0</c:v>
+                </c:pt>
+                <c:pt idx="651">
+                  <c:v>782.0</c:v>
+                </c:pt>
+                <c:pt idx="652">
+                  <c:v>783.0</c:v>
+                </c:pt>
+                <c:pt idx="653">
+                  <c:v>784.0</c:v>
+                </c:pt>
+                <c:pt idx="654">
+                  <c:v>785.0</c:v>
+                </c:pt>
+                <c:pt idx="655">
+                  <c:v>786.0</c:v>
+                </c:pt>
+                <c:pt idx="656">
+                  <c:v>787.0</c:v>
+                </c:pt>
+                <c:pt idx="657">
+                  <c:v>788.0</c:v>
+                </c:pt>
+                <c:pt idx="658">
+                  <c:v>789.0</c:v>
+                </c:pt>
+                <c:pt idx="659">
+                  <c:v>790.0</c:v>
+                </c:pt>
+                <c:pt idx="660">
+                  <c:v>791.0</c:v>
+                </c:pt>
+                <c:pt idx="661">
+                  <c:v>792.0</c:v>
+                </c:pt>
+                <c:pt idx="662">
+                  <c:v>793.0</c:v>
+                </c:pt>
+                <c:pt idx="663">
+                  <c:v>794.0</c:v>
+                </c:pt>
+                <c:pt idx="664">
+                  <c:v>795.0</c:v>
+                </c:pt>
+                <c:pt idx="665">
+                  <c:v>796.0</c:v>
+                </c:pt>
+                <c:pt idx="666">
+                  <c:v>797.0</c:v>
+                </c:pt>
+                <c:pt idx="667">
+                  <c:v>798.0</c:v>
+                </c:pt>
+                <c:pt idx="668">
+                  <c:v>799.0</c:v>
+                </c:pt>
+                <c:pt idx="669">
+                  <c:v>800.0</c:v>
+                </c:pt>
+                <c:pt idx="670">
+                  <c:v>801.0</c:v>
+                </c:pt>
+                <c:pt idx="671">
+                  <c:v>802.0</c:v>
+                </c:pt>
+                <c:pt idx="672">
+                  <c:v>803.0</c:v>
+                </c:pt>
+                <c:pt idx="673">
+                  <c:v>804.0</c:v>
+                </c:pt>
+                <c:pt idx="674">
+                  <c:v>805.0</c:v>
+                </c:pt>
+                <c:pt idx="675">
+                  <c:v>806.0</c:v>
+                </c:pt>
+                <c:pt idx="676">
+                  <c:v>807.0</c:v>
+                </c:pt>
+                <c:pt idx="677">
+                  <c:v>808.0</c:v>
+                </c:pt>
+                <c:pt idx="678">
+                  <c:v>809.0</c:v>
+                </c:pt>
+                <c:pt idx="679">
+                  <c:v>810.0</c:v>
+                </c:pt>
+                <c:pt idx="680">
+                  <c:v>811.0</c:v>
+                </c:pt>
+                <c:pt idx="681">
+                  <c:v>812.0</c:v>
+                </c:pt>
+                <c:pt idx="682">
+                  <c:v>813.0</c:v>
+                </c:pt>
+                <c:pt idx="683">
+                  <c:v>814.0</c:v>
+                </c:pt>
+                <c:pt idx="684">
+                  <c:v>815.0</c:v>
+                </c:pt>
+                <c:pt idx="685">
+                  <c:v>816.0</c:v>
+                </c:pt>
+                <c:pt idx="686">
+                  <c:v>817.0</c:v>
+                </c:pt>
+                <c:pt idx="687">
+                  <c:v>818.0</c:v>
+                </c:pt>
+                <c:pt idx="688">
+                  <c:v>819.0</c:v>
+                </c:pt>
+                <c:pt idx="689">
+                  <c:v>820.0</c:v>
+                </c:pt>
+                <c:pt idx="690">
+                  <c:v>821.0</c:v>
+                </c:pt>
+                <c:pt idx="691">
+                  <c:v>822.0</c:v>
+                </c:pt>
+                <c:pt idx="692">
+                  <c:v>823.0</c:v>
+                </c:pt>
+                <c:pt idx="693">
+                  <c:v>824.0</c:v>
+                </c:pt>
+                <c:pt idx="694">
+                  <c:v>825.0</c:v>
+                </c:pt>
+                <c:pt idx="695">
+                  <c:v>826.0</c:v>
+                </c:pt>
+                <c:pt idx="696">
+                  <c:v>827.0</c:v>
+                </c:pt>
+                <c:pt idx="697">
+                  <c:v>828.0</c:v>
+                </c:pt>
+                <c:pt idx="698">
+                  <c:v>829.0</c:v>
+                </c:pt>
+                <c:pt idx="699">
+                  <c:v>830.0</c:v>
+                </c:pt>
+                <c:pt idx="700">
+                  <c:v>831.0</c:v>
+                </c:pt>
+                <c:pt idx="701">
+                  <c:v>832.0</c:v>
+                </c:pt>
+                <c:pt idx="702">
+                  <c:v>833.0</c:v>
+                </c:pt>
+                <c:pt idx="703">
+                  <c:v>834.0</c:v>
+                </c:pt>
+                <c:pt idx="704">
+                  <c:v>835.0</c:v>
+                </c:pt>
+                <c:pt idx="705">
+                  <c:v>836.0</c:v>
+                </c:pt>
+                <c:pt idx="706">
+                  <c:v>837.0</c:v>
+                </c:pt>
+                <c:pt idx="707">
+                  <c:v>838.0</c:v>
+                </c:pt>
+                <c:pt idx="708">
+                  <c:v>839.0</c:v>
+                </c:pt>
+                <c:pt idx="709">
+                  <c:v>840.0</c:v>
+                </c:pt>
+                <c:pt idx="710">
+                  <c:v>841.0</c:v>
+                </c:pt>
+                <c:pt idx="711">
+                  <c:v>842.0</c:v>
+                </c:pt>
+                <c:pt idx="712">
+                  <c:v>843.0</c:v>
+                </c:pt>
+                <c:pt idx="713">
+                  <c:v>844.0</c:v>
+                </c:pt>
+                <c:pt idx="714">
+                  <c:v>845.0</c:v>
+                </c:pt>
+                <c:pt idx="715">
+                  <c:v>846.0</c:v>
+                </c:pt>
+                <c:pt idx="716">
+                  <c:v>847.0</c:v>
+                </c:pt>
+                <c:pt idx="717">
+                  <c:v>848.0</c:v>
+                </c:pt>
+                <c:pt idx="718">
+                  <c:v>849.0</c:v>
+                </c:pt>
+                <c:pt idx="719">
+                  <c:v>850.0</c:v>
+                </c:pt>
+                <c:pt idx="720">
+                  <c:v>851.0</c:v>
+                </c:pt>
+                <c:pt idx="721">
+                  <c:v>852.0</c:v>
+                </c:pt>
+                <c:pt idx="722">
+                  <c:v>853.0</c:v>
+                </c:pt>
+                <c:pt idx="723">
+                  <c:v>854.0</c:v>
+                </c:pt>
+                <c:pt idx="724">
+                  <c:v>855.0</c:v>
+                </c:pt>
+                <c:pt idx="725">
+                  <c:v>856.0</c:v>
+                </c:pt>
+                <c:pt idx="726">
+                  <c:v>857.0</c:v>
+                </c:pt>
+                <c:pt idx="727">
+                  <c:v>858.0</c:v>
+                </c:pt>
+                <c:pt idx="728">
+                  <c:v>859.0</c:v>
+                </c:pt>
+                <c:pt idx="729">
+                  <c:v>860.0</c:v>
+                </c:pt>
+                <c:pt idx="730">
+                  <c:v>861.0</c:v>
+                </c:pt>
+                <c:pt idx="731">
+                  <c:v>862.0</c:v>
+                </c:pt>
+                <c:pt idx="732">
+                  <c:v>863.0</c:v>
+                </c:pt>
+                <c:pt idx="733">
+                  <c:v>864.0</c:v>
+                </c:pt>
+                <c:pt idx="734">
+                  <c:v>865.0</c:v>
+                </c:pt>
+                <c:pt idx="735">
+                  <c:v>866.0</c:v>
+                </c:pt>
+                <c:pt idx="736">
+                  <c:v>867.0</c:v>
+                </c:pt>
+                <c:pt idx="737">
+                  <c:v>868.0</c:v>
+                </c:pt>
+                <c:pt idx="738">
+                  <c:v>869.0</c:v>
+                </c:pt>
+                <c:pt idx="739">
+                  <c:v>870.0</c:v>
+                </c:pt>
+                <c:pt idx="740">
+                  <c:v>871.0</c:v>
+                </c:pt>
+                <c:pt idx="741">
+                  <c:v>872.0</c:v>
+                </c:pt>
+                <c:pt idx="742">
+                  <c:v>873.0</c:v>
+                </c:pt>
+                <c:pt idx="743">
+                  <c:v>874.0</c:v>
+                </c:pt>
+                <c:pt idx="744">
+                  <c:v>875.0</c:v>
+                </c:pt>
+                <c:pt idx="745">
+                  <c:v>876.0</c:v>
+                </c:pt>
+                <c:pt idx="746">
+                  <c:v>877.0</c:v>
+                </c:pt>
+                <c:pt idx="747">
+                  <c:v>878.0</c:v>
+                </c:pt>
+                <c:pt idx="748">
+                  <c:v>879.0</c:v>
+                </c:pt>
+                <c:pt idx="749">
+                  <c:v>880.0</c:v>
+                </c:pt>
+                <c:pt idx="750">
+                  <c:v>881.0</c:v>
+                </c:pt>
+                <c:pt idx="751">
+                  <c:v>882.0</c:v>
+                </c:pt>
+                <c:pt idx="752">
+                  <c:v>883.0</c:v>
+                </c:pt>
+                <c:pt idx="753">
+                  <c:v>884.0</c:v>
+                </c:pt>
+                <c:pt idx="754">
+                  <c:v>885.0</c:v>
+                </c:pt>
+                <c:pt idx="755">
+                  <c:v>886.0</c:v>
+                </c:pt>
+                <c:pt idx="756">
+                  <c:v>887.0</c:v>
+                </c:pt>
+                <c:pt idx="757">
+                  <c:v>888.0</c:v>
+                </c:pt>
+                <c:pt idx="758">
+                  <c:v>889.0</c:v>
+                </c:pt>
+                <c:pt idx="759">
+                  <c:v>890.0</c:v>
+                </c:pt>
+                <c:pt idx="760">
+                  <c:v>891.0</c:v>
+                </c:pt>
+                <c:pt idx="761">
+                  <c:v>892.0</c:v>
+                </c:pt>
+                <c:pt idx="762">
+                  <c:v>893.0</c:v>
+                </c:pt>
+                <c:pt idx="763">
+                  <c:v>894.0</c:v>
+                </c:pt>
+                <c:pt idx="764">
+                  <c:v>895.0</c:v>
+                </c:pt>
+                <c:pt idx="765">
+                  <c:v>896.0</c:v>
+                </c:pt>
+                <c:pt idx="766">
+                  <c:v>897.0</c:v>
+                </c:pt>
+                <c:pt idx="767">
+                  <c:v>898.0</c:v>
+                </c:pt>
+                <c:pt idx="768">
+                  <c:v>899.0</c:v>
+                </c:pt>
+                <c:pt idx="769">
+                  <c:v>900.0</c:v>
+                </c:pt>
+                <c:pt idx="770">
+                  <c:v>901.0</c:v>
+                </c:pt>
+                <c:pt idx="771">
+                  <c:v>902.0</c:v>
+                </c:pt>
+                <c:pt idx="772">
+                  <c:v>903.0</c:v>
+                </c:pt>
+                <c:pt idx="773">
+                  <c:v>904.0</c:v>
+                </c:pt>
+                <c:pt idx="774">
+                  <c:v>905.0</c:v>
+                </c:pt>
+                <c:pt idx="775">
+                  <c:v>906.0</c:v>
+                </c:pt>
+                <c:pt idx="776">
+                  <c:v>907.0</c:v>
+                </c:pt>
+                <c:pt idx="777">
+                  <c:v>908.0</c:v>
+                </c:pt>
+                <c:pt idx="778">
+                  <c:v>909.0</c:v>
+                </c:pt>
+                <c:pt idx="779">
+                  <c:v>910.0</c:v>
+                </c:pt>
+                <c:pt idx="780">
+                  <c:v>911.0</c:v>
+                </c:pt>
+                <c:pt idx="781">
+                  <c:v>912.0</c:v>
+                </c:pt>
+                <c:pt idx="782">
+                  <c:v>913.0</c:v>
+                </c:pt>
+                <c:pt idx="783">
+                  <c:v>914.0</c:v>
+                </c:pt>
+                <c:pt idx="784">
+                  <c:v>915.0</c:v>
+                </c:pt>
+                <c:pt idx="785">
+                  <c:v>916.0</c:v>
+                </c:pt>
+                <c:pt idx="786">
+                  <c:v>917.0</c:v>
+                </c:pt>
+                <c:pt idx="787">
+                  <c:v>918.0</c:v>
+                </c:pt>
+                <c:pt idx="788">
+                  <c:v>919.0</c:v>
+                </c:pt>
+                <c:pt idx="789">
+                  <c:v>920.0</c:v>
+                </c:pt>
+                <c:pt idx="790">
+                  <c:v>921.0</c:v>
+                </c:pt>
+                <c:pt idx="791">
+                  <c:v>922.0</c:v>
+                </c:pt>
+                <c:pt idx="792">
+                  <c:v>923.0</c:v>
+                </c:pt>
+                <c:pt idx="793">
+                  <c:v>924.0</c:v>
+                </c:pt>
+                <c:pt idx="794">
+                  <c:v>925.0</c:v>
+                </c:pt>
+                <c:pt idx="795">
+                  <c:v>926.0</c:v>
+                </c:pt>
+                <c:pt idx="796">
+                  <c:v>927.0</c:v>
+                </c:pt>
+                <c:pt idx="797">
+                  <c:v>928.0</c:v>
+                </c:pt>
+                <c:pt idx="798">
+                  <c:v>929.0</c:v>
+                </c:pt>
+                <c:pt idx="799">
+                  <c:v>930.0</c:v>
+                </c:pt>
+                <c:pt idx="800">
+                  <c:v>931.0</c:v>
+                </c:pt>
+                <c:pt idx="801">
+                  <c:v>932.0</c:v>
+                </c:pt>
+                <c:pt idx="802">
+                  <c:v>933.0</c:v>
+                </c:pt>
+                <c:pt idx="803">
+                  <c:v>934.0</c:v>
+                </c:pt>
+                <c:pt idx="804">
+                  <c:v>935.0</c:v>
+                </c:pt>
+                <c:pt idx="805">
+                  <c:v>936.0</c:v>
+                </c:pt>
+                <c:pt idx="806">
+                  <c:v>937.0</c:v>
+                </c:pt>
+                <c:pt idx="807">
+                  <c:v>938.0</c:v>
+                </c:pt>
+                <c:pt idx="808">
+                  <c:v>939.0</c:v>
+                </c:pt>
+                <c:pt idx="809">
+                  <c:v>940.0</c:v>
+                </c:pt>
+                <c:pt idx="810">
+                  <c:v>941.0</c:v>
+                </c:pt>
+                <c:pt idx="811">
+                  <c:v>942.0</c:v>
+                </c:pt>
+                <c:pt idx="812">
+                  <c:v>943.0</c:v>
+                </c:pt>
+                <c:pt idx="813">
+                  <c:v>944.0</c:v>
+                </c:pt>
+                <c:pt idx="814">
+                  <c:v>945.0</c:v>
+                </c:pt>
+                <c:pt idx="815">
+                  <c:v>946.0</c:v>
+                </c:pt>
+                <c:pt idx="816">
+                  <c:v>947.0</c:v>
+                </c:pt>
+                <c:pt idx="817">
+                  <c:v>948.0</c:v>
+                </c:pt>
+                <c:pt idx="818">
+                  <c:v>949.0</c:v>
+                </c:pt>
+                <c:pt idx="819">
+                  <c:v>950.0</c:v>
+                </c:pt>
+                <c:pt idx="820">
+                  <c:v>951.0</c:v>
+                </c:pt>
+                <c:pt idx="821">
+                  <c:v>952.0</c:v>
+                </c:pt>
+                <c:pt idx="822">
+                  <c:v>953.0</c:v>
+                </c:pt>
+                <c:pt idx="823">
+                  <c:v>954.0</c:v>
+                </c:pt>
+                <c:pt idx="824">
+                  <c:v>955.0</c:v>
+                </c:pt>
+                <c:pt idx="825">
+                  <c:v>956.0</c:v>
+                </c:pt>
+                <c:pt idx="826">
+                  <c:v>957.0</c:v>
+                </c:pt>
+                <c:pt idx="827">
+                  <c:v>958.0</c:v>
+                </c:pt>
+                <c:pt idx="828">
+                  <c:v>959.0</c:v>
+                </c:pt>
+                <c:pt idx="829">
+                  <c:v>960.0</c:v>
+                </c:pt>
+                <c:pt idx="830">
+                  <c:v>961.0</c:v>
+                </c:pt>
+                <c:pt idx="831">
+                  <c:v>962.0</c:v>
+                </c:pt>
+                <c:pt idx="832">
+                  <c:v>963.0</c:v>
+                </c:pt>
+                <c:pt idx="833">
+                  <c:v>964.0</c:v>
+                </c:pt>
+                <c:pt idx="834">
+                  <c:v>965.0</c:v>
+                </c:pt>
+                <c:pt idx="835">
+                  <c:v>966.0</c:v>
+                </c:pt>
+                <c:pt idx="836">
+                  <c:v>967.0</c:v>
+                </c:pt>
+                <c:pt idx="837">
+                  <c:v>968.0</c:v>
+                </c:pt>
+                <c:pt idx="838">
+                  <c:v>969.0</c:v>
+                </c:pt>
+                <c:pt idx="839">
+                  <c:v>970.0</c:v>
+                </c:pt>
+                <c:pt idx="840">
+                  <c:v>971.0</c:v>
+                </c:pt>
+                <c:pt idx="841">
+                  <c:v>972.0</c:v>
+                </c:pt>
+                <c:pt idx="842">
+                  <c:v>973.0</c:v>
+                </c:pt>
+                <c:pt idx="843">
+                  <c:v>974.0</c:v>
+                </c:pt>
+                <c:pt idx="844">
+                  <c:v>975.0</c:v>
+                </c:pt>
+                <c:pt idx="845">
+                  <c:v>976.0</c:v>
+                </c:pt>
+                <c:pt idx="846">
+                  <c:v>977.0</c:v>
+                </c:pt>
+                <c:pt idx="847">
+                  <c:v>978.0</c:v>
+                </c:pt>
+                <c:pt idx="848">
+                  <c:v>979.0</c:v>
+                </c:pt>
+                <c:pt idx="849">
+                  <c:v>980.0</c:v>
+                </c:pt>
+                <c:pt idx="850">
+                  <c:v>981.0</c:v>
+                </c:pt>
+                <c:pt idx="851">
+                  <c:v>982.0</c:v>
+                </c:pt>
+                <c:pt idx="852">
+                  <c:v>983.0</c:v>
+                </c:pt>
+                <c:pt idx="853">
+                  <c:v>984.0</c:v>
+                </c:pt>
+                <c:pt idx="854">
+                  <c:v>985.0</c:v>
+                </c:pt>
+                <c:pt idx="855">
+                  <c:v>986.0</c:v>
+                </c:pt>
+                <c:pt idx="856">
+                  <c:v>987.0</c:v>
+                </c:pt>
+                <c:pt idx="857">
+                  <c:v>988.0</c:v>
+                </c:pt>
+                <c:pt idx="858">
+                  <c:v>989.0</c:v>
+                </c:pt>
+                <c:pt idx="859">
+                  <c:v>990.0</c:v>
+                </c:pt>
+                <c:pt idx="860">
+                  <c:v>991.0</c:v>
+                </c:pt>
+                <c:pt idx="861">
+                  <c:v>992.0</c:v>
+                </c:pt>
+                <c:pt idx="862">
+                  <c:v>993.0</c:v>
+                </c:pt>
+                <c:pt idx="863">
+                  <c:v>994.0</c:v>
+                </c:pt>
+                <c:pt idx="864">
+                  <c:v>995.0</c:v>
+                </c:pt>
+                <c:pt idx="865">
+                  <c:v>996.0</c:v>
+                </c:pt>
+                <c:pt idx="866">
+                  <c:v>997.0</c:v>
+                </c:pt>
+                <c:pt idx="867">
+                  <c:v>998.0</c:v>
+                </c:pt>
+                <c:pt idx="868">
+                  <c:v>999.0</c:v>
+                </c:pt>
+                <c:pt idx="869">
+                  <c:v>1000.0</c:v>
+                </c:pt>
+                <c:pt idx="870">
+                  <c:v>1001.0</c:v>
+                </c:pt>
+                <c:pt idx="871">
+                  <c:v>1002.0</c:v>
+                </c:pt>
+                <c:pt idx="872">
+                  <c:v>1003.0</c:v>
+                </c:pt>
+                <c:pt idx="873">
+                  <c:v>1004.0</c:v>
+                </c:pt>
+                <c:pt idx="874">
+                  <c:v>1005.0</c:v>
+                </c:pt>
+                <c:pt idx="875">
+                  <c:v>1006.0</c:v>
+                </c:pt>
+                <c:pt idx="876">
+                  <c:v>1007.0</c:v>
+                </c:pt>
+                <c:pt idx="877">
+                  <c:v>1008.0</c:v>
+                </c:pt>
+                <c:pt idx="878">
+                  <c:v>1009.0</c:v>
+                </c:pt>
+                <c:pt idx="879">
+                  <c:v>1010.0</c:v>
+                </c:pt>
+                <c:pt idx="880">
+                  <c:v>1011.0</c:v>
+                </c:pt>
+                <c:pt idx="881">
+                  <c:v>1012.0</c:v>
+                </c:pt>
+                <c:pt idx="882">
+                  <c:v>1013.0</c:v>
+                </c:pt>
+                <c:pt idx="883">
+                  <c:v>1014.0</c:v>
+                </c:pt>
+                <c:pt idx="884">
+                  <c:v>1015.0</c:v>
+                </c:pt>
+                <c:pt idx="885">
+                  <c:v>1016.0</c:v>
+                </c:pt>
+                <c:pt idx="886">
+                  <c:v>1017.0</c:v>
+                </c:pt>
+                <c:pt idx="887">
+                  <c:v>1018.0</c:v>
+                </c:pt>
+                <c:pt idx="888">
+                  <c:v>1019.0</c:v>
+                </c:pt>
+                <c:pt idx="889">
+                  <c:v>1020.0</c:v>
+                </c:pt>
+                <c:pt idx="890">
+                  <c:v>1021.0</c:v>
+                </c:pt>
+                <c:pt idx="891">
+                  <c:v>1022.0</c:v>
+                </c:pt>
+                <c:pt idx="892">
+                  <c:v>1023.0</c:v>
+                </c:pt>
+                <c:pt idx="893">
+                  <c:v>1024.0</c:v>
+                </c:pt>
+                <c:pt idx="894">
+                  <c:v>1025.0</c:v>
+                </c:pt>
+                <c:pt idx="895">
+                  <c:v>1026.0</c:v>
+                </c:pt>
+                <c:pt idx="896">
+                  <c:v>1027.0</c:v>
+                </c:pt>
+                <c:pt idx="897">
+                  <c:v>1028.0</c:v>
+                </c:pt>
+                <c:pt idx="898">
+                  <c:v>1029.0</c:v>
+                </c:pt>
+                <c:pt idx="899">
+                  <c:v>1030.0</c:v>
+                </c:pt>
+                <c:pt idx="900">
+                  <c:v>1031.0</c:v>
+                </c:pt>
+                <c:pt idx="901">
+                  <c:v>1032.0</c:v>
+                </c:pt>
+                <c:pt idx="902">
+                  <c:v>1033.0</c:v>
+                </c:pt>
+                <c:pt idx="903">
+                  <c:v>1034.0</c:v>
+                </c:pt>
+                <c:pt idx="904">
+                  <c:v>1035.0</c:v>
+                </c:pt>
+                <c:pt idx="905">
+                  <c:v>1036.0</c:v>
+                </c:pt>
+                <c:pt idx="906">
+                  <c:v>1037.0</c:v>
+                </c:pt>
+                <c:pt idx="907">
+                  <c:v>1038.0</c:v>
+                </c:pt>
+                <c:pt idx="908">
+                  <c:v>1039.0</c:v>
+                </c:pt>
+                <c:pt idx="909">
+                  <c:v>1040.0</c:v>
+                </c:pt>
+                <c:pt idx="910">
+                  <c:v>1041.0</c:v>
+                </c:pt>
+                <c:pt idx="911">
+                  <c:v>1042.0</c:v>
+                </c:pt>
+                <c:pt idx="912">
+                  <c:v>1043.0</c:v>
+                </c:pt>
+                <c:pt idx="913">
+                  <c:v>1044.0</c:v>
+                </c:pt>
+                <c:pt idx="914">
+                  <c:v>1045.0</c:v>
+                </c:pt>
+                <c:pt idx="915">
+                  <c:v>1046.0</c:v>
+                </c:pt>
+                <c:pt idx="916">
+                  <c:v>1047.0</c:v>
+                </c:pt>
+                <c:pt idx="917">
+                  <c:v>1048.0</c:v>
+                </c:pt>
+                <c:pt idx="918">
+                  <c:v>1049.0</c:v>
+                </c:pt>
+                <c:pt idx="919">
+                  <c:v>1050.0</c:v>
+                </c:pt>
+                <c:pt idx="920">
+                  <c:v>1051.0</c:v>
+                </c:pt>
+                <c:pt idx="921">
+                  <c:v>1052.0</c:v>
+                </c:pt>
+                <c:pt idx="922">
+                  <c:v>1053.0</c:v>
+                </c:pt>
+                <c:pt idx="923">
+                  <c:v>1054.0</c:v>
+                </c:pt>
+                <c:pt idx="924">
+                  <c:v>1055.0</c:v>
+                </c:pt>
+                <c:pt idx="925">
+                  <c:v>1056.0</c:v>
+                </c:pt>
+                <c:pt idx="926">
+                  <c:v>1057.0</c:v>
+                </c:pt>
+                <c:pt idx="927">
+                  <c:v>1058.0</c:v>
+                </c:pt>
+                <c:pt idx="928">
+                  <c:v>1059.0</c:v>
+                </c:pt>
+                <c:pt idx="929">
+                  <c:v>1060.0</c:v>
+                </c:pt>
+                <c:pt idx="930">
+                  <c:v>1061.0</c:v>
+                </c:pt>
+                <c:pt idx="931">
+                  <c:v>1062.0</c:v>
+                </c:pt>
+                <c:pt idx="932">
+                  <c:v>1063.0</c:v>
+                </c:pt>
+                <c:pt idx="933">
+                  <c:v>1064.0</c:v>
+                </c:pt>
+                <c:pt idx="934">
+                  <c:v>1065.0</c:v>
+                </c:pt>
+                <c:pt idx="935">
+                  <c:v>1066.0</c:v>
+                </c:pt>
+                <c:pt idx="936">
+                  <c:v>1067.0</c:v>
+                </c:pt>
+                <c:pt idx="937">
+                  <c:v>1068.0</c:v>
+                </c:pt>
+                <c:pt idx="938">
+                  <c:v>1069.0</c:v>
+                </c:pt>
+                <c:pt idx="939">
+                  <c:v>1070.0</c:v>
+                </c:pt>
+                <c:pt idx="940">
+                  <c:v>1071.0</c:v>
+                </c:pt>
+                <c:pt idx="941">
+                  <c:v>1072.0</c:v>
+                </c:pt>
+                <c:pt idx="942">
+                  <c:v>1073.0</c:v>
+                </c:pt>
+                <c:pt idx="943">
+                  <c:v>1074.0</c:v>
+                </c:pt>
+                <c:pt idx="944">
+                  <c:v>1075.0</c:v>
+                </c:pt>
+                <c:pt idx="945">
+                  <c:v>1076.0</c:v>
+                </c:pt>
+                <c:pt idx="946">
+                  <c:v>1077.0</c:v>
+                </c:pt>
+                <c:pt idx="947">
+                  <c:v>1078.0</c:v>
+                </c:pt>
+                <c:pt idx="948">
+                  <c:v>1079.0</c:v>
+                </c:pt>
+                <c:pt idx="949">
+                  <c:v>1080.0</c:v>
+                </c:pt>
+                <c:pt idx="950">
+                  <c:v>1081.0</c:v>
+                </c:pt>
+                <c:pt idx="951">
+                  <c:v>1082.0</c:v>
+                </c:pt>
+                <c:pt idx="952">
+                  <c:v>1083.0</c:v>
+                </c:pt>
+                <c:pt idx="953">
+                  <c:v>1084.0</c:v>
+                </c:pt>
+                <c:pt idx="954">
+                  <c:v>1085.0</c:v>
+                </c:pt>
+                <c:pt idx="955">
+                  <c:v>1086.0</c:v>
+                </c:pt>
+                <c:pt idx="956">
+                  <c:v>1087.0</c:v>
+                </c:pt>
+                <c:pt idx="957">
+                  <c:v>1088.0</c:v>
+                </c:pt>
+                <c:pt idx="958">
+                  <c:v>1089.0</c:v>
+                </c:pt>
+                <c:pt idx="959">
+                  <c:v>1090.0</c:v>
+                </c:pt>
+                <c:pt idx="960">
+                  <c:v>1091.0</c:v>
+                </c:pt>
+                <c:pt idx="961">
+                  <c:v>1092.0</c:v>
+                </c:pt>
+                <c:pt idx="962">
+                  <c:v>1093.0</c:v>
+                </c:pt>
+                <c:pt idx="963">
+                  <c:v>1094.0</c:v>
+                </c:pt>
+                <c:pt idx="964">
+                  <c:v>1095.0</c:v>
+                </c:pt>
+                <c:pt idx="965">
+                  <c:v>1096.0</c:v>
+                </c:pt>
+                <c:pt idx="966">
+                  <c:v>1097.0</c:v>
+                </c:pt>
+                <c:pt idx="967">
+                  <c:v>1098.0</c:v>
+                </c:pt>
+                <c:pt idx="968">
+                  <c:v>1099.0</c:v>
+                </c:pt>
+                <c:pt idx="969">
+                  <c:v>1100.0</c:v>
+                </c:pt>
+                <c:pt idx="970">
+                  <c:v>1101.0</c:v>
+                </c:pt>
+                <c:pt idx="971">
+                  <c:v>1102.0</c:v>
+                </c:pt>
+                <c:pt idx="972">
+                  <c:v>1103.0</c:v>
+                </c:pt>
+                <c:pt idx="973">
+                  <c:v>1104.0</c:v>
+                </c:pt>
+                <c:pt idx="974">
+                  <c:v>1105.0</c:v>
+                </c:pt>
+                <c:pt idx="975">
+                  <c:v>1106.0</c:v>
+                </c:pt>
+                <c:pt idx="976">
+                  <c:v>1107.0</c:v>
+                </c:pt>
+                <c:pt idx="977">
+                  <c:v>1108.0</c:v>
+                </c:pt>
+                <c:pt idx="978">
+                  <c:v>1109.0</c:v>
+                </c:pt>
+                <c:pt idx="979">
+                  <c:v>1110.0</c:v>
+                </c:pt>
+                <c:pt idx="980">
+                  <c:v>1111.0</c:v>
+                </c:pt>
+                <c:pt idx="981">
+                  <c:v>1112.0</c:v>
+                </c:pt>
+                <c:pt idx="982">
+                  <c:v>1113.0</c:v>
+                </c:pt>
+                <c:pt idx="983">
+                  <c:v>1114.0</c:v>
+                </c:pt>
+                <c:pt idx="984">
+                  <c:v>1115.0</c:v>
+                </c:pt>
+                <c:pt idx="985">
+                  <c:v>1116.0</c:v>
+                </c:pt>
+                <c:pt idx="986">
+                  <c:v>1117.0</c:v>
+                </c:pt>
+                <c:pt idx="987">
+                  <c:v>1118.0</c:v>
+                </c:pt>
+                <c:pt idx="988">
+                  <c:v>1119.0</c:v>
+                </c:pt>
+                <c:pt idx="989">
+                  <c:v>1120.0</c:v>
+                </c:pt>
+                <c:pt idx="990">
+                  <c:v>1121.0</c:v>
+                </c:pt>
+                <c:pt idx="991">
+                  <c:v>1122.0</c:v>
+                </c:pt>
+                <c:pt idx="992">
+                  <c:v>1123.0</c:v>
+                </c:pt>
+                <c:pt idx="993">
+                  <c:v>1124.0</c:v>
+                </c:pt>
+                <c:pt idx="994">
+                  <c:v>1125.0</c:v>
+                </c:pt>
+                <c:pt idx="995">
+                  <c:v>1126.0</c:v>
+                </c:pt>
+                <c:pt idx="996">
+                  <c:v>1127.0</c:v>
+                </c:pt>
+                <c:pt idx="997">
+                  <c:v>1128.0</c:v>
+                </c:pt>
+                <c:pt idx="998">
+                  <c:v>1129.0</c:v>
+                </c:pt>
+                <c:pt idx="999">
+                  <c:v>1130.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
             <c:numRef>
               <c:f>Sheet1!$D$2:$D$1001</c:f>
               <c:numCache>
@@ -9173,7 +18198,7 @@
                 </c:pt>
               </c:numCache>
             </c:numRef>
-          </c:val>
+          </c:yVal>
           <c:smooth val="0"/>
         </c:ser>
         <c:dLbls>
@@ -9184,29 +18209,26 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:smooth val="0"/>
-        <c:axId val="290828336"/>
-        <c:axId val="291393056"/>
-      </c:lineChart>
-      <c:catAx>
-        <c:axId val="290828336"/>
+        <c:axId val="-918199968"/>
+        <c:axId val="-918212912"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="-918199968"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:majorGridlines/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="291393056"/>
+        <c:crossAx val="-918212912"/>
         <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
       <c:valAx>
-        <c:axId val="291393056"/>
+        <c:axId val="-918212912"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9216,9 +18238,9 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="290828336"/>
+        <c:crossAx val="-918199968"/>
         <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
+        <c:crossBetween val="midCat"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
@@ -9227,7 +18249,7 @@
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="zero"/>
+    <c:dispBlanksAs val="gap"/>
     <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:printSettings>
@@ -9244,18 +18266,18 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>812800</xdr:colOff>
-      <xdr:row>29</xdr:row>
-      <xdr:rowOff>12700</xdr:rowOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>177800</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="11" name="Chart 10"/>
+        <xdr:cNvPr id="3" name="Chart 2"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -9539,7 +18561,7 @@
   <dimension ref="A1:D1002"/>
   <sheetViews>
     <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
-      <selection activeCell="H1010" sqref="H1010"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/hw4/toy4.xlsx
+++ b/hw4/toy4.xlsx
@@ -18294,6 +18294,31 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Quick Sort Only</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
       <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
@@ -25450,8 +25475,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G1022"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" topLeftCell="F18" workbookViewId="0">
-      <selection activeCell="M47" sqref="M47"/>
+    <sheetView tabSelected="1" showRuler="0" zoomScale="56" workbookViewId="0">
+      <selection activeCell="J48" sqref="J48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/hw4/toy4.xlsx
+++ b/hw4/toy4.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="440" windowWidth="25600" windowHeight="14540" tabRatio="500"/>
+    <workbookView xWindow="12800" yWindow="440" windowWidth="12800" windowHeight="14600" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -139,6 +139,9 @@
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
+          <c:tx>
+            <c:v>bubbleSort</c:v>
+          </c:tx>
           <c:spPr>
             <a:ln w="31750">
               <a:noFill/>
@@ -6167,6 +6170,9 @@
         <c:ser>
           <c:idx val="1"/>
           <c:order val="1"/>
+          <c:tx>
+            <c:v>selectionSort</c:v>
+          </c:tx>
           <c:spPr>
             <a:ln w="31750">
               <a:noFill/>
@@ -12195,6 +12201,9 @@
         <c:ser>
           <c:idx val="2"/>
           <c:order val="2"/>
+          <c:tx>
+            <c:v>quickSort</c:v>
+          </c:tx>
           <c:spPr>
             <a:ln w="31750">
               <a:noFill/>
@@ -18228,11 +18237,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-1074611872"/>
-        <c:axId val="-1074609552"/>
+        <c:axId val="-1912919744"/>
+        <c:axId val="-1912917424"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-1074611872"/>
+        <c:axId val="-1912919744"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -18242,12 +18251,12 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-1074609552"/>
+        <c:crossAx val="-1912917424"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-1074609552"/>
+        <c:axId val="-1912917424"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -18257,7 +18266,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-1074611872"/>
+        <c:crossAx val="-1912919744"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -24419,11 +24428,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-1006491968"/>
-        <c:axId val="-1006493328"/>
+        <c:axId val="-1810540304"/>
+        <c:axId val="-1810453168"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-1006491968"/>
+        <c:axId val="-1810540304"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -24479,12 +24488,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1006493328"/>
+        <c:crossAx val="-1810453168"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-1006493328"/>
+        <c:axId val="-1810453168"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -24540,7 +24549,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1006491968"/>
+        <c:crossAx val="-1810540304"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -25475,7 +25484,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G1022"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" zoomScale="56" workbookViewId="0">
+    <sheetView tabSelected="1" showRuler="0" topLeftCell="F1" zoomScale="108" workbookViewId="0">
       <selection activeCell="J48" sqref="J48"/>
     </sheetView>
   </sheetViews>
